--- a/dictionaries/core/2_3/2_3_trimester_rep.xlsx
+++ b/dictionaries/core/2_3/2_3_trimester_rep.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brend\projects\lifecycle\ds-dictionaries\dictionaries\core\2_3\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC3624FD-ADDE-4CE7-8DE2-51B6134129A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="-12" windowWidth="14496" windowHeight="16416"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -362,320 +368,320 @@
     <t>pmcoarse average value (extrapolated back in time using ratio method)</t>
   </si>
   <si>
+    <t>population density</t>
+  </si>
+  <si>
+    <t>building density within a buffer of 100 m</t>
+  </si>
+  <si>
+    <t>building density within a buffer of 300 m</t>
+  </si>
+  <si>
+    <t>connectivity density within a buffer of 100 m</t>
+  </si>
+  <si>
+    <t>connectivity density within a buffer of 300 m</t>
+  </si>
+  <si>
+    <t>length of public bus lines within a buffer of 100 m</t>
+  </si>
+  <si>
+    <t>length of public bus lines within a buffer of 300 m</t>
+  </si>
+  <si>
+    <t>length of public bus lines within a buffer of 500 m</t>
+  </si>
+  <si>
+    <t>number of public bus stops within a buffer of 100 m</t>
+  </si>
+  <si>
+    <t>number of public bus stops within a buffer of 300 m</t>
+  </si>
+  <si>
+    <t>number of public bus stops within a buffer of 500 m</t>
+  </si>
+  <si>
+    <t>number of facilities present within a buffer of 300 m</t>
+  </si>
+  <si>
+    <t>number of different facility types present divided by the maximum potential number of facility types within a buffer of 300 m</t>
+  </si>
+  <si>
+    <t>landuse Shannon's Evenness Index within a buffer of 300 m</t>
+  </si>
+  <si>
+    <t>walkability index (as mean of deciles of facility richness index, landuse shannon's Evenness Index, population density, connectivity density) within a buffer of 300 m</t>
+  </si>
+  <si>
+    <t>percentage of agrgr (agricultural areas, semi-natural areas and wetlands) land use within a buffer of 300 m</t>
+  </si>
+  <si>
+    <t>percentage of airpt (airports) land use within a buffer of 300 m</t>
+  </si>
+  <si>
+    <t>percentage of hdres (continuous urban fabric) land use within a buffer of 300 m</t>
+  </si>
+  <si>
+    <t>percentage of indtr (industrial, commercial, public, military and private units) land use within a buffer of 300 m</t>
+  </si>
+  <si>
+    <t>percentage of ldres (discontinuous dense/medium density/low density urban fabric) land use within a buffer of 300 m</t>
+  </si>
+  <si>
+    <t>percentage of natgr (forests) land use within a buffer of 300 m</t>
+  </si>
+  <si>
+    <t>percentage of other (mineral extraction and dump sites, construction sites, land without current use) land use within a buffer of 300 m</t>
+  </si>
+  <si>
+    <t>percentage of port (port areas) land use within a buffer of 300 m</t>
+  </si>
+  <si>
+    <t>percentage of trans (road and rail network and associated land, fast transit roads and associated land, other roads and associated land, railways and associated land) land use within a buffer of 300 m</t>
+  </si>
+  <si>
+    <t>percentage of urbgr (green urban areas, sports and leisure facilities) land use within a buffer of 300 m</t>
+  </si>
+  <si>
+    <t>percentage of vldres (discontinuous very low density urban fabric) land use within a buffer of 300 m</t>
+  </si>
+  <si>
+    <t>percentage of water land use within a buffer of 300 m</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> straight line distance to nearest blue space &gt; 5,000 m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> straight line distance to nearest green space &gt; 5,000 m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> area of closest blue space &gt; 5,000m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> area of closest green space &gt; 5,000m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> is there a blue space  &gt; 5,000 m2 in a distance of 300 m?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> is there a green space  &gt; 5,000 m2 in a distance of 300 m?</t>
+  </si>
+  <si>
+    <t>average of NDVI values within a buffer of 100 m</t>
+  </si>
+  <si>
+    <t>average of NDVI values within a buffer of 300 m</t>
+  </si>
+  <si>
+    <t>average of NDVI values within a buffer of 500 m</t>
+  </si>
+  <si>
+    <t>day-evening-night level</t>
+  </si>
+  <si>
+    <t>night level</t>
+  </si>
+  <si>
+    <t>categorized day-evening-night level</t>
+  </si>
+  <si>
+    <t>categorized night level</t>
+  </si>
+  <si>
+    <t>straight distance to the nearest road with noise level</t>
+  </si>
+  <si>
+    <t>area-level SES indicator (deprivation index in tertiles)</t>
+  </si>
+  <si>
+    <t>area-level SES indicator (deprivation index in quintiles)</t>
+  </si>
+  <si>
+    <t>inverse distance to nearest road</t>
+  </si>
+  <si>
+    <t>total traffic load of all roads within a buffer of 100 m</t>
+  </si>
+  <si>
+    <t>total traffic load of major roads within a buffer of 100 m</t>
+  </si>
+  <si>
+    <t>traffic density on nearest road</t>
+  </si>
+  <si>
+    <t>number of facilities related to unhealthy food divided by the area of the 300 meters buffer</t>
+  </si>
+  <si>
+    <t>number of open street maps facilities related to unhealthy food divided by the area of the 300 meters buffer</t>
+  </si>
+  <si>
+    <t>average of mean temperature</t>
+  </si>
+  <si>
+    <t>average of minimum temperature</t>
+  </si>
+  <si>
+    <t>average of maximum temperature</t>
+  </si>
+  <si>
+    <t>average of mean relative humidity</t>
+  </si>
+  <si>
+    <t>average of minimum relative humidity</t>
+  </si>
+  <si>
+    <t>average of maximum relative humidity</t>
+  </si>
+  <si>
+    <t>average of DNA-damage UV dose</t>
+  </si>
+  <si>
+    <t>average of erythemal UV dose</t>
+  </si>
+  <si>
+    <t>average of vitamin-d UV dose</t>
+  </si>
+  <si>
+    <t>land surface temperature</t>
+  </si>
+  <si>
+    <t>variable</t>
+  </si>
+  <si>
+    <t>isMissing</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>&lt;50</t>
+  </si>
+  <si>
+    <t>50-54.9</t>
+  </si>
+  <si>
+    <t>55-59.9</t>
+  </si>
+  <si>
+    <t>60-64.9</t>
+  </si>
+  <si>
+    <t>65-69.9</t>
+  </si>
+  <si>
+    <t>&gt;70</t>
+  </si>
+  <si>
+    <t>&lt;55</t>
+  </si>
+  <si>
+    <t>70-74.9</t>
+  </si>
+  <si>
+    <t>&gt;75</t>
+  </si>
+  <si>
+    <t>low deprivated</t>
+  </si>
+  <si>
+    <t>medium deprivated</t>
+  </si>
+  <si>
+    <t>high deprivated</t>
+  </si>
+  <si>
+    <t>medium-low deprivated</t>
+  </si>
+  <si>
+    <t>medium-high deprivated</t>
+  </si>
+  <si>
+    <t>child_id</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>Unique number of the child</t>
+  </si>
+  <si>
+    <t>row_id</t>
+  </si>
+  <si>
+    <t>Unique number of the row (to be sure child_id gets persisted</t>
+  </si>
+  <si>
+    <t>Age of the child in trimesters</t>
+  </si>
+  <si>
+    <t>age_trimester</t>
+  </si>
+  <si>
+    <t>mdist_t</t>
+  </si>
+  <si>
+    <t>distance to meteorological station</t>
+  </si>
+  <si>
+    <t>pm25cu value</t>
+  </si>
+  <si>
+    <t>pm25fe value</t>
+  </si>
+  <si>
+    <t>pm25k value</t>
+  </si>
+  <si>
+    <t>pm25ni value</t>
+  </si>
+  <si>
+    <t>pm25s value</t>
+  </si>
+  <si>
+    <t>pm25si value</t>
+  </si>
+  <si>
+    <t>pm25v value</t>
+  </si>
+  <si>
+    <t>pm25zn value</t>
+  </si>
+  <si>
+    <t>pm10cu value</t>
+  </si>
+  <si>
+    <t>pm10fe value</t>
+  </si>
+  <si>
+    <t>pm10k value</t>
+  </si>
+  <si>
+    <t>pm10ni value</t>
+  </si>
+  <si>
+    <t>pm10s value</t>
+  </si>
+  <si>
+    <t>pm10si value</t>
+  </si>
+  <si>
+    <t>pm10v value</t>
+  </si>
+  <si>
+    <t>pm10zn value</t>
+  </si>
+  <si>
     <t>pm25abs average value (extrapolated back in time using ratio method)</t>
-  </si>
-  <si>
-    <t>pm25cu value (extrapolated back in time using ratio method)</t>
-  </si>
-  <si>
-    <t>pm25fe value (extrapolated back in time using ratio method)</t>
-  </si>
-  <si>
-    <t>pm25k value (extrapolated back in time using ratio method)</t>
-  </si>
-  <si>
-    <t>pm25ni value (extrapolated back in time using ratio method)</t>
-  </si>
-  <si>
-    <t>pm25s value (extrapolated back in time using ratio method)</t>
-  </si>
-  <si>
-    <t>pm25si value (extrapolated back in time using ratio method)</t>
-  </si>
-  <si>
-    <t>pm25v value (extrapolated back in time using ratio method)</t>
-  </si>
-  <si>
-    <t>pm25zn value (extrapolated back in time using ratio method)</t>
-  </si>
-  <si>
-    <t>pm10cu value (extrapolated back in time using ratio method)</t>
-  </si>
-  <si>
-    <t>pm10fe value (extrapolated back in time using ratio method)</t>
-  </si>
-  <si>
-    <t>pm10k value (extrapolated back in time using ratio method)</t>
-  </si>
-  <si>
-    <t>pm10ni value (extrapolated back in time using ratio method)</t>
-  </si>
-  <si>
-    <t>pm10s value (extrapolated back in time using ratio method)</t>
-  </si>
-  <si>
-    <t>pm10si value (extrapolated back in time using ratio method)</t>
-  </si>
-  <si>
-    <t>pm10v value (extrapolated back in time using ratio method)</t>
-  </si>
-  <si>
-    <t>pm10zn value (extrapolated back in time using ratio method)</t>
-  </si>
-  <si>
-    <t>population density</t>
-  </si>
-  <si>
-    <t>building density within a buffer of 100 m</t>
-  </si>
-  <si>
-    <t>building density within a buffer of 300 m</t>
-  </si>
-  <si>
-    <t>connectivity density within a buffer of 100 m</t>
-  </si>
-  <si>
-    <t>connectivity density within a buffer of 300 m</t>
-  </si>
-  <si>
-    <t>length of public bus lines within a buffer of 100 m</t>
-  </si>
-  <si>
-    <t>length of public bus lines within a buffer of 300 m</t>
-  </si>
-  <si>
-    <t>length of public bus lines within a buffer of 500 m</t>
-  </si>
-  <si>
-    <t>number of public bus stops within a buffer of 100 m</t>
-  </si>
-  <si>
-    <t>number of public bus stops within a buffer of 300 m</t>
-  </si>
-  <si>
-    <t>number of public bus stops within a buffer of 500 m</t>
-  </si>
-  <si>
-    <t>number of facilities present within a buffer of 300 m</t>
-  </si>
-  <si>
-    <t>number of different facility types present divided by the maximum potential number of facility types within a buffer of 300 m</t>
-  </si>
-  <si>
-    <t>landuse Shannon's Evenness Index within a buffer of 300 m</t>
-  </si>
-  <si>
-    <t>walkability index (as mean of deciles of facility richness index, landuse shannon's Evenness Index, population density, connectivity density) within a buffer of 300 m</t>
-  </si>
-  <si>
-    <t>percentage of agrgr (agricultural areas, semi-natural areas and wetlands) land use within a buffer of 300 m</t>
-  </si>
-  <si>
-    <t>percentage of airpt (airports) land use within a buffer of 300 m</t>
-  </si>
-  <si>
-    <t>percentage of hdres (continuous urban fabric) land use within a buffer of 300 m</t>
-  </si>
-  <si>
-    <t>percentage of indtr (industrial, commercial, public, military and private units) land use within a buffer of 300 m</t>
-  </si>
-  <si>
-    <t>percentage of ldres (discontinuous dense/medium density/low density urban fabric) land use within a buffer of 300 m</t>
-  </si>
-  <si>
-    <t>percentage of natgr (forests) land use within a buffer of 300 m</t>
-  </si>
-  <si>
-    <t>percentage of other (mineral extraction and dump sites, construction sites, land without current use) land use within a buffer of 300 m</t>
-  </si>
-  <si>
-    <t>percentage of port (port areas) land use within a buffer of 300 m</t>
-  </si>
-  <si>
-    <t>percentage of trans (road and rail network and associated land, fast transit roads and associated land, other roads and associated land, railways and associated land) land use within a buffer of 300 m</t>
-  </si>
-  <si>
-    <t>percentage of urbgr (green urban areas, sports and leisure facilities) land use within a buffer of 300 m</t>
-  </si>
-  <si>
-    <t>percentage of vldres (discontinuous very low density urban fabric) land use within a buffer of 300 m</t>
-  </si>
-  <si>
-    <t>percentage of water land use within a buffer of 300 m</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> straight line distance to nearest blue space &gt; 5,000 m2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> straight line distance to nearest green space &gt; 5,000 m2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> area of closest blue space &gt; 5,000m2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> area of closest green space &gt; 5,000m2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> is there a blue space  &gt; 5,000 m2 in a distance of 300 m?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> is there a green space  &gt; 5,000 m2 in a distance of 300 m?</t>
-  </si>
-  <si>
-    <t>average of NDVI values within a buffer of 100 m</t>
-  </si>
-  <si>
-    <t>average of NDVI values within a buffer of 300 m</t>
-  </si>
-  <si>
-    <t>average of NDVI values within a buffer of 500 m</t>
-  </si>
-  <si>
-    <t>day-evening-night level</t>
-  </si>
-  <si>
-    <t>night level</t>
-  </si>
-  <si>
-    <t>categorized day-evening-night level</t>
-  </si>
-  <si>
-    <t>categorized night level</t>
-  </si>
-  <si>
-    <t>straight distance to the nearest road with noise level</t>
-  </si>
-  <si>
-    <t>area-level SES indicator (deprivation index in tertiles)</t>
-  </si>
-  <si>
-    <t>area-level SES indicator (deprivation index in quintiles)</t>
-  </si>
-  <si>
-    <t>inverse distance to nearest road</t>
-  </si>
-  <si>
-    <t>total traffic load of all roads within a buffer of 100 m</t>
-  </si>
-  <si>
-    <t>total traffic load of major roads within a buffer of 100 m</t>
-  </si>
-  <si>
-    <t>traffic density on nearest road</t>
-  </si>
-  <si>
-    <t>number of facilities related to unhealthy food divided by the area of the 300 meters buffer</t>
-  </si>
-  <si>
-    <t>number of open street maps facilities related to unhealthy food divided by the area of the 300 meters buffer</t>
-  </si>
-  <si>
-    <t>average of mean temperature</t>
-  </si>
-  <si>
-    <t>average of minimum temperature</t>
-  </si>
-  <si>
-    <t>average of maximum temperature</t>
-  </si>
-  <si>
-    <t>average of mean relative humidity</t>
-  </si>
-  <si>
-    <t>average of minimum relative humidity</t>
-  </si>
-  <si>
-    <t>average of maximum relative humidity</t>
-  </si>
-  <si>
-    <t>average of DNA-damage UV dose</t>
-  </si>
-  <si>
-    <t>average of erythemal UV dose</t>
-  </si>
-  <si>
-    <t>average of vitamin-d UV dose</t>
-  </si>
-  <si>
-    <t>land surface temperature</t>
-  </si>
-  <si>
-    <t>variable</t>
-  </si>
-  <si>
-    <t>isMissing</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>&lt;50</t>
-  </si>
-  <si>
-    <t>50-54.9</t>
-  </si>
-  <si>
-    <t>55-59.9</t>
-  </si>
-  <si>
-    <t>60-64.9</t>
-  </si>
-  <si>
-    <t>65-69.9</t>
-  </si>
-  <si>
-    <t>&gt;70</t>
-  </si>
-  <si>
-    <t>&lt;55</t>
-  </si>
-  <si>
-    <t>70-74.9</t>
-  </si>
-  <si>
-    <t>&gt;75</t>
-  </si>
-  <si>
-    <t>low deprivated</t>
-  </si>
-  <si>
-    <t>medium deprivated</t>
-  </si>
-  <si>
-    <t>high deprivated</t>
-  </si>
-  <si>
-    <t>medium-low deprivated</t>
-  </si>
-  <si>
-    <t>medium-high deprivated</t>
-  </si>
-  <si>
-    <t>child_id</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>Unique number of the child</t>
-  </si>
-  <si>
-    <t>row_id</t>
-  </si>
-  <si>
-    <t>Unique number of the row (to be sure child_id gets persisted</t>
-  </si>
-  <si>
-    <t>Age of the child in trimesters</t>
-  </si>
-  <si>
-    <t>age_trimester</t>
-  </si>
-  <si>
-    <t>mdist_t</t>
-  </si>
-  <si>
-    <t>distance to meteorological station</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -767,7 +773,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -809,7 +815,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -841,9 +847,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -875,6 +899,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1070,24 +1112,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D317"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B88" sqref="B88"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="37.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="197.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.77734375" style="2"/>
+    <col min="1" max="1" width="20.36328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="37.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="197.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.81640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1">
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1101,9 +1143,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1">
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>85</v>
@@ -1112,24 +1154,24 @@
         <v>88</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>85</v>
@@ -1138,10 +1180,10 @@
         <v>88</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -1155,7 +1197,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -1169,7 +1211,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1">
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -1183,7 +1225,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1">
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -1197,7 +1239,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1">
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -1211,7 +1253,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1">
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1225,7 +1267,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1">
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1239,7 +1281,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1">
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1250,10 +1292,10 @@
         <v>90</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1264,10 +1306,10 @@
         <v>91</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15" customHeight="1">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1278,10 +1320,10 @@
         <v>91</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15" customHeight="1">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1292,10 +1334,10 @@
         <v>91</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15" customHeight="1">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
@@ -1306,10 +1348,10 @@
         <v>91</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
@@ -1320,10 +1362,10 @@
         <v>91</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
@@ -1334,10 +1376,10 @@
         <v>91</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
@@ -1348,10 +1390,10 @@
         <v>91</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
@@ -1362,10 +1404,10 @@
         <v>91</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
@@ -1376,10 +1418,10 @@
         <v>91</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
@@ -1390,10 +1432,10 @@
         <v>91</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>19</v>
       </c>
@@ -1404,10 +1446,10 @@
         <v>91</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>20</v>
       </c>
@@ -1418,10 +1460,10 @@
         <v>91</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>21</v>
       </c>
@@ -1432,10 +1474,10 @@
         <v>91</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>22</v>
       </c>
@@ -1446,10 +1488,10 @@
         <v>91</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15" customHeight="1">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>23</v>
       </c>
@@ -1460,10 +1502,10 @@
         <v>91</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15" customHeight="1">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>24</v>
       </c>
@@ -1474,10 +1516,10 @@
         <v>91</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15" customHeight="1">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>25</v>
       </c>
@@ -1488,10 +1530,10 @@
         <v>92</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15" customHeight="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>26</v>
       </c>
@@ -1502,10 +1544,10 @@
         <v>93</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15" customHeight="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>27</v>
       </c>
@@ -1516,10 +1558,10 @@
         <v>93</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15" customHeight="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>28</v>
       </c>
@@ -1530,10 +1572,10 @@
         <v>94</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15" customHeight="1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,10 +1586,10 @@
         <v>94</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15" customHeight="1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>30</v>
       </c>
@@ -1558,10 +1600,10 @@
         <v>95</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15" customHeight="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>31</v>
       </c>
@@ -1572,10 +1614,10 @@
         <v>95</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15" customHeight="1">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>32</v>
       </c>
@@ -1586,10 +1628,10 @@
         <v>95</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15" customHeight="1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>33</v>
       </c>
@@ -1600,10 +1642,10 @@
         <v>94</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15" customHeight="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>34</v>
       </c>
@@ -1614,10 +1656,10 @@
         <v>94</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15" customHeight="1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>35</v>
       </c>
@@ -1628,10 +1670,10 @@
         <v>94</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15" customHeight="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>36</v>
       </c>
@@ -1642,10 +1684,10 @@
         <v>94</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="15" customHeight="1">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>37</v>
       </c>
@@ -1656,10 +1698,10 @@
         <v>96</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="15" customHeight="1">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>38</v>
       </c>
@@ -1670,10 +1712,10 @@
         <v>96</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="15" customHeight="1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>39</v>
       </c>
@@ -1684,10 +1726,10 @@
         <v>88</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="15" customHeight="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>40</v>
       </c>
@@ -1698,10 +1740,10 @@
         <v>97</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="15" customHeight="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>41</v>
       </c>
@@ -1712,10 +1754,10 @@
         <v>97</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="15" customHeight="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>42</v>
       </c>
@@ -1726,10 +1768,10 @@
         <v>97</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="15" customHeight="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>43</v>
       </c>
@@ -1740,10 +1782,10 @@
         <v>97</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="15" customHeight="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>44</v>
       </c>
@@ -1754,10 +1796,10 @@
         <v>97</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15" customHeight="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>45</v>
       </c>
@@ -1768,10 +1810,10 @@
         <v>97</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="15" customHeight="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>46</v>
       </c>
@@ -1782,10 +1824,10 @@
         <v>97</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="15" customHeight="1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>47</v>
       </c>
@@ -1796,10 +1838,10 @@
         <v>97</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>48</v>
       </c>
@@ -1810,10 +1852,10 @@
         <v>97</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="15" customHeight="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>49</v>
       </c>
@@ -1824,10 +1866,10 @@
         <v>97</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="15" customHeight="1">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>50</v>
       </c>
@@ -1838,10 +1880,10 @@
         <v>97</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="15" customHeight="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>51</v>
       </c>
@@ -1852,10 +1894,10 @@
         <v>97</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="15" customHeight="1">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>52</v>
       </c>
@@ -1866,10 +1908,10 @@
         <v>98</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="15" customHeight="1">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>53</v>
       </c>
@@ -1880,10 +1922,10 @@
         <v>98</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="15" customHeight="1">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>54</v>
       </c>
@@ -1894,10 +1936,10 @@
         <v>99</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="15" customHeight="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>55</v>
       </c>
@@ -1908,10 +1950,10 @@
         <v>99</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="15" customHeight="1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>56</v>
       </c>
@@ -1922,10 +1964,10 @@
         <v>88</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="15" customHeight="1">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>57</v>
       </c>
@@ -1936,10 +1978,10 @@
         <v>88</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="15" customHeight="1">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>58</v>
       </c>
@@ -1950,10 +1992,10 @@
         <v>100</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="15" customHeight="1">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>59</v>
       </c>
@@ -1964,10 +2006,10 @@
         <v>100</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="15" customHeight="1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>60</v>
       </c>
@@ -1978,10 +2020,10 @@
         <v>100</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="15" customHeight="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>61</v>
       </c>
@@ -1992,10 +2034,10 @@
         <v>101</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="15" customHeight="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>62</v>
       </c>
@@ -2006,10 +2048,10 @@
         <v>101</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="15" customHeight="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>63</v>
       </c>
@@ -2020,10 +2062,10 @@
         <v>88</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="15" customHeight="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>64</v>
       </c>
@@ -2034,10 +2076,10 @@
         <v>88</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="15" customHeight="1">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>65</v>
       </c>
@@ -2048,10 +2090,10 @@
         <v>98</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="15" customHeight="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>66</v>
       </c>
@@ -2062,10 +2104,10 @@
         <v>88</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="15" customHeight="1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>67</v>
       </c>
@@ -2076,10 +2118,10 @@
         <v>88</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="15" customHeight="1">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>68</v>
       </c>
@@ -2090,10 +2132,10 @@
         <v>102</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="15" customHeight="1">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>69</v>
       </c>
@@ -2104,10 +2146,10 @@
         <v>103</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="15" customHeight="1">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>70</v>
       </c>
@@ -2118,10 +2160,10 @@
         <v>103</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="15" customHeight="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>71</v>
       </c>
@@ -2132,10 +2174,10 @@
         <v>104</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="15" customHeight="1">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>72</v>
       </c>
@@ -2146,10 +2188,10 @@
         <v>94</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="15" customHeight="1">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>73</v>
       </c>
@@ -2160,10 +2202,10 @@
         <v>94</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="15" customHeight="1">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>74</v>
       </c>
@@ -2174,10 +2216,10 @@
         <v>105</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="15" customHeight="1">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>75</v>
       </c>
@@ -2188,10 +2230,10 @@
         <v>105</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="15" customHeight="1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>76</v>
       </c>
@@ -2202,10 +2244,10 @@
         <v>105</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="15" customHeight="1">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>77</v>
       </c>
@@ -2216,10 +2258,10 @@
         <v>97</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="15" customHeight="1">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>78</v>
       </c>
@@ -2230,10 +2272,10 @@
         <v>97</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="15" customHeight="1">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>79</v>
       </c>
@@ -2244,10 +2286,10 @@
         <v>97</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="15" customHeight="1">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>80</v>
       </c>
@@ -2258,10 +2300,10 @@
         <v>106</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="15" customHeight="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>81</v>
       </c>
@@ -2272,10 +2314,10 @@
         <v>106</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="15" customHeight="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>82</v>
       </c>
@@ -2286,10 +2328,10 @@
         <v>106</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="15" customHeight="1">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>83</v>
       </c>
@@ -2300,12 +2342,12 @@
         <v>105</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="15" customHeight="1">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>86</v>
@@ -2314,1378 +2356,1378 @@
         <v>98</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="15" customHeight="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
     </row>
-    <row r="90" spans="1:4" ht="15" customHeight="1">
+    <row r="90" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
     </row>
-    <row r="91" spans="1:4" ht="15" customHeight="1">
+    <row r="91" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
     </row>
-    <row r="92" spans="1:4" ht="15" customHeight="1">
+    <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
     </row>
-    <row r="93" spans="1:4" ht="15" customHeight="1">
+    <row r="93" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
     </row>
-    <row r="94" spans="1:4" ht="15" customHeight="1">
+    <row r="94" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
     </row>
-    <row r="95" spans="1:4" ht="15" customHeight="1">
+    <row r="95" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
     </row>
-    <row r="96" spans="1:4" ht="15" customHeight="1">
+    <row r="96" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
     </row>
-    <row r="97" spans="1:4" ht="15" customHeight="1">
+    <row r="97" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
     </row>
-    <row r="98" spans="1:4" ht="15" customHeight="1">
+    <row r="98" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
     </row>
-    <row r="99" spans="1:4" ht="15" customHeight="1">
+    <row r="99" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
     </row>
-    <row r="100" spans="1:4" ht="15" customHeight="1">
+    <row r="100" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
     </row>
-    <row r="101" spans="1:4" ht="15" customHeight="1">
+    <row r="101" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
     </row>
-    <row r="102" spans="1:4" ht="15" customHeight="1">
+    <row r="102" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
     </row>
-    <row r="103" spans="1:4" ht="15" customHeight="1">
+    <row r="103" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
     </row>
-    <row r="104" spans="1:4" ht="15" customHeight="1">
+    <row r="104" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
     </row>
-    <row r="105" spans="1:4" ht="15" customHeight="1">
+    <row r="105" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
     </row>
-    <row r="106" spans="1:4" ht="15" customHeight="1">
+    <row r="106" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
     </row>
-    <row r="107" spans="1:4" ht="15" customHeight="1">
+    <row r="107" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
     </row>
-    <row r="108" spans="1:4" ht="15" customHeight="1">
+    <row r="108" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
     </row>
-    <row r="109" spans="1:4" ht="15" customHeight="1">
+    <row r="109" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
     </row>
-    <row r="110" spans="1:4" ht="15" customHeight="1">
+    <row r="110" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
     </row>
-    <row r="111" spans="1:4" ht="15" customHeight="1">
+    <row r="111" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
     </row>
-    <row r="112" spans="1:4" ht="15" customHeight="1">
+    <row r="112" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
     </row>
-    <row r="113" spans="1:4" ht="15" customHeight="1">
+    <row r="113" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
     </row>
-    <row r="114" spans="1:4" ht="15" customHeight="1">
+    <row r="114" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
     </row>
-    <row r="115" spans="1:4" ht="15" customHeight="1">
+    <row r="115" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
     </row>
-    <row r="116" spans="1:4" ht="15" customHeight="1">
+    <row r="116" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
     </row>
-    <row r="117" spans="1:4" ht="15" customHeight="1">
+    <row r="117" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
     </row>
-    <row r="118" spans="1:4" ht="15" customHeight="1">
+    <row r="118" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
     </row>
-    <row r="119" spans="1:4" ht="15" customHeight="1">
+    <row r="119" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
     </row>
-    <row r="120" spans="1:4" ht="15" customHeight="1">
+    <row r="120" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
     </row>
-    <row r="121" spans="1:4" ht="15" customHeight="1">
+    <row r="121" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
     </row>
-    <row r="122" spans="1:4" ht="15" customHeight="1">
+    <row r="122" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
     </row>
-    <row r="123" spans="1:4" ht="15" customHeight="1">
+    <row r="123" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
     </row>
-    <row r="124" spans="1:4" ht="15" customHeight="1">
+    <row r="124" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
     </row>
-    <row r="125" spans="1:4" ht="15" customHeight="1">
+    <row r="125" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
     </row>
-    <row r="126" spans="1:4" ht="15" customHeight="1">
+    <row r="126" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
     </row>
-    <row r="127" spans="1:4" ht="15" customHeight="1">
+    <row r="127" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
     </row>
-    <row r="128" spans="1:4" ht="15" customHeight="1">
+    <row r="128" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
     </row>
-    <row r="129" spans="1:4" ht="15" customHeight="1">
+    <row r="129" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
     </row>
-    <row r="130" spans="1:4" ht="15" customHeight="1">
+    <row r="130" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
     </row>
-    <row r="131" spans="1:4" ht="15" customHeight="1">
+    <row r="131" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
     </row>
-    <row r="132" spans="1:4" ht="15" customHeight="1">
+    <row r="132" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
     </row>
-    <row r="133" spans="1:4" ht="15" customHeight="1">
+    <row r="133" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
     </row>
-    <row r="134" spans="1:4" ht="15" customHeight="1">
+    <row r="134" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
     </row>
-    <row r="135" spans="1:4" ht="15" customHeight="1">
+    <row r="135" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
     </row>
-    <row r="136" spans="1:4" ht="15" customHeight="1">
+    <row r="136" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
     </row>
-    <row r="137" spans="1:4" ht="15" customHeight="1">
+    <row r="137" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
     </row>
-    <row r="138" spans="1:4" ht="15" customHeight="1">
+    <row r="138" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
     </row>
-    <row r="139" spans="1:4" ht="15" customHeight="1">
+    <row r="139" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
     </row>
-    <row r="140" spans="1:4" ht="15" customHeight="1">
+    <row r="140" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
     </row>
-    <row r="141" spans="1:4" ht="15" customHeight="1">
+    <row r="141" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
     </row>
-    <row r="142" spans="1:4" ht="15" customHeight="1">
+    <row r="142" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
     </row>
-    <row r="143" spans="1:4" ht="15" customHeight="1">
+    <row r="143" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
     </row>
-    <row r="144" spans="1:4" ht="15" customHeight="1">
+    <row r="144" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
     </row>
-    <row r="145" spans="1:4" ht="15" customHeight="1">
+    <row r="145" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
     </row>
-    <row r="146" spans="1:4" ht="15" customHeight="1">
+    <row r="146" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
     </row>
-    <row r="147" spans="1:4" ht="15" customHeight="1">
+    <row r="147" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
     </row>
-    <row r="148" spans="1:4" ht="15" customHeight="1">
+    <row r="148" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
     </row>
-    <row r="149" spans="1:4" ht="15" customHeight="1">
+    <row r="149" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
     </row>
-    <row r="150" spans="1:4" ht="15" customHeight="1">
+    <row r="150" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
     </row>
-    <row r="151" spans="1:4" ht="15" customHeight="1">
+    <row r="151" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
     </row>
-    <row r="152" spans="1:4" ht="15" customHeight="1">
+    <row r="152" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
     </row>
-    <row r="153" spans="1:4" ht="15" customHeight="1">
+    <row r="153" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
     </row>
-    <row r="154" spans="1:4" ht="15" customHeight="1">
+    <row r="154" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
     </row>
-    <row r="155" spans="1:4" ht="15" customHeight="1">
+    <row r="155" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
     </row>
-    <row r="156" spans="1:4" ht="15" customHeight="1">
+    <row r="156" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
     </row>
-    <row r="157" spans="1:4" ht="15" customHeight="1">
+    <row r="157" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
     </row>
-    <row r="158" spans="1:4" ht="15" customHeight="1">
+    <row r="158" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
     </row>
-    <row r="159" spans="1:4" ht="15" customHeight="1">
+    <row r="159" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
     </row>
-    <row r="160" spans="1:4" ht="15" customHeight="1">
+    <row r="160" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
     </row>
-    <row r="161" spans="1:4" ht="15" customHeight="1">
+    <row r="161" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
     </row>
-    <row r="162" spans="1:4" ht="15" customHeight="1">
+    <row r="162" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
     </row>
-    <row r="163" spans="1:4" ht="15" customHeight="1">
+    <row r="163" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
     </row>
-    <row r="164" spans="1:4" ht="15" customHeight="1">
+    <row r="164" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
     </row>
-    <row r="165" spans="1:4" ht="15" customHeight="1">
+    <row r="165" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
     </row>
-    <row r="166" spans="1:4" ht="15" customHeight="1">
+    <row r="166" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
     </row>
-    <row r="167" spans="1:4" ht="15" customHeight="1">
+    <row r="167" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
     </row>
-    <row r="168" spans="1:4" ht="15" customHeight="1">
+    <row r="168" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
     </row>
-    <row r="169" spans="1:4" ht="15" customHeight="1">
+    <row r="169" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
     </row>
-    <row r="170" spans="1:4" ht="15" customHeight="1">
+    <row r="170" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
     </row>
-    <row r="171" spans="1:4" ht="15" customHeight="1">
+    <row r="171" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
     </row>
-    <row r="172" spans="1:4" ht="15" customHeight="1">
+    <row r="172" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
     </row>
-    <row r="173" spans="1:4" ht="15" customHeight="1">
+    <row r="173" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
     </row>
-    <row r="174" spans="1:4" ht="15" customHeight="1">
+    <row r="174" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
     </row>
-    <row r="175" spans="1:4" ht="15" customHeight="1">
+    <row r="175" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
     </row>
-    <row r="176" spans="1:4" ht="15" customHeight="1">
+    <row r="176" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
     </row>
-    <row r="177" spans="1:4" ht="15" customHeight="1">
+    <row r="177" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
     </row>
-    <row r="178" spans="1:4" ht="15" customHeight="1">
+    <row r="178" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
     </row>
-    <row r="179" spans="1:4" ht="15" customHeight="1">
+    <row r="179" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
     </row>
-    <row r="180" spans="1:4" ht="15" customHeight="1">
+    <row r="180" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
     </row>
-    <row r="181" spans="1:4" ht="15" customHeight="1">
+    <row r="181" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
     </row>
-    <row r="182" spans="1:4" ht="15" customHeight="1">
+    <row r="182" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
       <c r="D182" s="4"/>
     </row>
-    <row r="183" spans="1:4" ht="15" customHeight="1">
+    <row r="183" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
       <c r="D183" s="4"/>
     </row>
-    <row r="184" spans="1:4" ht="15" customHeight="1">
+    <row r="184" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
       <c r="D184" s="4"/>
     </row>
-    <row r="185" spans="1:4" ht="15" customHeight="1">
+    <row r="185" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
       <c r="D185" s="4"/>
     </row>
-    <row r="186" spans="1:4" ht="15" customHeight="1">
+    <row r="186" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
       <c r="D186" s="4"/>
     </row>
-    <row r="187" spans="1:4" ht="15" customHeight="1">
+    <row r="187" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
       <c r="D187" s="4"/>
     </row>
-    <row r="188" spans="1:4" ht="15" customHeight="1">
+    <row r="188" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
       <c r="D188" s="4"/>
     </row>
-    <row r="189" spans="1:4" ht="15" customHeight="1">
+    <row r="189" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
       <c r="D189" s="4"/>
     </row>
-    <row r="190" spans="1:4" ht="15" customHeight="1">
+    <row r="190" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
       <c r="D190" s="4"/>
     </row>
-    <row r="191" spans="1:4" ht="15" customHeight="1">
+    <row r="191" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
     </row>
-    <row r="192" spans="1:4" ht="15" customHeight="1">
+    <row r="192" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
       <c r="D192" s="4"/>
     </row>
-    <row r="193" spans="1:4" ht="15" customHeight="1">
+    <row r="193" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
       <c r="D193" s="4"/>
     </row>
-    <row r="194" spans="1:4" ht="15" customHeight="1">
+    <row r="194" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
       <c r="D194" s="4"/>
     </row>
-    <row r="195" spans="1:4" ht="15" customHeight="1">
+    <row r="195" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
       <c r="D195" s="4"/>
     </row>
-    <row r="196" spans="1:4" ht="15" customHeight="1">
+    <row r="196" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
       <c r="D196" s="4"/>
     </row>
-    <row r="197" spans="1:4" ht="15" customHeight="1">
+    <row r="197" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
       <c r="D197" s="4"/>
     </row>
-    <row r="198" spans="1:4" ht="15" customHeight="1">
+    <row r="198" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
       <c r="D198" s="4"/>
     </row>
-    <row r="199" spans="1:4" ht="15" customHeight="1">
+    <row r="199" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
       <c r="D199" s="4"/>
     </row>
-    <row r="200" spans="1:4" ht="15" customHeight="1">
+    <row r="200" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
       <c r="D200" s="4"/>
     </row>
-    <row r="201" spans="1:4" ht="15" customHeight="1">
+    <row r="201" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
       <c r="D201" s="4"/>
     </row>
-    <row r="202" spans="1:4" ht="15" customHeight="1">
+    <row r="202" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
       <c r="D202" s="4"/>
     </row>
-    <row r="203" spans="1:4" ht="15" customHeight="1">
+    <row r="203" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
       <c r="D203" s="4"/>
     </row>
-    <row r="204" spans="1:4" ht="15" customHeight="1">
+    <row r="204" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
       <c r="D204" s="4"/>
     </row>
-    <row r="205" spans="1:4" ht="15" customHeight="1">
+    <row r="205" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A205" s="4"/>
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
       <c r="D205" s="4"/>
     </row>
-    <row r="206" spans="1:4" ht="15" customHeight="1">
+    <row r="206" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
       <c r="D206" s="4"/>
     </row>
-    <row r="207" spans="1:4" ht="15" customHeight="1">
+    <row r="207" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A207" s="4"/>
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
       <c r="D207" s="4"/>
     </row>
-    <row r="208" spans="1:4" ht="15" customHeight="1">
+    <row r="208" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A208" s="4"/>
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
       <c r="D208" s="4"/>
     </row>
-    <row r="209" spans="1:4" ht="15" customHeight="1">
+    <row r="209" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A209" s="4"/>
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
       <c r="D209" s="4"/>
     </row>
-    <row r="210" spans="1:4" ht="15" customHeight="1">
+    <row r="210" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A210" s="4"/>
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
       <c r="D210" s="4"/>
     </row>
-    <row r="211" spans="1:4" ht="15" customHeight="1">
+    <row r="211" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A211" s="4"/>
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
       <c r="D211" s="4"/>
     </row>
-    <row r="212" spans="1:4" ht="15" customHeight="1">
+    <row r="212" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A212" s="4"/>
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
       <c r="D212" s="4"/>
     </row>
-    <row r="213" spans="1:4" ht="15" customHeight="1">
+    <row r="213" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A213" s="4"/>
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
       <c r="D213" s="4"/>
     </row>
-    <row r="214" spans="1:4" ht="15" customHeight="1">
+    <row r="214" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
       <c r="D214" s="4"/>
     </row>
-    <row r="215" spans="1:4" ht="15" customHeight="1">
+    <row r="215" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
       <c r="D215" s="4"/>
     </row>
-    <row r="216" spans="1:4" ht="15" customHeight="1">
+    <row r="216" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A216" s="4"/>
       <c r="B216" s="4"/>
       <c r="C216" s="4"/>
       <c r="D216" s="4"/>
     </row>
-    <row r="217" spans="1:4" ht="15" customHeight="1">
+    <row r="217" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A217" s="4"/>
       <c r="B217" s="4"/>
       <c r="C217" s="4"/>
       <c r="D217" s="4"/>
     </row>
-    <row r="218" spans="1:4" ht="15" customHeight="1">
+    <row r="218" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A218" s="4"/>
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
       <c r="D218" s="4"/>
     </row>
-    <row r="219" spans="1:4" ht="15" customHeight="1">
+    <row r="219" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A219" s="4"/>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
       <c r="D219" s="4"/>
     </row>
-    <row r="220" spans="1:4" ht="15" customHeight="1">
+    <row r="220" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A220" s="4"/>
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
       <c r="D220" s="4"/>
     </row>
-    <row r="221" spans="1:4" ht="15" customHeight="1">
+    <row r="221" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
       <c r="C221" s="4"/>
       <c r="D221" s="4"/>
     </row>
-    <row r="222" spans="1:4" ht="15" customHeight="1">
+    <row r="222" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A222" s="4"/>
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
       <c r="D222" s="4"/>
     </row>
-    <row r="223" spans="1:4" ht="15" customHeight="1">
+    <row r="223" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A223" s="4"/>
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
       <c r="D223" s="4"/>
     </row>
-    <row r="224" spans="1:4" ht="15" customHeight="1">
+    <row r="224" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A224" s="4"/>
       <c r="B224" s="4"/>
       <c r="C224" s="4"/>
       <c r="D224" s="4"/>
     </row>
-    <row r="225" spans="1:4" ht="15" customHeight="1">
+    <row r="225" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A225" s="4"/>
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
     </row>
-    <row r="226" spans="1:4" ht="15" customHeight="1">
+    <row r="226" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
       <c r="C226" s="4"/>
       <c r="D226" s="4"/>
     </row>
-    <row r="227" spans="1:4" ht="15" customHeight="1">
+    <row r="227" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
       <c r="C227" s="4"/>
       <c r="D227" s="4"/>
     </row>
-    <row r="228" spans="1:4" ht="15" customHeight="1">
+    <row r="228" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A228" s="4"/>
       <c r="B228" s="4"/>
       <c r="C228" s="4"/>
       <c r="D228" s="4"/>
     </row>
-    <row r="229" spans="1:4" ht="15" customHeight="1">
+    <row r="229" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A229" s="4"/>
       <c r="B229" s="4"/>
       <c r="C229" s="4"/>
       <c r="D229" s="4"/>
     </row>
-    <row r="230" spans="1:4" ht="15" customHeight="1">
+    <row r="230" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A230" s="4"/>
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
       <c r="D230" s="4"/>
     </row>
-    <row r="231" spans="1:4" ht="15" customHeight="1">
+    <row r="231" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A231" s="4"/>
       <c r="B231" s="4"/>
       <c r="C231" s="4"/>
       <c r="D231" s="4"/>
     </row>
-    <row r="232" spans="1:4" ht="15" customHeight="1">
+    <row r="232" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A232" s="4"/>
       <c r="B232" s="4"/>
       <c r="C232" s="4"/>
       <c r="D232" s="4"/>
     </row>
-    <row r="233" spans="1:4" ht="15" customHeight="1">
+    <row r="233" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A233" s="4"/>
       <c r="B233" s="4"/>
       <c r="C233" s="4"/>
       <c r="D233" s="4"/>
     </row>
-    <row r="234" spans="1:4" ht="15" customHeight="1">
+    <row r="234" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A234" s="4"/>
       <c r="B234" s="4"/>
       <c r="C234" s="4"/>
       <c r="D234" s="4"/>
     </row>
-    <row r="235" spans="1:4" ht="15" customHeight="1">
+    <row r="235" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A235" s="4"/>
       <c r="B235" s="4"/>
       <c r="C235" s="4"/>
       <c r="D235" s="4"/>
     </row>
-    <row r="236" spans="1:4" ht="15" customHeight="1">
+    <row r="236" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A236" s="4"/>
       <c r="B236" s="4"/>
       <c r="C236" s="4"/>
       <c r="D236" s="4"/>
     </row>
-    <row r="237" spans="1:4" ht="15" customHeight="1">
+    <row r="237" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
       <c r="D237" s="4"/>
     </row>
-    <row r="238" spans="1:4" ht="15" customHeight="1">
+    <row r="238" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A238" s="4"/>
       <c r="B238" s="4"/>
       <c r="C238" s="4"/>
       <c r="D238" s="4"/>
     </row>
-    <row r="239" spans="1:4" ht="15" customHeight="1">
+    <row r="239" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A239" s="4"/>
       <c r="B239" s="4"/>
       <c r="C239" s="4"/>
       <c r="D239" s="4"/>
     </row>
-    <row r="240" spans="1:4" ht="15" customHeight="1">
+    <row r="240" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A240" s="4"/>
       <c r="B240" s="4"/>
       <c r="C240" s="4"/>
       <c r="D240" s="4"/>
     </row>
-    <row r="241" spans="1:4" ht="15" customHeight="1">
+    <row r="241" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A241" s="4"/>
       <c r="B241" s="4"/>
       <c r="C241" s="4"/>
       <c r="D241" s="4"/>
     </row>
-    <row r="242" spans="1:4" ht="15" customHeight="1">
+    <row r="242" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A242" s="4"/>
       <c r="B242" s="4"/>
       <c r="C242" s="4"/>
       <c r="D242" s="4"/>
     </row>
-    <row r="243" spans="1:4" ht="15" customHeight="1">
+    <row r="243" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A243" s="4"/>
       <c r="B243" s="4"/>
       <c r="C243" s="4"/>
       <c r="D243" s="4"/>
     </row>
-    <row r="244" spans="1:4" ht="15" customHeight="1">
+    <row r="244" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A244" s="4"/>
       <c r="B244" s="4"/>
       <c r="C244" s="4"/>
       <c r="D244" s="4"/>
     </row>
-    <row r="245" spans="1:4" ht="15" customHeight="1">
+    <row r="245" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A245" s="4"/>
       <c r="B245" s="4"/>
       <c r="C245" s="4"/>
       <c r="D245" s="4"/>
     </row>
-    <row r="246" spans="1:4" ht="15" customHeight="1">
+    <row r="246" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A246" s="4"/>
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
       <c r="D246" s="4"/>
     </row>
-    <row r="247" spans="1:4" ht="15" customHeight="1">
+    <row r="247" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A247" s="4"/>
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
       <c r="D247" s="4"/>
     </row>
-    <row r="248" spans="1:4" ht="15" customHeight="1">
+    <row r="248" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A248" s="4"/>
       <c r="B248" s="4"/>
       <c r="C248" s="4"/>
       <c r="D248" s="4"/>
     </row>
-    <row r="249" spans="1:4" ht="15" customHeight="1">
+    <row r="249" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
       <c r="D249" s="4"/>
     </row>
-    <row r="250" spans="1:4" ht="15" customHeight="1">
+    <row r="250" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A250" s="4"/>
       <c r="B250" s="4"/>
       <c r="C250" s="4"/>
       <c r="D250" s="4"/>
     </row>
-    <row r="251" spans="1:4" ht="15" customHeight="1">
+    <row r="251" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A251" s="4"/>
       <c r="B251" s="4"/>
       <c r="C251" s="4"/>
       <c r="D251" s="4"/>
     </row>
-    <row r="252" spans="1:4" ht="15" customHeight="1">
+    <row r="252" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A252" s="4"/>
       <c r="B252" s="4"/>
       <c r="C252" s="4"/>
       <c r="D252" s="4"/>
     </row>
-    <row r="253" spans="1:4" ht="15" customHeight="1">
+    <row r="253" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A253" s="4"/>
       <c r="B253" s="4"/>
       <c r="C253" s="4"/>
       <c r="D253" s="4"/>
     </row>
-    <row r="254" spans="1:4" ht="15" customHeight="1">
+    <row r="254" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A254" s="4"/>
       <c r="B254" s="4"/>
       <c r="C254" s="4"/>
       <c r="D254" s="4"/>
     </row>
-    <row r="255" spans="1:4" ht="15" customHeight="1">
+    <row r="255" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A255" s="4"/>
       <c r="B255" s="4"/>
       <c r="C255" s="4"/>
       <c r="D255" s="4"/>
     </row>
-    <row r="256" spans="1:4" ht="15" customHeight="1">
+    <row r="256" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A256" s="4"/>
       <c r="B256" s="4"/>
       <c r="C256" s="4"/>
       <c r="D256" s="4"/>
     </row>
-    <row r="257" spans="1:4" ht="15" customHeight="1">
+    <row r="257" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A257" s="4"/>
       <c r="B257" s="4"/>
       <c r="C257" s="4"/>
       <c r="D257" s="4"/>
     </row>
-    <row r="258" spans="1:4" ht="15" customHeight="1">
+    <row r="258" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A258" s="4"/>
       <c r="B258" s="4"/>
       <c r="C258" s="4"/>
       <c r="D258" s="4"/>
     </row>
-    <row r="259" spans="1:4" ht="15" customHeight="1">
+    <row r="259" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A259" s="4"/>
       <c r="B259" s="4"/>
       <c r="C259" s="4"/>
       <c r="D259" s="4"/>
     </row>
-    <row r="260" spans="1:4" ht="15" customHeight="1">
+    <row r="260" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A260" s="4"/>
       <c r="B260" s="4"/>
       <c r="C260" s="4"/>
       <c r="D260" s="4"/>
     </row>
-    <row r="261" spans="1:4" ht="15" customHeight="1">
+    <row r="261" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A261" s="4"/>
       <c r="B261" s="4"/>
       <c r="C261" s="4"/>
       <c r="D261" s="4"/>
     </row>
-    <row r="262" spans="1:4" ht="15" customHeight="1">
+    <row r="262" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A262" s="4"/>
       <c r="B262" s="4"/>
       <c r="C262" s="4"/>
       <c r="D262" s="4"/>
     </row>
-    <row r="263" spans="1:4" ht="15" customHeight="1">
+    <row r="263" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A263" s="4"/>
       <c r="B263" s="4"/>
       <c r="C263" s="4"/>
       <c r="D263" s="4"/>
     </row>
-    <row r="264" spans="1:4" ht="15" customHeight="1">
+    <row r="264" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A264" s="4"/>
       <c r="B264" s="4"/>
       <c r="C264" s="4"/>
       <c r="D264" s="4"/>
     </row>
-    <row r="265" spans="1:4" ht="15" customHeight="1">
+    <row r="265" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A265" s="4"/>
       <c r="B265" s="4"/>
       <c r="C265" s="4"/>
       <c r="D265" s="4"/>
     </row>
-    <row r="266" spans="1:4" ht="15" customHeight="1">
+    <row r="266" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A266" s="4"/>
       <c r="B266" s="4"/>
       <c r="C266" s="4"/>
       <c r="D266" s="4"/>
     </row>
-    <row r="267" spans="1:4" ht="15" customHeight="1">
+    <row r="267" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A267" s="4"/>
       <c r="B267" s="4"/>
       <c r="C267" s="4"/>
       <c r="D267" s="4"/>
     </row>
-    <row r="268" spans="1:4" ht="15" customHeight="1">
+    <row r="268" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A268" s="4"/>
       <c r="B268" s="4"/>
       <c r="C268" s="4"/>
       <c r="D268" s="4"/>
     </row>
-    <row r="269" spans="1:4" ht="15" customHeight="1">
+    <row r="269" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A269" s="4"/>
       <c r="B269" s="4"/>
       <c r="C269" s="4"/>
       <c r="D269" s="4"/>
     </row>
-    <row r="270" spans="1:4" ht="15" customHeight="1">
+    <row r="270" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A270" s="4"/>
       <c r="B270" s="4"/>
       <c r="C270" s="4"/>
       <c r="D270" s="4"/>
     </row>
-    <row r="271" spans="1:4" ht="15" customHeight="1">
+    <row r="271" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A271" s="4"/>
       <c r="B271" s="4"/>
       <c r="C271" s="4"/>
       <c r="D271" s="4"/>
     </row>
-    <row r="272" spans="1:4" ht="15" customHeight="1">
+    <row r="272" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A272" s="4"/>
       <c r="B272" s="4"/>
       <c r="C272" s="4"/>
       <c r="D272" s="4"/>
     </row>
-    <row r="273" spans="1:4" ht="15" customHeight="1">
+    <row r="273" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A273" s="4"/>
       <c r="B273" s="4"/>
       <c r="C273" s="4"/>
       <c r="D273" s="4"/>
     </row>
-    <row r="274" spans="1:4" ht="15" customHeight="1">
+    <row r="274" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A274" s="4"/>
       <c r="B274" s="4"/>
       <c r="C274" s="4"/>
       <c r="D274" s="4"/>
     </row>
-    <row r="275" spans="1:4" ht="15" customHeight="1">
+    <row r="275" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A275" s="4"/>
       <c r="B275" s="4"/>
       <c r="C275" s="4"/>
       <c r="D275" s="4"/>
     </row>
-    <row r="276" spans="1:4" ht="15" customHeight="1">
+    <row r="276" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A276" s="4"/>
       <c r="B276" s="4"/>
       <c r="C276" s="4"/>
       <c r="D276" s="4"/>
     </row>
-    <row r="277" spans="1:4" ht="15" customHeight="1">
+    <row r="277" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A277" s="4"/>
       <c r="B277" s="4"/>
       <c r="C277" s="4"/>
       <c r="D277" s="4"/>
     </row>
-    <row r="278" spans="1:4" ht="15" customHeight="1">
+    <row r="278" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A278" s="4"/>
       <c r="B278" s="4"/>
       <c r="C278" s="4"/>
       <c r="D278" s="4"/>
     </row>
-    <row r="279" spans="1:4" ht="15" customHeight="1">
+    <row r="279" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A279" s="4"/>
       <c r="B279" s="4"/>
       <c r="C279" s="4"/>
       <c r="D279" s="4"/>
     </row>
-    <row r="280" spans="1:4" ht="15" customHeight="1">
+    <row r="280" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A280" s="4"/>
       <c r="B280" s="4"/>
       <c r="C280" s="4"/>
       <c r="D280" s="4"/>
     </row>
-    <row r="281" spans="1:4" ht="15" customHeight="1">
+    <row r="281" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A281" s="4"/>
       <c r="B281" s="4"/>
       <c r="C281" s="4"/>
       <c r="D281" s="4"/>
     </row>
-    <row r="282" spans="1:4" ht="15" customHeight="1">
+    <row r="282" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A282" s="4"/>
       <c r="B282" s="4"/>
       <c r="C282" s="4"/>
       <c r="D282" s="4"/>
     </row>
-    <row r="283" spans="1:4" ht="15" customHeight="1">
+    <row r="283" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A283" s="4"/>
       <c r="B283" s="4"/>
       <c r="C283" s="4"/>
       <c r="D283" s="4"/>
     </row>
-    <row r="284" spans="1:4" ht="15" customHeight="1">
+    <row r="284" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A284" s="4"/>
       <c r="B284" s="4"/>
       <c r="C284" s="4"/>
       <c r="D284" s="4"/>
     </row>
-    <row r="285" spans="1:4" ht="15" customHeight="1">
+    <row r="285" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A285" s="4"/>
       <c r="B285" s="4"/>
       <c r="C285" s="4"/>
       <c r="D285" s="4"/>
     </row>
-    <row r="286" spans="1:4" ht="15" customHeight="1">
+    <row r="286" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A286" s="4"/>
       <c r="B286" s="4"/>
       <c r="C286" s="4"/>
       <c r="D286" s="4"/>
     </row>
-    <row r="287" spans="1:4" ht="15" customHeight="1">
+    <row r="287" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A287" s="4"/>
       <c r="B287" s="4"/>
       <c r="C287" s="4"/>
       <c r="D287" s="4"/>
     </row>
-    <row r="288" spans="1:4" ht="15" customHeight="1">
+    <row r="288" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A288" s="4"/>
       <c r="B288" s="4"/>
       <c r="C288" s="4"/>
       <c r="D288" s="4"/>
     </row>
-    <row r="289" spans="1:4" ht="15" customHeight="1">
+    <row r="289" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A289" s="4"/>
       <c r="B289" s="4"/>
       <c r="C289" s="4"/>
       <c r="D289" s="4"/>
     </row>
-    <row r="290" spans="1:4" ht="15" customHeight="1">
+    <row r="290" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A290" s="4"/>
       <c r="B290" s="4"/>
       <c r="C290" s="4"/>
       <c r="D290" s="4"/>
     </row>
-    <row r="291" spans="1:4" ht="15" customHeight="1">
+    <row r="291" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A291" s="4"/>
       <c r="B291" s="4"/>
       <c r="C291" s="4"/>
       <c r="D291" s="4"/>
     </row>
-    <row r="292" spans="1:4" ht="15" customHeight="1">
+    <row r="292" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A292" s="4"/>
       <c r="B292" s="4"/>
       <c r="C292" s="4"/>
       <c r="D292" s="4"/>
     </row>
-    <row r="293" spans="1:4" ht="15" customHeight="1">
+    <row r="293" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A293" s="4"/>
       <c r="B293" s="4"/>
       <c r="C293" s="4"/>
       <c r="D293" s="4"/>
     </row>
-    <row r="294" spans="1:4" ht="15" customHeight="1">
+    <row r="294" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A294" s="4"/>
       <c r="B294" s="4"/>
       <c r="C294" s="4"/>
       <c r="D294" s="4"/>
     </row>
-    <row r="295" spans="1:4" ht="15" customHeight="1">
+    <row r="295" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A295" s="4"/>
       <c r="B295" s="4"/>
       <c r="C295" s="4"/>
       <c r="D295" s="4"/>
     </row>
-    <row r="296" spans="1:4" ht="15" customHeight="1">
+    <row r="296" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A296" s="4"/>
       <c r="B296" s="4"/>
       <c r="C296" s="4"/>
       <c r="D296" s="4"/>
     </row>
-    <row r="297" spans="1:4" ht="15" customHeight="1">
+    <row r="297" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A297" s="4"/>
       <c r="B297" s="4"/>
       <c r="C297" s="4"/>
       <c r="D297" s="4"/>
     </row>
-    <row r="298" spans="1:4" ht="15" customHeight="1">
+    <row r="298" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A298" s="4"/>
       <c r="B298" s="4"/>
       <c r="C298" s="4"/>
       <c r="D298" s="4"/>
     </row>
-    <row r="299" spans="1:4" ht="15" customHeight="1">
+    <row r="299" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A299" s="4"/>
       <c r="B299" s="4"/>
       <c r="C299" s="4"/>
       <c r="D299" s="4"/>
     </row>
-    <row r="300" spans="1:4" ht="15" customHeight="1">
+    <row r="300" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A300" s="4"/>
       <c r="B300" s="4"/>
       <c r="C300" s="4"/>
       <c r="D300" s="4"/>
     </row>
-    <row r="301" spans="1:4" ht="15" customHeight="1">
+    <row r="301" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A301" s="4"/>
       <c r="B301" s="4"/>
       <c r="C301" s="4"/>
       <c r="D301" s="4"/>
     </row>
-    <row r="302" spans="1:4" ht="15" customHeight="1">
+    <row r="302" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A302" s="4"/>
       <c r="B302" s="4"/>
       <c r="C302" s="4"/>
       <c r="D302" s="4"/>
     </row>
-    <row r="303" spans="1:4" ht="15" customHeight="1">
+    <row r="303" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A303" s="4"/>
       <c r="B303" s="4"/>
       <c r="C303" s="4"/>
       <c r="D303" s="4"/>
     </row>
-    <row r="304" spans="1:4" ht="15" customHeight="1">
+    <row r="304" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A304" s="4"/>
       <c r="B304" s="4"/>
       <c r="C304" s="4"/>
       <c r="D304" s="4"/>
     </row>
-    <row r="305" spans="1:4" ht="15" customHeight="1">
+    <row r="305" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A305" s="4"/>
       <c r="B305" s="4"/>
       <c r="C305" s="4"/>
       <c r="D305" s="4"/>
     </row>
-    <row r="306" spans="1:4" ht="15" customHeight="1">
+    <row r="306" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A306" s="4"/>
       <c r="B306" s="4"/>
       <c r="C306" s="4"/>
       <c r="D306" s="4"/>
     </row>
-    <row r="307" spans="1:4" ht="15" customHeight="1">
+    <row r="307" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A307" s="4"/>
       <c r="B307" s="4"/>
       <c r="C307" s="4"/>
       <c r="D307" s="4"/>
     </row>
-    <row r="308" spans="1:4" ht="15" customHeight="1">
+    <row r="308" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A308" s="4"/>
       <c r="B308" s="4"/>
       <c r="C308" s="4"/>
       <c r="D308" s="4"/>
     </row>
-    <row r="309" spans="1:4" ht="15" customHeight="1">
+    <row r="309" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A309" s="4"/>
       <c r="B309" s="4"/>
       <c r="C309" s="4"/>
       <c r="D309" s="4"/>
     </row>
-    <row r="310" spans="1:4" ht="15" customHeight="1">
+    <row r="310" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A310" s="4"/>
       <c r="B310" s="4"/>
       <c r="C310" s="4"/>
       <c r="D310" s="4"/>
     </row>
-    <row r="311" spans="1:4" ht="15" customHeight="1">
+    <row r="311" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A311" s="4"/>
       <c r="B311" s="4"/>
       <c r="C311" s="4"/>
       <c r="D311" s="4"/>
     </row>
-    <row r="312" spans="1:4" ht="15" customHeight="1">
+    <row r="312" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A312" s="4"/>
       <c r="B312" s="4"/>
       <c r="C312" s="4"/>
       <c r="D312" s="4"/>
     </row>
-    <row r="313" spans="1:4" ht="15" customHeight="1">
+    <row r="313" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A313" s="4"/>
       <c r="B313" s="4"/>
       <c r="C313" s="4"/>
       <c r="D313" s="4"/>
     </row>
-    <row r="314" spans="1:4" ht="15" customHeight="1">
+    <row r="314" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A314" s="4"/>
       <c r="B314" s="4"/>
       <c r="C314" s="4"/>
       <c r="D314" s="4"/>
     </row>
-    <row r="315" spans="1:4" ht="15" customHeight="1">
+    <row r="315" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A315" s="4"/>
       <c r="B315" s="4"/>
       <c r="C315" s="4"/>
       <c r="D315" s="4"/>
     </row>
-    <row r="316" spans="1:4" ht="15" customHeight="1">
+    <row r="316" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A316" s="4"/>
       <c r="B316" s="4"/>
       <c r="C316" s="4"/>
       <c r="D316" s="4"/>
     </row>
-    <row r="317" spans="1:4" ht="15" customHeight="1">
+    <row r="317" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A317" s="4"/>
       <c r="B317" s="4"/>
       <c r="C317" s="4"/>
@@ -3700,7 +3742,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D301"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
@@ -3708,30 +3750,30 @@
       <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="37.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="64.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.77734375" style="2"/>
+    <col min="1" max="1" width="23.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="37.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.81640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1">
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1">
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3742,10 +3784,10 @@
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -3756,10 +3798,10 @@
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -3770,10 +3812,10 @@
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -3784,10 +3826,10 @@
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>56</v>
       </c>
@@ -3798,10 +3840,10 @@
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>56</v>
       </c>
@@ -3812,10 +3854,10 @@
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>57</v>
       </c>
@@ -3826,10 +3868,10 @@
         <v>0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>57</v>
       </c>
@@ -3840,10 +3882,10 @@
         <v>0</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>64</v>
       </c>
@@ -3854,10 +3896,10 @@
         <v>0</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>64</v>
       </c>
@@ -3868,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>64</v>
       </c>
@@ -3882,10 +3924,10 @@
         <v>0</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>64</v>
       </c>
@@ -3896,10 +3938,10 @@
         <v>0</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15" customHeight="1">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>64</v>
       </c>
@@ -3910,10 +3952,10 @@
         <v>0</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15" customHeight="1">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>64</v>
       </c>
@@ -3924,10 +3966,10 @@
         <v>0</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15" customHeight="1">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>63</v>
       </c>
@@ -3938,10 +3980,10 @@
         <v>0</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>63</v>
       </c>
@@ -3952,10 +3994,10 @@
         <v>0</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>63</v>
       </c>
@@ -3966,10 +4008,10 @@
         <v>0</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>63</v>
       </c>
@@ -3980,10 +4022,10 @@
         <v>0</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>63</v>
       </c>
@@ -3994,10 +4036,10 @@
         <v>0</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>63</v>
       </c>
@@ -4008,10 +4050,10 @@
         <v>0</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>66</v>
       </c>
@@ -4022,10 +4064,10 @@
         <v>0</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>66</v>
       </c>
@@ -4036,10 +4078,10 @@
         <v>0</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>66</v>
       </c>
@@ -4050,10 +4092,10 @@
         <v>0</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>67</v>
       </c>
@@ -4064,10 +4106,10 @@
         <v>0</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>67</v>
       </c>
@@ -4078,10 +4120,10 @@
         <v>0</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15" customHeight="1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>67</v>
       </c>
@@ -4092,10 +4134,10 @@
         <v>0</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15" customHeight="1">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>67</v>
       </c>
@@ -4106,10 +4148,10 @@
         <v>0</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15" customHeight="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>67</v>
       </c>
@@ -4120,1636 +4162,1636 @@
         <v>0</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="1:4" ht="15" customHeight="1">
+    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
     </row>
-    <row r="32" spans="1:4" ht="15" customHeight="1">
+    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
     </row>
-    <row r="33" spans="1:4" ht="15" customHeight="1">
+    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
     </row>
-    <row r="34" spans="1:4" ht="15" customHeight="1">
+    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
     </row>
-    <row r="35" spans="1:4" ht="15" customHeight="1">
+    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
     </row>
-    <row r="36" spans="1:4" ht="15" customHeight="1">
+    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
     </row>
-    <row r="37" spans="1:4" ht="15" customHeight="1">
+    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
     </row>
-    <row r="38" spans="1:4" ht="15" customHeight="1">
+    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
     </row>
-    <row r="39" spans="1:4" ht="15" customHeight="1">
+    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
     </row>
-    <row r="40" spans="1:4" ht="15" customHeight="1">
+    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
     </row>
-    <row r="41" spans="1:4" ht="15" customHeight="1">
+    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
     </row>
-    <row r="42" spans="1:4" ht="15" customHeight="1">
+    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
     </row>
-    <row r="43" spans="1:4" ht="15" customHeight="1">
+    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
     </row>
-    <row r="44" spans="1:4" ht="15" customHeight="1">
+    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
     </row>
-    <row r="45" spans="1:4" ht="15" customHeight="1">
+    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
     </row>
-    <row r="46" spans="1:4" ht="15" customHeight="1">
+    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
     </row>
-    <row r="47" spans="1:4" ht="15" customHeight="1">
+    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
     </row>
-    <row r="48" spans="1:4" ht="15" customHeight="1">
+    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
     </row>
-    <row r="49" spans="1:4" ht="15" customHeight="1">
+    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
     </row>
-    <row r="50" spans="1:4" ht="15" customHeight="1">
+    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
     </row>
-    <row r="51" spans="1:4" ht="15" customHeight="1">
+    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
     </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1">
+    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
     </row>
-    <row r="53" spans="1:4" ht="15" customHeight="1">
+    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
     </row>
-    <row r="54" spans="1:4" ht="15" customHeight="1">
+    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
     </row>
-    <row r="55" spans="1:4" ht="15" customHeight="1">
+    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
     </row>
-    <row r="56" spans="1:4" ht="15" customHeight="1">
+    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
     </row>
-    <row r="57" spans="1:4" ht="15" customHeight="1">
+    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
     </row>
-    <row r="58" spans="1:4" ht="15" customHeight="1">
+    <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
     </row>
-    <row r="59" spans="1:4" ht="15" customHeight="1">
+    <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
     </row>
-    <row r="60" spans="1:4" ht="15" customHeight="1">
+    <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
     </row>
-    <row r="61" spans="1:4" ht="15" customHeight="1">
+    <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
     </row>
-    <row r="62" spans="1:4" ht="15" customHeight="1">
+    <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
     </row>
-    <row r="63" spans="1:4" ht="15" customHeight="1">
+    <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
     </row>
-    <row r="64" spans="1:4" ht="15" customHeight="1">
+    <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
     </row>
-    <row r="65" spans="1:4" ht="15" customHeight="1">
+    <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
     </row>
-    <row r="66" spans="1:4" ht="15" customHeight="1">
+    <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
     </row>
-    <row r="67" spans="1:4" ht="15" customHeight="1">
+    <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
     </row>
-    <row r="68" spans="1:4" ht="15" customHeight="1">
+    <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
     </row>
-    <row r="69" spans="1:4" ht="15" customHeight="1">
+    <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
     </row>
-    <row r="70" spans="1:4" ht="15" customHeight="1">
+    <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
     </row>
-    <row r="71" spans="1:4" ht="15" customHeight="1">
+    <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
     </row>
-    <row r="72" spans="1:4" ht="15" customHeight="1">
+    <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
     </row>
-    <row r="73" spans="1:4" ht="15" customHeight="1">
+    <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
     </row>
-    <row r="74" spans="1:4" ht="15" customHeight="1">
+    <row r="74" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
     </row>
-    <row r="75" spans="1:4" ht="15" customHeight="1">
+    <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
     </row>
-    <row r="76" spans="1:4" ht="15" customHeight="1">
+    <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
     </row>
-    <row r="77" spans="1:4" ht="15" customHeight="1">
+    <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
     </row>
-    <row r="78" spans="1:4" ht="15" customHeight="1">
+    <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
     </row>
-    <row r="79" spans="1:4" ht="15" customHeight="1">
+    <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
     </row>
-    <row r="80" spans="1:4" ht="15" customHeight="1">
+    <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
     </row>
-    <row r="81" spans="1:4" ht="15" customHeight="1">
+    <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
     </row>
-    <row r="82" spans="1:4" ht="15" customHeight="1">
+    <row r="82" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
     </row>
-    <row r="83" spans="1:4" ht="15" customHeight="1">
+    <row r="83" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
     </row>
-    <row r="84" spans="1:4" ht="15" customHeight="1">
+    <row r="84" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
     </row>
-    <row r="85" spans="1:4" ht="15" customHeight="1">
+    <row r="85" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
     </row>
-    <row r="86" spans="1:4" ht="15" customHeight="1">
+    <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
     </row>
-    <row r="87" spans="1:4" ht="15" customHeight="1">
+    <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
     </row>
-    <row r="88" spans="1:4" ht="15" customHeight="1">
+    <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
     </row>
-    <row r="89" spans="1:4" ht="15" customHeight="1">
+    <row r="89" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
     </row>
-    <row r="90" spans="1:4" ht="15" customHeight="1">
+    <row r="90" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
     </row>
-    <row r="91" spans="1:4" ht="15" customHeight="1">
+    <row r="91" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
     </row>
-    <row r="92" spans="1:4" ht="15" customHeight="1">
+    <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
     </row>
-    <row r="93" spans="1:4" ht="15" customHeight="1">
+    <row r="93" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
     </row>
-    <row r="94" spans="1:4" ht="15" customHeight="1">
+    <row r="94" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
     </row>
-    <row r="95" spans="1:4" ht="15" customHeight="1">
+    <row r="95" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
     </row>
-    <row r="96" spans="1:4" ht="15" customHeight="1">
+    <row r="96" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
     </row>
-    <row r="97" spans="1:4" ht="15" customHeight="1">
+    <row r="97" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
     </row>
-    <row r="98" spans="1:4" ht="15" customHeight="1">
+    <row r="98" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
     </row>
-    <row r="99" spans="1:4" ht="15" customHeight="1">
+    <row r="99" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
     </row>
-    <row r="100" spans="1:4" ht="15" customHeight="1">
+    <row r="100" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
     </row>
-    <row r="101" spans="1:4" ht="15" customHeight="1">
+    <row r="101" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
     </row>
-    <row r="102" spans="1:4" ht="15" customHeight="1">
+    <row r="102" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
     </row>
-    <row r="103" spans="1:4" ht="15" customHeight="1">
+    <row r="103" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
     </row>
-    <row r="104" spans="1:4" ht="15" customHeight="1">
+    <row r="104" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
     </row>
-    <row r="105" spans="1:4" ht="15" customHeight="1">
+    <row r="105" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
     </row>
-    <row r="106" spans="1:4" ht="15" customHeight="1">
+    <row r="106" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
     </row>
-    <row r="107" spans="1:4" ht="15" customHeight="1">
+    <row r="107" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
     </row>
-    <row r="108" spans="1:4" ht="15" customHeight="1">
+    <row r="108" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
     </row>
-    <row r="109" spans="1:4" ht="15" customHeight="1">
+    <row r="109" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
     </row>
-    <row r="110" spans="1:4" ht="15" customHeight="1">
+    <row r="110" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
     </row>
-    <row r="111" spans="1:4" ht="15" customHeight="1">
+    <row r="111" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
     </row>
-    <row r="112" spans="1:4" ht="15" customHeight="1">
+    <row r="112" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
     </row>
-    <row r="113" spans="1:4" ht="15" customHeight="1">
+    <row r="113" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
     </row>
-    <row r="114" spans="1:4" ht="15" customHeight="1">
+    <row r="114" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
     </row>
-    <row r="115" spans="1:4" ht="15" customHeight="1">
+    <row r="115" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
     </row>
-    <row r="116" spans="1:4" ht="15" customHeight="1">
+    <row r="116" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
     </row>
-    <row r="117" spans="1:4" ht="15" customHeight="1">
+    <row r="117" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
     </row>
-    <row r="118" spans="1:4" ht="15" customHeight="1">
+    <row r="118" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
     </row>
-    <row r="119" spans="1:4" ht="15" customHeight="1">
+    <row r="119" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
     </row>
-    <row r="120" spans="1:4" ht="15" customHeight="1">
+    <row r="120" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
     </row>
-    <row r="121" spans="1:4" ht="15" customHeight="1">
+    <row r="121" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
     </row>
-    <row r="122" spans="1:4" ht="15" customHeight="1">
+    <row r="122" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
     </row>
-    <row r="123" spans="1:4" ht="15" customHeight="1">
+    <row r="123" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
     </row>
-    <row r="124" spans="1:4" ht="15" customHeight="1">
+    <row r="124" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
     </row>
-    <row r="125" spans="1:4" ht="15" customHeight="1">
+    <row r="125" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
     </row>
-    <row r="126" spans="1:4" ht="15" customHeight="1">
+    <row r="126" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
     </row>
-    <row r="127" spans="1:4" ht="15" customHeight="1">
+    <row r="127" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
     </row>
-    <row r="128" spans="1:4" ht="15" customHeight="1">
+    <row r="128" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
     </row>
-    <row r="129" spans="1:4" ht="15" customHeight="1">
+    <row r="129" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
     </row>
-    <row r="130" spans="1:4" ht="15" customHeight="1">
+    <row r="130" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
     </row>
-    <row r="131" spans="1:4" ht="15" customHeight="1">
+    <row r="131" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
     </row>
-    <row r="132" spans="1:4" ht="15" customHeight="1">
+    <row r="132" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
     </row>
-    <row r="133" spans="1:4" ht="15" customHeight="1">
+    <row r="133" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
     </row>
-    <row r="134" spans="1:4" ht="15" customHeight="1">
+    <row r="134" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
     </row>
-    <row r="135" spans="1:4" ht="15" customHeight="1">
+    <row r="135" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
     </row>
-    <row r="136" spans="1:4" ht="15" customHeight="1">
+    <row r="136" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
     </row>
-    <row r="137" spans="1:4" ht="15" customHeight="1">
+    <row r="137" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
     </row>
-    <row r="138" spans="1:4" ht="15" customHeight="1">
+    <row r="138" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
     </row>
-    <row r="139" spans="1:4" ht="15" customHeight="1">
+    <row r="139" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
     </row>
-    <row r="140" spans="1:4" ht="15" customHeight="1">
+    <row r="140" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
     </row>
-    <row r="141" spans="1:4" ht="15" customHeight="1">
+    <row r="141" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
     </row>
-    <row r="142" spans="1:4" ht="15" customHeight="1">
+    <row r="142" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
     </row>
-    <row r="143" spans="1:4" ht="15" customHeight="1">
+    <row r="143" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
     </row>
-    <row r="144" spans="1:4" ht="15" customHeight="1">
+    <row r="144" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
     </row>
-    <row r="145" spans="1:4" ht="15" customHeight="1">
+    <row r="145" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
     </row>
-    <row r="146" spans="1:4" ht="15" customHeight="1">
+    <row r="146" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
     </row>
-    <row r="147" spans="1:4" ht="15" customHeight="1">
+    <row r="147" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
     </row>
-    <row r="148" spans="1:4" ht="15" customHeight="1">
+    <row r="148" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
     </row>
-    <row r="149" spans="1:4" ht="15" customHeight="1">
+    <row r="149" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
     </row>
-    <row r="150" spans="1:4" ht="15" customHeight="1">
+    <row r="150" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
     </row>
-    <row r="151" spans="1:4" ht="15" customHeight="1">
+    <row r="151" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
     </row>
-    <row r="152" spans="1:4" ht="15" customHeight="1">
+    <row r="152" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
     </row>
-    <row r="153" spans="1:4" ht="15" customHeight="1">
+    <row r="153" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
     </row>
-    <row r="154" spans="1:4" ht="15" customHeight="1">
+    <row r="154" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
     </row>
-    <row r="155" spans="1:4" ht="15" customHeight="1">
+    <row r="155" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
     </row>
-    <row r="156" spans="1:4" ht="15" customHeight="1">
+    <row r="156" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
     </row>
-    <row r="157" spans="1:4" ht="15" customHeight="1">
+    <row r="157" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
     </row>
-    <row r="158" spans="1:4" ht="15" customHeight="1">
+    <row r="158" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
     </row>
-    <row r="159" spans="1:4" ht="15" customHeight="1">
+    <row r="159" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
     </row>
-    <row r="160" spans="1:4" ht="15" customHeight="1">
+    <row r="160" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
     </row>
-    <row r="161" spans="1:4" ht="15" customHeight="1">
+    <row r="161" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
     </row>
-    <row r="162" spans="1:4" ht="15" customHeight="1">
+    <row r="162" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
     </row>
-    <row r="163" spans="1:4" ht="15" customHeight="1">
+    <row r="163" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
     </row>
-    <row r="164" spans="1:4" ht="15" customHeight="1">
+    <row r="164" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
     </row>
-    <row r="165" spans="1:4" ht="15" customHeight="1">
+    <row r="165" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
     </row>
-    <row r="166" spans="1:4" ht="15" customHeight="1">
+    <row r="166" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
     </row>
-    <row r="167" spans="1:4" ht="15" customHeight="1">
+    <row r="167" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
     </row>
-    <row r="168" spans="1:4" ht="15" customHeight="1">
+    <row r="168" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
     </row>
-    <row r="169" spans="1:4" ht="15" customHeight="1">
+    <row r="169" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
     </row>
-    <row r="170" spans="1:4" ht="15" customHeight="1">
+    <row r="170" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
     </row>
-    <row r="171" spans="1:4" ht="15" customHeight="1">
+    <row r="171" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
     </row>
-    <row r="172" spans="1:4" ht="15" customHeight="1">
+    <row r="172" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
     </row>
-    <row r="173" spans="1:4" ht="15" customHeight="1">
+    <row r="173" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
     </row>
-    <row r="174" spans="1:4" ht="15" customHeight="1">
+    <row r="174" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
     </row>
-    <row r="175" spans="1:4" ht="15" customHeight="1">
+    <row r="175" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
     </row>
-    <row r="176" spans="1:4" ht="15" customHeight="1">
+    <row r="176" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
     </row>
-    <row r="177" spans="1:4" ht="15" customHeight="1">
+    <row r="177" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
     </row>
-    <row r="178" spans="1:4" ht="15" customHeight="1">
+    <row r="178" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
     </row>
-    <row r="179" spans="1:4" ht="15" customHeight="1">
+    <row r="179" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
     </row>
-    <row r="180" spans="1:4" ht="15" customHeight="1">
+    <row r="180" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
     </row>
-    <row r="181" spans="1:4" ht="15" customHeight="1">
+    <row r="181" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
     </row>
-    <row r="182" spans="1:4" ht="15" customHeight="1">
+    <row r="182" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
       <c r="D182" s="4"/>
     </row>
-    <row r="183" spans="1:4" ht="15" customHeight="1">
+    <row r="183" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
       <c r="D183" s="4"/>
     </row>
-    <row r="184" spans="1:4" ht="15" customHeight="1">
+    <row r="184" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
       <c r="D184" s="4"/>
     </row>
-    <row r="185" spans="1:4" ht="15" customHeight="1">
+    <row r="185" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
       <c r="D185" s="4"/>
     </row>
-    <row r="186" spans="1:4" ht="15" customHeight="1">
+    <row r="186" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
       <c r="D186" s="4"/>
     </row>
-    <row r="187" spans="1:4" ht="15" customHeight="1">
+    <row r="187" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
       <c r="D187" s="4"/>
     </row>
-    <row r="188" spans="1:4" ht="15" customHeight="1">
+    <row r="188" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
       <c r="D188" s="4"/>
     </row>
-    <row r="189" spans="1:4" ht="15" customHeight="1">
+    <row r="189" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
       <c r="D189" s="4"/>
     </row>
-    <row r="190" spans="1:4" ht="15" customHeight="1">
+    <row r="190" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
       <c r="D190" s="4"/>
     </row>
-    <row r="191" spans="1:4" ht="15" customHeight="1">
+    <row r="191" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
     </row>
-    <row r="192" spans="1:4" ht="15" customHeight="1">
+    <row r="192" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
       <c r="D192" s="4"/>
     </row>
-    <row r="193" spans="1:4" ht="15" customHeight="1">
+    <row r="193" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
       <c r="D193" s="4"/>
     </row>
-    <row r="194" spans="1:4" ht="15" customHeight="1">
+    <row r="194" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
       <c r="D194" s="4"/>
     </row>
-    <row r="195" spans="1:4" ht="15" customHeight="1">
+    <row r="195" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
       <c r="D195" s="4"/>
     </row>
-    <row r="196" spans="1:4" ht="15" customHeight="1">
+    <row r="196" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
       <c r="D196" s="4"/>
     </row>
-    <row r="197" spans="1:4" ht="15" customHeight="1">
+    <row r="197" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
       <c r="D197" s="4"/>
     </row>
-    <row r="198" spans="1:4" ht="15" customHeight="1">
+    <row r="198" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
       <c r="D198" s="4"/>
     </row>
-    <row r="199" spans="1:4" ht="15" customHeight="1">
+    <row r="199" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
       <c r="D199" s="4"/>
     </row>
-    <row r="200" spans="1:4" ht="15" customHeight="1">
+    <row r="200" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
       <c r="D200" s="4"/>
     </row>
-    <row r="201" spans="1:4" ht="15" customHeight="1">
+    <row r="201" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
       <c r="D201" s="4"/>
     </row>
-    <row r="202" spans="1:4" ht="15" customHeight="1">
+    <row r="202" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
       <c r="D202" s="4"/>
     </row>
-    <row r="203" spans="1:4" ht="15" customHeight="1">
+    <row r="203" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
       <c r="D203" s="4"/>
     </row>
-    <row r="204" spans="1:4" ht="15" customHeight="1">
+    <row r="204" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
       <c r="D204" s="4"/>
     </row>
-    <row r="205" spans="1:4" ht="15" customHeight="1">
+    <row r="205" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A205" s="4"/>
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
       <c r="D205" s="4"/>
     </row>
-    <row r="206" spans="1:4" ht="15" customHeight="1">
+    <row r="206" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
       <c r="D206" s="4"/>
     </row>
-    <row r="207" spans="1:4" ht="15" customHeight="1">
+    <row r="207" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A207" s="4"/>
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
       <c r="D207" s="4"/>
     </row>
-    <row r="208" spans="1:4" ht="15" customHeight="1">
+    <row r="208" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A208" s="4"/>
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
       <c r="D208" s="4"/>
     </row>
-    <row r="209" spans="1:4" ht="15" customHeight="1">
+    <row r="209" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A209" s="4"/>
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
       <c r="D209" s="4"/>
     </row>
-    <row r="210" spans="1:4" ht="15" customHeight="1">
+    <row r="210" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A210" s="4"/>
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
       <c r="D210" s="4"/>
     </row>
-    <row r="211" spans="1:4" ht="15" customHeight="1">
+    <row r="211" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A211" s="4"/>
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
       <c r="D211" s="4"/>
     </row>
-    <row r="212" spans="1:4" ht="15" customHeight="1">
+    <row r="212" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A212" s="4"/>
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
       <c r="D212" s="4"/>
     </row>
-    <row r="213" spans="1:4" ht="15" customHeight="1">
+    <row r="213" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A213" s="4"/>
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
       <c r="D213" s="4"/>
     </row>
-    <row r="214" spans="1:4" ht="15" customHeight="1">
+    <row r="214" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
       <c r="D214" s="4"/>
     </row>
-    <row r="215" spans="1:4" ht="15" customHeight="1">
+    <row r="215" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
       <c r="D215" s="4"/>
     </row>
-    <row r="216" spans="1:4" ht="15" customHeight="1">
+    <row r="216" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A216" s="4"/>
       <c r="B216" s="4"/>
       <c r="C216" s="4"/>
       <c r="D216" s="4"/>
     </row>
-    <row r="217" spans="1:4" ht="15" customHeight="1">
+    <row r="217" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A217" s="4"/>
       <c r="B217" s="4"/>
       <c r="C217" s="4"/>
       <c r="D217" s="4"/>
     </row>
-    <row r="218" spans="1:4" ht="15" customHeight="1">
+    <row r="218" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A218" s="4"/>
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
       <c r="D218" s="4"/>
     </row>
-    <row r="219" spans="1:4" ht="15" customHeight="1">
+    <row r="219" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A219" s="4"/>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
       <c r="D219" s="4"/>
     </row>
-    <row r="220" spans="1:4" ht="15" customHeight="1">
+    <row r="220" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A220" s="4"/>
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
       <c r="D220" s="4"/>
     </row>
-    <row r="221" spans="1:4" ht="15" customHeight="1">
+    <row r="221" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
       <c r="C221" s="4"/>
       <c r="D221" s="4"/>
     </row>
-    <row r="222" spans="1:4" ht="15" customHeight="1">
+    <row r="222" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A222" s="4"/>
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
       <c r="D222" s="4"/>
     </row>
-    <row r="223" spans="1:4" ht="15" customHeight="1">
+    <row r="223" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A223" s="4"/>
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
       <c r="D223" s="4"/>
     </row>
-    <row r="224" spans="1:4" ht="15" customHeight="1">
+    <row r="224" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A224" s="4"/>
       <c r="B224" s="4"/>
       <c r="C224" s="4"/>
       <c r="D224" s="4"/>
     </row>
-    <row r="225" spans="1:4" ht="15" customHeight="1">
+    <row r="225" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A225" s="4"/>
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
     </row>
-    <row r="226" spans="1:4" ht="15" customHeight="1">
+    <row r="226" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
       <c r="C226" s="4"/>
       <c r="D226" s="4"/>
     </row>
-    <row r="227" spans="1:4" ht="15" customHeight="1">
+    <row r="227" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
       <c r="C227" s="4"/>
       <c r="D227" s="4"/>
     </row>
-    <row r="228" spans="1:4" ht="15" customHeight="1">
+    <row r="228" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A228" s="4"/>
       <c r="B228" s="4"/>
       <c r="C228" s="4"/>
       <c r="D228" s="4"/>
     </row>
-    <row r="229" spans="1:4" ht="15" customHeight="1">
+    <row r="229" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A229" s="4"/>
       <c r="B229" s="4"/>
       <c r="C229" s="4"/>
       <c r="D229" s="4"/>
     </row>
-    <row r="230" spans="1:4" ht="15" customHeight="1">
+    <row r="230" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A230" s="4"/>
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
       <c r="D230" s="4"/>
     </row>
-    <row r="231" spans="1:4" ht="15" customHeight="1">
+    <row r="231" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A231" s="4"/>
       <c r="B231" s="4"/>
       <c r="C231" s="4"/>
       <c r="D231" s="4"/>
     </row>
-    <row r="232" spans="1:4" ht="15" customHeight="1">
+    <row r="232" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A232" s="4"/>
       <c r="B232" s="4"/>
       <c r="C232" s="4"/>
       <c r="D232" s="4"/>
     </row>
-    <row r="233" spans="1:4" ht="15" customHeight="1">
+    <row r="233" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A233" s="4"/>
       <c r="B233" s="4"/>
       <c r="C233" s="4"/>
       <c r="D233" s="4"/>
     </row>
-    <row r="234" spans="1:4" ht="15" customHeight="1">
+    <row r="234" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A234" s="4"/>
       <c r="B234" s="4"/>
       <c r="C234" s="4"/>
       <c r="D234" s="4"/>
     </row>
-    <row r="235" spans="1:4" ht="15" customHeight="1">
+    <row r="235" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A235" s="4"/>
       <c r="B235" s="4"/>
       <c r="C235" s="4"/>
       <c r="D235" s="4"/>
     </row>
-    <row r="236" spans="1:4" ht="15" customHeight="1">
+    <row r="236" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A236" s="4"/>
       <c r="B236" s="4"/>
       <c r="C236" s="4"/>
       <c r="D236" s="4"/>
     </row>
-    <row r="237" spans="1:4" ht="15" customHeight="1">
+    <row r="237" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
       <c r="D237" s="4"/>
     </row>
-    <row r="238" spans="1:4" ht="15" customHeight="1">
+    <row r="238" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A238" s="4"/>
       <c r="B238" s="4"/>
       <c r="C238" s="4"/>
       <c r="D238" s="4"/>
     </row>
-    <row r="239" spans="1:4" ht="15" customHeight="1">
+    <row r="239" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A239" s="4"/>
       <c r="B239" s="4"/>
       <c r="C239" s="4"/>
       <c r="D239" s="4"/>
     </row>
-    <row r="240" spans="1:4" ht="15" customHeight="1">
+    <row r="240" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A240" s="4"/>
       <c r="B240" s="4"/>
       <c r="C240" s="4"/>
       <c r="D240" s="4"/>
     </row>
-    <row r="241" spans="1:4" ht="15" customHeight="1">
+    <row r="241" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A241" s="4"/>
       <c r="B241" s="4"/>
       <c r="C241" s="4"/>
       <c r="D241" s="4"/>
     </row>
-    <row r="242" spans="1:4" ht="15" customHeight="1">
+    <row r="242" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A242" s="4"/>
       <c r="B242" s="4"/>
       <c r="C242" s="4"/>
       <c r="D242" s="4"/>
     </row>
-    <row r="243" spans="1:4" ht="15" customHeight="1">
+    <row r="243" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A243" s="4"/>
       <c r="B243" s="4"/>
       <c r="C243" s="4"/>
       <c r="D243" s="4"/>
     </row>
-    <row r="244" spans="1:4" ht="15" customHeight="1">
+    <row r="244" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A244" s="4"/>
       <c r="B244" s="4"/>
       <c r="C244" s="4"/>
       <c r="D244" s="4"/>
     </row>
-    <row r="245" spans="1:4" ht="15" customHeight="1">
+    <row r="245" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A245" s="4"/>
       <c r="B245" s="4"/>
       <c r="C245" s="4"/>
       <c r="D245" s="4"/>
     </row>
-    <row r="246" spans="1:4" ht="15" customHeight="1">
+    <row r="246" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A246" s="4"/>
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
       <c r="D246" s="4"/>
     </row>
-    <row r="247" spans="1:4" ht="15" customHeight="1">
+    <row r="247" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A247" s="4"/>
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
       <c r="D247" s="4"/>
     </row>
-    <row r="248" spans="1:4" ht="15" customHeight="1">
+    <row r="248" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A248" s="4"/>
       <c r="B248" s="4"/>
       <c r="C248" s="4"/>
       <c r="D248" s="4"/>
     </row>
-    <row r="249" spans="1:4" ht="15" customHeight="1">
+    <row r="249" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
       <c r="D249" s="4"/>
     </row>
-    <row r="250" spans="1:4" ht="15" customHeight="1">
+    <row r="250" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A250" s="4"/>
       <c r="B250" s="4"/>
       <c r="C250" s="4"/>
       <c r="D250" s="4"/>
     </row>
-    <row r="251" spans="1:4" ht="15" customHeight="1">
+    <row r="251" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A251" s="4"/>
       <c r="B251" s="4"/>
       <c r="C251" s="4"/>
       <c r="D251" s="4"/>
     </row>
-    <row r="252" spans="1:4" ht="15" customHeight="1">
+    <row r="252" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A252" s="4"/>
       <c r="B252" s="4"/>
       <c r="C252" s="4"/>
       <c r="D252" s="4"/>
     </row>
-    <row r="253" spans="1:4" ht="15" customHeight="1">
+    <row r="253" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A253" s="4"/>
       <c r="B253" s="4"/>
       <c r="C253" s="4"/>
       <c r="D253" s="4"/>
     </row>
-    <row r="254" spans="1:4" ht="15" customHeight="1">
+    <row r="254" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A254" s="4"/>
       <c r="B254" s="4"/>
       <c r="C254" s="4"/>
       <c r="D254" s="4"/>
     </row>
-    <row r="255" spans="1:4" ht="15" customHeight="1">
+    <row r="255" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A255" s="4"/>
       <c r="B255" s="4"/>
       <c r="C255" s="4"/>
       <c r="D255" s="4"/>
     </row>
-    <row r="256" spans="1:4" ht="15" customHeight="1">
+    <row r="256" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A256" s="4"/>
       <c r="B256" s="4"/>
       <c r="C256" s="4"/>
       <c r="D256" s="4"/>
     </row>
-    <row r="257" spans="1:4" ht="15" customHeight="1">
+    <row r="257" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A257" s="4"/>
       <c r="B257" s="4"/>
       <c r="C257" s="4"/>
       <c r="D257" s="4"/>
     </row>
-    <row r="258" spans="1:4" ht="15" customHeight="1">
+    <row r="258" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A258" s="4"/>
       <c r="B258" s="4"/>
       <c r="C258" s="4"/>
       <c r="D258" s="4"/>
     </row>
-    <row r="259" spans="1:4" ht="15" customHeight="1">
+    <row r="259" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A259" s="4"/>
       <c r="B259" s="4"/>
       <c r="C259" s="4"/>
       <c r="D259" s="4"/>
     </row>
-    <row r="260" spans="1:4" ht="15" customHeight="1">
+    <row r="260" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A260" s="4"/>
       <c r="B260" s="4"/>
       <c r="C260" s="4"/>
       <c r="D260" s="4"/>
     </row>
-    <row r="261" spans="1:4" ht="15" customHeight="1">
+    <row r="261" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A261" s="4"/>
       <c r="B261" s="4"/>
       <c r="C261" s="4"/>
       <c r="D261" s="4"/>
     </row>
-    <row r="262" spans="1:4" ht="15" customHeight="1">
+    <row r="262" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A262" s="4"/>
       <c r="B262" s="4"/>
       <c r="C262" s="4"/>
       <c r="D262" s="4"/>
     </row>
-    <row r="263" spans="1:4" ht="15" customHeight="1">
+    <row r="263" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A263" s="4"/>
       <c r="B263" s="4"/>
       <c r="C263" s="4"/>
       <c r="D263" s="4"/>
     </row>
-    <row r="264" spans="1:4" ht="15" customHeight="1">
+    <row r="264" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A264" s="4"/>
       <c r="B264" s="4"/>
       <c r="C264" s="4"/>
       <c r="D264" s="4"/>
     </row>
-    <row r="265" spans="1:4" ht="15" customHeight="1">
+    <row r="265" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A265" s="4"/>
       <c r="B265" s="4"/>
       <c r="C265" s="4"/>
       <c r="D265" s="4"/>
     </row>
-    <row r="266" spans="1:4" ht="15" customHeight="1">
+    <row r="266" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A266" s="4"/>
       <c r="B266" s="4"/>
       <c r="C266" s="4"/>
       <c r="D266" s="4"/>
     </row>
-    <row r="267" spans="1:4" ht="15" customHeight="1">
+    <row r="267" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A267" s="4"/>
       <c r="B267" s="4"/>
       <c r="C267" s="4"/>
       <c r="D267" s="4"/>
     </row>
-    <row r="268" spans="1:4" ht="15" customHeight="1">
+    <row r="268" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A268" s="4"/>
       <c r="B268" s="4"/>
       <c r="C268" s="4"/>
       <c r="D268" s="4"/>
     </row>
-    <row r="269" spans="1:4" ht="15" customHeight="1">
+    <row r="269" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A269" s="4"/>
       <c r="B269" s="4"/>
       <c r="C269" s="4"/>
       <c r="D269" s="4"/>
     </row>
-    <row r="270" spans="1:4" ht="15" customHeight="1">
+    <row r="270" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A270" s="4"/>
       <c r="B270" s="4"/>
       <c r="C270" s="4"/>
       <c r="D270" s="4"/>
     </row>
-    <row r="271" spans="1:4" ht="15" customHeight="1">
+    <row r="271" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A271" s="4"/>
       <c r="B271" s="4"/>
       <c r="C271" s="4"/>
       <c r="D271" s="4"/>
     </row>
-    <row r="272" spans="1:4" ht="15" customHeight="1">
+    <row r="272" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A272" s="4"/>
       <c r="B272" s="4"/>
       <c r="C272" s="4"/>
       <c r="D272" s="4"/>
     </row>
-    <row r="273" spans="1:4" ht="15" customHeight="1">
+    <row r="273" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A273" s="4"/>
       <c r="B273" s="4"/>
       <c r="C273" s="4"/>
       <c r="D273" s="4"/>
     </row>
-    <row r="274" spans="1:4" ht="15" customHeight="1">
+    <row r="274" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A274" s="4"/>
       <c r="B274" s="4"/>
       <c r="C274" s="4"/>
       <c r="D274" s="4"/>
     </row>
-    <row r="275" spans="1:4" ht="15" customHeight="1">
+    <row r="275" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A275" s="4"/>
       <c r="B275" s="4"/>
       <c r="C275" s="4"/>
       <c r="D275" s="4"/>
     </row>
-    <row r="276" spans="1:4" ht="15" customHeight="1">
+    <row r="276" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A276" s="4"/>
       <c r="B276" s="4"/>
       <c r="C276" s="4"/>
       <c r="D276" s="4"/>
     </row>
-    <row r="277" spans="1:4" ht="15" customHeight="1">
+    <row r="277" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A277" s="4"/>
       <c r="B277" s="4"/>
       <c r="C277" s="4"/>
       <c r="D277" s="4"/>
     </row>
-    <row r="278" spans="1:4" ht="15" customHeight="1">
+    <row r="278" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A278" s="4"/>
       <c r="B278" s="4"/>
       <c r="C278" s="4"/>
       <c r="D278" s="4"/>
     </row>
-    <row r="279" spans="1:4" ht="15" customHeight="1">
+    <row r="279" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A279" s="4"/>
       <c r="B279" s="4"/>
       <c r="C279" s="4"/>
       <c r="D279" s="4"/>
     </row>
-    <row r="280" spans="1:4" ht="15" customHeight="1">
+    <row r="280" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A280" s="4"/>
       <c r="B280" s="4"/>
       <c r="C280" s="4"/>
       <c r="D280" s="4"/>
     </row>
-    <row r="281" spans="1:4" ht="15" customHeight="1">
+    <row r="281" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A281" s="4"/>
       <c r="B281" s="4"/>
       <c r="C281" s="4"/>
       <c r="D281" s="4"/>
     </row>
-    <row r="282" spans="1:4" ht="15" customHeight="1">
+    <row r="282" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A282" s="4"/>
       <c r="B282" s="4"/>
       <c r="C282" s="4"/>
       <c r="D282" s="4"/>
     </row>
-    <row r="283" spans="1:4" ht="15" customHeight="1">
+    <row r="283" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A283" s="4"/>
       <c r="B283" s="4"/>
       <c r="C283" s="4"/>
       <c r="D283" s="4"/>
     </row>
-    <row r="284" spans="1:4" ht="15" customHeight="1">
+    <row r="284" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A284" s="4"/>
       <c r="B284" s="4"/>
       <c r="C284" s="4"/>
       <c r="D284" s="4"/>
     </row>
-    <row r="285" spans="1:4" ht="15" customHeight="1">
+    <row r="285" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A285" s="4"/>
       <c r="B285" s="4"/>
       <c r="C285" s="4"/>
       <c r="D285" s="4"/>
     </row>
-    <row r="286" spans="1:4" ht="15" customHeight="1">
+    <row r="286" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A286" s="4"/>
       <c r="B286" s="4"/>
       <c r="C286" s="4"/>
       <c r="D286" s="4"/>
     </row>
-    <row r="287" spans="1:4" ht="15" customHeight="1">
+    <row r="287" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A287" s="4"/>
       <c r="B287" s="4"/>
       <c r="C287" s="4"/>
       <c r="D287" s="4"/>
     </row>
-    <row r="288" spans="1:4" ht="15" customHeight="1">
+    <row r="288" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A288" s="4"/>
       <c r="B288" s="4"/>
       <c r="C288" s="4"/>
       <c r="D288" s="4"/>
     </row>
-    <row r="289" spans="1:4" ht="15" customHeight="1">
+    <row r="289" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A289" s="4"/>
       <c r="B289" s="4"/>
       <c r="C289" s="4"/>
       <c r="D289" s="4"/>
     </row>
-    <row r="290" spans="1:4" ht="15" customHeight="1">
+    <row r="290" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A290" s="4"/>
       <c r="B290" s="4"/>
       <c r="C290" s="4"/>
       <c r="D290" s="4"/>
     </row>
-    <row r="291" spans="1:4" ht="15" customHeight="1">
+    <row r="291" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A291" s="4"/>
       <c r="B291" s="4"/>
       <c r="C291" s="4"/>
       <c r="D291" s="4"/>
     </row>
-    <row r="292" spans="1:4" ht="15" customHeight="1">
+    <row r="292" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A292" s="4"/>
       <c r="B292" s="4"/>
       <c r="C292" s="4"/>
       <c r="D292" s="4"/>
     </row>
-    <row r="293" spans="1:4" ht="15" customHeight="1">
+    <row r="293" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A293" s="4"/>
       <c r="B293" s="4"/>
       <c r="C293" s="4"/>
       <c r="D293" s="4"/>
     </row>
-    <row r="294" spans="1:4" ht="15" customHeight="1">
+    <row r="294" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A294" s="4"/>
       <c r="B294" s="4"/>
       <c r="C294" s="4"/>
       <c r="D294" s="4"/>
     </row>
-    <row r="295" spans="1:4" ht="15" customHeight="1">
+    <row r="295" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A295" s="4"/>
       <c r="B295" s="4"/>
       <c r="C295" s="4"/>
       <c r="D295" s="4"/>
     </row>
-    <row r="296" spans="1:4" ht="15" customHeight="1">
+    <row r="296" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A296" s="4"/>
       <c r="B296" s="4"/>
       <c r="C296" s="4"/>
       <c r="D296" s="4"/>
     </row>
-    <row r="297" spans="1:4" ht="15" customHeight="1">
+    <row r="297" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A297" s="4"/>
       <c r="B297" s="4"/>
       <c r="C297" s="4"/>
       <c r="D297" s="4"/>
     </row>
-    <row r="298" spans="1:4" ht="15" customHeight="1">
+    <row r="298" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A298" s="4"/>
       <c r="B298" s="4"/>
       <c r="C298" s="4"/>
       <c r="D298" s="4"/>
     </row>
-    <row r="299" spans="1:4" ht="15" customHeight="1">
+    <row r="299" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A299" s="4"/>
       <c r="B299" s="4"/>
       <c r="C299" s="4"/>
       <c r="D299" s="4"/>
     </row>
-    <row r="300" spans="1:4" ht="15" customHeight="1">
+    <row r="300" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A300" s="4"/>
       <c r="B300" s="4"/>
       <c r="C300" s="4"/>
       <c r="D300" s="4"/>
     </row>
-    <row r="301" spans="1:4" ht="15" customHeight="1">
+    <row r="301" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A301" s="4"/>
       <c r="B301" s="4"/>
       <c r="C301" s="4"/>

--- a/dictionaries/core/2_3/2_3_trimester_rep.xlsx
+++ b/dictionaries/core/2_3/2_3_trimester_rep.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\back\ATHLETE\HARMO\20220613_dicts\Lifecycle\dictionaries\core\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3160A1C9-00F4-4AEA-AEB8-98CDF406D502}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Variables" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Categories" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Variables" sheetId="1" r:id="rId1"/>
+    <sheet name="Categories" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -23,739 +28,720 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="235">
   <si>
-    <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">valueType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">row_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">integer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">numeric</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unique number of the row (to be sure child_id gets persisted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">child_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unique number of the child</t>
-  </si>
-  <si>
-    <t xml:space="preserve">age_trimester</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Age of the child in trimesters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">smk_t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smoking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alc_t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Any alcohol intake</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no2_t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">decimal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">micrograms_per_cubic_meter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no2 average value (extrapolated back in time using ratio method)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nox_t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nox average value (extrapolated back in time using ratio method)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pm10_t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pm10 average value (extrapolated back in time using ratio method)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pm25_t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pm25 average value (extrapolated back in time using ratio method)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pmcoarse_t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pmcoarse average value (extrapolated back in time using ratio method)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pm25abs_t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ten_power_minus_five_per_inverse_meter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pm25abs average value (extrapolated back in time using ratio method)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pm25cu_t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nanograms_per_cubic_meter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pm25cu value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pm25fe_t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pm25fe value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pm25k_t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pm25k value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pm25ni_t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pm25ni value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pm25s_t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pm25s value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pm25si_t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pm25si value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pm25v_t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pm25v value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pm25zn_t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pm25zn value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pm10cu_t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pm10cu value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pm10fe_t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pm10fe value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pm10k_t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pm10k value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pm10ni_t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pm10ni value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pm10s_t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pm10s value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pm10si_t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pm10si value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pm10v_t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pm10v value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pm10zn_t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pm10zn value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">popdens_t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">people_per_square_kilometer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">population density</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bdens100_t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">square_meter_per_square_kilometer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">building density within a buffer of 100 m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bdens300_t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">building density within a buffer of 300 m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">connind100_t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number_per_square_kilometer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">connectivity density within a buffer of 100 m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">connind300_t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">connectivity density within a buffer of 300 m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bus_lines_100_t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">meter_per_square_kilometer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">length of public bus lines within a buffer of 100 m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bus_lines_300_t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">length of public bus lines within a buffer of 300 m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bus_lines_500_t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">length of public bus lines within a buffer of 500 m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bus_stops_100_t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of public bus stops within a buffer of 100 m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bus_stops_300_t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of public bus stops within a buffer of 300 m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bus_stops_500_t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of public bus stops within a buffer of 500 m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fdensity300_t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of facilities present within a buffer of 300 m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">frichness300_t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of different facility types present divided by the maximum potential number of facility types within a buffer of 300 m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">landuseshan300_t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">landuse Shannon's Evenness Index within a buffer of 300 m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">walkability_mean_t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">walkability index (as mean of deciles of facility richness index, landuse shannon's Evenness Index, population density, connectivity density) within a buffer of 300 m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">agrgr_t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percentage of agrgr (agricultural areas, semi-natural areas and wetlands) land use within a buffer of 300 m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">airpt_t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percentage of airpt (airports) land use within a buffer of 300 m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hdres_t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percentage of hdres (continuous urban fabric) land use within a buffer of 300 m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">indtr_t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percentage of indtr (industrial, commercial, public, military and private units) land use within a buffer of 300 m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ldres_t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percentage of ldres (discontinuous dense/medium density/low density urban fabric) land use within a buffer of 300 m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">natgr_t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percentage of natgr (forests) land use within a buffer of 300 m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">other_t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percentage of other (mineral extraction and dump sites, construction sites, land without current use) land use within a buffer of 300 m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">port_t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percentage of port (port areas) land use within a buffer of 300 m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trans_t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percentage of trans (road and rail network and associated land, fast transit roads and associated land, other roads and associated land, railways and associated land) land use within a buffer of 300 m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">urbgr_t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percentage of urbgr (green urban areas, sports and leisure facilities) land use within a buffer of 300 m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vldres_t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percentage of vldres (discontinuous very low density urban fabric) land use within a buffer of 300 m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">water_t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percentage of water land use within a buffer of 300 m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blue_dist_t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">meter</t>
+    <t>name</t>
+  </si>
+  <si>
+    <t>valueType</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>row_id</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>numeric</t>
+  </si>
+  <si>
+    <t>Unique number of the row (to be sure child_id gets persisted</t>
+  </si>
+  <si>
+    <t>child_id</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>Unique number of the child</t>
+  </si>
+  <si>
+    <t>age_trimester</t>
+  </si>
+  <si>
+    <t>Age of the child in trimesters</t>
+  </si>
+  <si>
+    <t>smk_t</t>
+  </si>
+  <si>
+    <t>Smoking</t>
+  </si>
+  <si>
+    <t>alc_t</t>
+  </si>
+  <si>
+    <t>Any alcohol intake</t>
+  </si>
+  <si>
+    <t>no2_t</t>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>micrograms_per_cubic_meter</t>
+  </si>
+  <si>
+    <t>no2 average value (extrapolated back in time using ratio method)</t>
+  </si>
+  <si>
+    <t>nox_t</t>
+  </si>
+  <si>
+    <t>nox average value (extrapolated back in time using ratio method)</t>
+  </si>
+  <si>
+    <t>pm10_t</t>
+  </si>
+  <si>
+    <t>pm10 average value (extrapolated back in time using ratio method)</t>
+  </si>
+  <si>
+    <t>pm25_t</t>
+  </si>
+  <si>
+    <t>pm25 average value (extrapolated back in time using ratio method)</t>
+  </si>
+  <si>
+    <t>pmcoarse_t</t>
+  </si>
+  <si>
+    <t>pmcoarse average value (extrapolated back in time using ratio method)</t>
+  </si>
+  <si>
+    <t>pm25abs_t</t>
+  </si>
+  <si>
+    <t>ten_power_minus_five_per_inverse_meter</t>
+  </si>
+  <si>
+    <t>pm25abs average value (extrapolated back in time using ratio method)</t>
+  </si>
+  <si>
+    <t>pm25cu_t</t>
+  </si>
+  <si>
+    <t>nanograms_per_cubic_meter</t>
+  </si>
+  <si>
+    <t>pm25cu value</t>
+  </si>
+  <si>
+    <t>pm25fe_t</t>
+  </si>
+  <si>
+    <t>pm25fe value</t>
+  </si>
+  <si>
+    <t>pm25k_t</t>
+  </si>
+  <si>
+    <t>pm25k value</t>
+  </si>
+  <si>
+    <t>pm25ni_t</t>
+  </si>
+  <si>
+    <t>pm25ni value</t>
+  </si>
+  <si>
+    <t>pm25s_t</t>
+  </si>
+  <si>
+    <t>pm25s value</t>
+  </si>
+  <si>
+    <t>pm25si_t</t>
+  </si>
+  <si>
+    <t>pm25si value</t>
+  </si>
+  <si>
+    <t>pm25v_t</t>
+  </si>
+  <si>
+    <t>pm25v value</t>
+  </si>
+  <si>
+    <t>pm25zn_t</t>
+  </si>
+  <si>
+    <t>pm25zn value</t>
+  </si>
+  <si>
+    <t>pm10cu_t</t>
+  </si>
+  <si>
+    <t>pm10cu value</t>
+  </si>
+  <si>
+    <t>pm10fe_t</t>
+  </si>
+  <si>
+    <t>pm10fe value</t>
+  </si>
+  <si>
+    <t>pm10k_t</t>
+  </si>
+  <si>
+    <t>pm10k value</t>
+  </si>
+  <si>
+    <t>pm10ni_t</t>
+  </si>
+  <si>
+    <t>pm10ni value</t>
+  </si>
+  <si>
+    <t>pm10s_t</t>
+  </si>
+  <si>
+    <t>pm10s value</t>
+  </si>
+  <si>
+    <t>pm10si_t</t>
+  </si>
+  <si>
+    <t>pm10si value</t>
+  </si>
+  <si>
+    <t>pm10v_t</t>
+  </si>
+  <si>
+    <t>pm10v value</t>
+  </si>
+  <si>
+    <t>pm10zn_t</t>
+  </si>
+  <si>
+    <t>pm10zn value</t>
+  </si>
+  <si>
+    <t>popdens_t</t>
+  </si>
+  <si>
+    <t>people_per_square_kilometer</t>
+  </si>
+  <si>
+    <t>population density</t>
+  </si>
+  <si>
+    <t>bdens100_t</t>
+  </si>
+  <si>
+    <t>square_meter_per_square_kilometer</t>
+  </si>
+  <si>
+    <t>building density within a buffer of 100 m</t>
+  </si>
+  <si>
+    <t>bdens300_t</t>
+  </si>
+  <si>
+    <t>building density within a buffer of 300 m</t>
+  </si>
+  <si>
+    <t>connind100_t</t>
+  </si>
+  <si>
+    <t>number_per_square_kilometer</t>
+  </si>
+  <si>
+    <t>connectivity density within a buffer of 100 m</t>
+  </si>
+  <si>
+    <t>connind300_t</t>
+  </si>
+  <si>
+    <t>connectivity density within a buffer of 300 m</t>
+  </si>
+  <si>
+    <t>bus_lines_100_t</t>
+  </si>
+  <si>
+    <t>meter_per_square_kilometer</t>
+  </si>
+  <si>
+    <t>length of public bus lines within a buffer of 100 m</t>
+  </si>
+  <si>
+    <t>bus_lines_300_t</t>
+  </si>
+  <si>
+    <t>length of public bus lines within a buffer of 300 m</t>
+  </si>
+  <si>
+    <t>bus_lines_500_t</t>
+  </si>
+  <si>
+    <t>length of public bus lines within a buffer of 500 m</t>
+  </si>
+  <si>
+    <t>bus_stops_100_t</t>
+  </si>
+  <si>
+    <t>number of public bus stops within a buffer of 100 m</t>
+  </si>
+  <si>
+    <t>bus_stops_300_t</t>
+  </si>
+  <si>
+    <t>number of public bus stops within a buffer of 300 m</t>
+  </si>
+  <si>
+    <t>bus_stops_500_t</t>
+  </si>
+  <si>
+    <t>number of public bus stops within a buffer of 500 m</t>
+  </si>
+  <si>
+    <t>fdensity300_t</t>
+  </si>
+  <si>
+    <t>number of facilities present within a buffer of 300 m</t>
+  </si>
+  <si>
+    <t>frichness300_t</t>
+  </si>
+  <si>
+    <t>number of different facility types present divided by the maximum potential number of facility types within a buffer of 300 m</t>
+  </si>
+  <si>
+    <t>landuseshan300_t</t>
+  </si>
+  <si>
+    <t>landuse Shannon's Evenness Index within a buffer of 300 m</t>
+  </si>
+  <si>
+    <t>walkability_mean_t</t>
+  </si>
+  <si>
+    <t>walkability index (as mean of deciles of facility richness index, landuse shannon's Evenness Index, population density, connectivity density) within a buffer of 300 m</t>
+  </si>
+  <si>
+    <t>agrgr_t</t>
+  </si>
+  <si>
+    <t>percent</t>
+  </si>
+  <si>
+    <t>percentage of agrgr (agricultural areas, semi-natural areas and wetlands) land use within a buffer of 300 m</t>
+  </si>
+  <si>
+    <t>airpt_t</t>
+  </si>
+  <si>
+    <t>percentage of airpt (airports) land use within a buffer of 300 m</t>
+  </si>
+  <si>
+    <t>hdres_t</t>
+  </si>
+  <si>
+    <t>percentage of hdres (continuous urban fabric) land use within a buffer of 300 m</t>
+  </si>
+  <si>
+    <t>indtr_t</t>
+  </si>
+  <si>
+    <t>percentage of indtr (industrial, commercial, public, military and private units) land use within a buffer of 300 m</t>
+  </si>
+  <si>
+    <t>ldres_t</t>
+  </si>
+  <si>
+    <t>percentage of ldres (discontinuous dense/medium density/low density urban fabric) land use within a buffer of 300 m</t>
+  </si>
+  <si>
+    <t>natgr_t</t>
+  </si>
+  <si>
+    <t>percentage of natgr (forests) land use within a buffer of 300 m</t>
+  </si>
+  <si>
+    <t>other_t</t>
+  </si>
+  <si>
+    <t>percentage of other (mineral extraction and dump sites, construction sites, land without current use) land use within a buffer of 300 m</t>
+  </si>
+  <si>
+    <t>port_t</t>
+  </si>
+  <si>
+    <t>percentage of port (port areas) land use within a buffer of 300 m</t>
+  </si>
+  <si>
+    <t>trans_t</t>
+  </si>
+  <si>
+    <t>percentage of trans (road and rail network and associated land, fast transit roads and associated land, other roads and associated land, railways and associated land) land use within a buffer of 300 m</t>
+  </si>
+  <si>
+    <t>urbgr_t</t>
+  </si>
+  <si>
+    <t>percentage of urbgr (green urban areas, sports and leisure facilities) land use within a buffer of 300 m</t>
+  </si>
+  <si>
+    <t>vldres_t</t>
+  </si>
+  <si>
+    <t>percentage of vldres (discontinuous very low density urban fabric) land use within a buffer of 300 m</t>
+  </si>
+  <si>
+    <t>water_t</t>
+  </si>
+  <si>
+    <t>percentage of water land use within a buffer of 300 m</t>
+  </si>
+  <si>
+    <t>blue_dist_t</t>
+  </si>
+  <si>
+    <t>meter</t>
   </si>
   <si>
     <t xml:space="preserve"> straight line distance to nearest blue space &gt; 5,000 m2</t>
   </si>
   <si>
-    <t xml:space="preserve">green_dist_t</t>
+    <t>green_dist_t</t>
   </si>
   <si>
     <t xml:space="preserve"> straight line distance to nearest green space &gt; 5,000 m2</t>
   </si>
   <si>
-    <t xml:space="preserve">blue_size_t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">square_meter</t>
+    <t>blue_size_t</t>
+  </si>
+  <si>
+    <t>square_meter</t>
   </si>
   <si>
     <t xml:space="preserve"> area of closest blue space &gt; 5,000m2</t>
   </si>
   <si>
-    <t xml:space="preserve">green_size_t</t>
+    <t>green_size_t</t>
   </si>
   <si>
     <t xml:space="preserve"> area of closest green space &gt; 5,000m2</t>
   </si>
   <si>
-    <t xml:space="preserve">blueyn300_t</t>
+    <t>blueyn300_t</t>
   </si>
   <si>
     <t xml:space="preserve"> is there a blue space  &gt; 5,000 m2 in a distance of 300 m?</t>
   </si>
   <si>
-    <t xml:space="preserve">greenyn300_t</t>
+    <t>greenyn300_t</t>
   </si>
   <si>
     <t xml:space="preserve"> is there a green space  &gt; 5,000 m2 in a distance of 300 m?</t>
   </si>
   <si>
-    <t xml:space="preserve">ndvi100_t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ndvi_value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">average of NDVI values within a buffer of 100 m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ndvi300_t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">average of NDVI values within a buffer of 300 m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ndvi500_t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">average of NDVI values within a buffer of 500 m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lden_t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A_weighted_decibel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">day-evening-night level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ln_t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">night level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lden_c_t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">categorized day-evening-night level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ln_c_t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">categorized night level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">noise_dist_t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">straight distance to the nearest road with noise level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">areases_tert_t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">area-level SES indicator (deprivation index in tertiles)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">areases_quint_t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">area-level SES indicator (deprivation index in quintiles)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">distinvnear1_t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inverse_meter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inverse distance to nearest road</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trafload100_t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vehicles_per_day_and_meter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">total traffic load of all roads within a buffer of 100 m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trafmajorload100_t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">total traffic load of major roads within a buffer of 100 m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trafnear_t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vehicles_per_day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">traffic density on nearest road</t>
-  </si>
-  <si>
-    <t xml:space="preserve">foodenvdens300_t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of facilities related to unhealthy food divided by the area of the 300 meters buffer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">foodenvdensosm300_t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of open street maps facilities related to unhealthy food divided by the area of the 300 meters buffer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tm_t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">degree_celsius</t>
-  </si>
-  <si>
-    <t xml:space="preserve">average of mean temperature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tmin_t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">average of minimum temperature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tmax_t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">average of maximum temperature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hum_t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">average of mean relative humidity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hmin_t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">average of minimum relative humidity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hmax_t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">average of maximum relative humidity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uvddc_t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kilojoules_per_square_meter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">average of DNA-damage UV dose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uvdec_t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">average of erythemal UV dose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uvdvc_t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">average of vitamin-d UV dose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lst_t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">land surface temperature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mdist_t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">distance to meteorological station</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAI_score_T2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAI score second trimester</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCL_total_score_T2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCL score second trimester</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCL_anx_score_T2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCL anxiety score second trimester</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCL_dep_score_T2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCL depression score second trimester</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCL_total_score_T3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCL score third trimester</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCL_anx_score_T3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCL anxiety score third trimester</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCL_dep_score_T3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCL depression score third trimester</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GA_anx_T2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gestational age in days at second trimester anxiety measure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GA_anx_T3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gestational age in days at third trimester anxiety measure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">variable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isMissing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50-54.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55-59.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60-64.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65-69.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt;70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70-74.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt;75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">low deprivated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medium deprivated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">high deprivated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medium-low deprivated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medium-high deprivated</t>
+    <t>ndvi100_t</t>
+  </si>
+  <si>
+    <t>ndvi_value</t>
+  </si>
+  <si>
+    <t>average of NDVI values within a buffer of 100 m</t>
+  </si>
+  <si>
+    <t>ndvi300_t</t>
+  </si>
+  <si>
+    <t>average of NDVI values within a buffer of 300 m</t>
+  </si>
+  <si>
+    <t>ndvi500_t</t>
+  </si>
+  <si>
+    <t>average of NDVI values within a buffer of 500 m</t>
+  </si>
+  <si>
+    <t>lden_t</t>
+  </si>
+  <si>
+    <t>A_weighted_decibel</t>
+  </si>
+  <si>
+    <t>day-evening-night level</t>
+  </si>
+  <si>
+    <t>ln_t</t>
+  </si>
+  <si>
+    <t>night level</t>
+  </si>
+  <si>
+    <t>lden_c_t</t>
+  </si>
+  <si>
+    <t>categorized day-evening-night level</t>
+  </si>
+  <si>
+    <t>ln_c_t</t>
+  </si>
+  <si>
+    <t>categorized night level</t>
+  </si>
+  <si>
+    <t>noise_dist_t</t>
+  </si>
+  <si>
+    <t>straight distance to the nearest road with noise level</t>
+  </si>
+  <si>
+    <t>areases_tert_t</t>
+  </si>
+  <si>
+    <t>area-level SES indicator (deprivation index in tertiles)</t>
+  </si>
+  <si>
+    <t>areases_quint_t</t>
+  </si>
+  <si>
+    <t>area-level SES indicator (deprivation index in quintiles)</t>
+  </si>
+  <si>
+    <t>distinvnear1_t</t>
+  </si>
+  <si>
+    <t>inverse_meter</t>
+  </si>
+  <si>
+    <t>inverse distance to nearest road</t>
+  </si>
+  <si>
+    <t>trafload100_t</t>
+  </si>
+  <si>
+    <t>vehicles_per_day_and_meter</t>
+  </si>
+  <si>
+    <t>total traffic load of all roads within a buffer of 100 m</t>
+  </si>
+  <si>
+    <t>trafmajorload100_t</t>
+  </si>
+  <si>
+    <t>total traffic load of major roads within a buffer of 100 m</t>
+  </si>
+  <si>
+    <t>trafnear_t</t>
+  </si>
+  <si>
+    <t>vehicles_per_day</t>
+  </si>
+  <si>
+    <t>traffic density on nearest road</t>
+  </si>
+  <si>
+    <t>foodenvdens300_t</t>
+  </si>
+  <si>
+    <t>number of facilities related to unhealthy food divided by the area of the 300 meters buffer</t>
+  </si>
+  <si>
+    <t>foodenvdensosm300_t</t>
+  </si>
+  <si>
+    <t>number of open street maps facilities related to unhealthy food divided by the area of the 300 meters buffer</t>
+  </si>
+  <si>
+    <t>tm_t</t>
+  </si>
+  <si>
+    <t>degree_celsius</t>
+  </si>
+  <si>
+    <t>average of mean temperature</t>
+  </si>
+  <si>
+    <t>tmin_t</t>
+  </si>
+  <si>
+    <t>average of minimum temperature</t>
+  </si>
+  <si>
+    <t>tmax_t</t>
+  </si>
+  <si>
+    <t>average of maximum temperature</t>
+  </si>
+  <si>
+    <t>hum_t</t>
+  </si>
+  <si>
+    <t>average of mean relative humidity</t>
+  </si>
+  <si>
+    <t>hmin_t</t>
+  </si>
+  <si>
+    <t>average of minimum relative humidity</t>
+  </si>
+  <si>
+    <t>hmax_t</t>
+  </si>
+  <si>
+    <t>average of maximum relative humidity</t>
+  </si>
+  <si>
+    <t>uvddc_t</t>
+  </si>
+  <si>
+    <t>kilojoules_per_square_meter</t>
+  </si>
+  <si>
+    <t>average of DNA-damage UV dose</t>
+  </si>
+  <si>
+    <t>uvdec_t</t>
+  </si>
+  <si>
+    <t>average of erythemal UV dose</t>
+  </si>
+  <si>
+    <t>uvdvc_t</t>
+  </si>
+  <si>
+    <t>average of vitamin-d UV dose</t>
+  </si>
+  <si>
+    <t>lst_t</t>
+  </si>
+  <si>
+    <t>land surface temperature</t>
+  </si>
+  <si>
+    <t>mdist_t</t>
+  </si>
+  <si>
+    <t>distance to meteorological station</t>
+  </si>
+  <si>
+    <t>SAI_score_T2</t>
+  </si>
+  <si>
+    <t>SAI score second trimester</t>
+  </si>
+  <si>
+    <t>SCL_total_score_T2</t>
+  </si>
+  <si>
+    <t>SCL score second trimester</t>
+  </si>
+  <si>
+    <t>SCL_anx_score_T2</t>
+  </si>
+  <si>
+    <t>SCL anxiety score second trimester</t>
+  </si>
+  <si>
+    <t>SCL_dep_score_T2</t>
+  </si>
+  <si>
+    <t>SCL depression score second trimester</t>
+  </si>
+  <si>
+    <t>SCL_total_score_T3</t>
+  </si>
+  <si>
+    <t>SCL score third trimester</t>
+  </si>
+  <si>
+    <t>SCL_anx_score_T3</t>
+  </si>
+  <si>
+    <t>SCL anxiety score third trimester</t>
+  </si>
+  <si>
+    <t>SCL_dep_score_T3</t>
+  </si>
+  <si>
+    <t>SCL depression score third trimester</t>
+  </si>
+  <si>
+    <t>GA_anx_T2</t>
+  </si>
+  <si>
+    <t>Gestational age in days at second trimester anxiety measure</t>
+  </si>
+  <si>
+    <t>GA_anx_T3</t>
+  </si>
+  <si>
+    <t>Gestational age in days at third trimester anxiety measure</t>
+  </si>
+  <si>
+    <t>variable</t>
+  </si>
+  <si>
+    <t>isMissing</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>&lt;50</t>
+  </si>
+  <si>
+    <t>50-54.9</t>
+  </si>
+  <si>
+    <t>55-59.9</t>
+  </si>
+  <si>
+    <t>60-64.9</t>
+  </si>
+  <si>
+    <t>65-69.9</t>
+  </si>
+  <si>
+    <t>&gt;70</t>
+  </si>
+  <si>
+    <t>&lt;55</t>
+  </si>
+  <si>
+    <t>70-74.9</t>
+  </si>
+  <si>
+    <t>&gt;75</t>
+  </si>
+  <si>
+    <t>low deprivated</t>
+  </si>
+  <si>
+    <t>medium deprivated</t>
+  </si>
+  <si>
+    <t>high deprivated</t>
+  </si>
+  <si>
+    <t>medium-low deprivated</t>
+  </si>
+  <si>
+    <t>medium-high deprivated</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -763,8 +749,14 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -777,16 +769,22 @@
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FFAAAAAA"/>
       </left>
@@ -801,7 +799,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -811,65 +809,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -928,42 +884,341 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
-<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="350" row="0">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </wetp:taskpane>
-</wetp:taskpanes>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D317"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMJ317"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="37.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="197.09"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="1" width="8.82"/>
+    <col min="1" max="1" width="20.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="197.140625" style="1" customWidth="1"/>
+    <col min="5" max="1024" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -977,7 +1232,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -991,7 +1246,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1003,7 +1258,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -1017,7 +1272,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -1031,7 +1286,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -1045,7 +1300,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -1059,7 +1314,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -1073,7 +1328,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -1087,7 +1342,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
@@ -1101,7 +1356,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>27</v>
       </c>
@@ -1115,7 +1370,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>29</v>
       </c>
@@ -1129,7 +1384,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>32</v>
       </c>
@@ -1143,7 +1398,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>35</v>
       </c>
@@ -1157,7 +1412,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>37</v>
       </c>
@@ -1171,7 +1426,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>39</v>
       </c>
@@ -1185,7 +1440,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>41</v>
       </c>
@@ -1199,7 +1454,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>43</v>
       </c>
@@ -1213,7 +1468,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>45</v>
       </c>
@@ -1227,7 +1482,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>47</v>
       </c>
@@ -1241,7 +1496,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>49</v>
       </c>
@@ -1255,7 +1510,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>51</v>
       </c>
@@ -1269,7 +1524,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>53</v>
       </c>
@@ -1283,7 +1538,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>55</v>
       </c>
@@ -1297,7 +1552,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>57</v>
       </c>
@@ -1311,7 +1566,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>59</v>
       </c>
@@ -1325,7 +1580,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>61</v>
       </c>
@@ -1339,7 +1594,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>63</v>
       </c>
@@ -1353,7 +1608,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>65</v>
       </c>
@@ -1367,7 +1622,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>68</v>
       </c>
@@ -1381,7 +1636,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>71</v>
       </c>
@@ -1395,7 +1650,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>73</v>
       </c>
@@ -1409,7 +1664,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>76</v>
       </c>
@@ -1423,7 +1678,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>78</v>
       </c>
@@ -1437,7 +1692,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>81</v>
       </c>
@@ -1451,7 +1706,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>83</v>
       </c>
@@ -1465,7 +1720,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>85</v>
       </c>
@@ -1479,7 +1734,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>87</v>
       </c>
@@ -1493,7 +1748,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>89</v>
       </c>
@@ -1507,7 +1762,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>91</v>
       </c>
@@ -1521,7 +1776,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>93</v>
       </c>
@@ -1535,7 +1790,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>95</v>
       </c>
@@ -1549,7 +1804,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>97</v>
       </c>
@@ -1563,7 +1818,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>99</v>
       </c>
@@ -1577,7 +1832,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>102</v>
       </c>
@@ -1591,7 +1846,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>104</v>
       </c>
@@ -1605,7 +1860,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>106</v>
       </c>
@@ -1619,7 +1874,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>108</v>
       </c>
@@ -1633,7 +1888,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>110</v>
       </c>
@@ -1647,7 +1902,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>112</v>
       </c>
@@ -1661,7 +1916,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>114</v>
       </c>
@@ -1675,7 +1930,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>116</v>
       </c>
@@ -1689,7 +1944,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>118</v>
       </c>
@@ -1703,7 +1958,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>120</v>
       </c>
@@ -1717,7 +1972,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>122</v>
       </c>
@@ -1731,7 +1986,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>124</v>
       </c>
@@ -1745,7 +2000,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>127</v>
       </c>
@@ -1759,7 +2014,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>129</v>
       </c>
@@ -1773,7 +2028,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>132</v>
       </c>
@@ -1787,7 +2042,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>134</v>
       </c>
@@ -1801,7 +2056,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>136</v>
       </c>
@@ -1815,7 +2070,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>138</v>
       </c>
@@ -1829,7 +2084,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>141</v>
       </c>
@@ -1843,7 +2098,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>143</v>
       </c>
@@ -1857,7 +2112,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>145</v>
       </c>
@@ -1871,7 +2126,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>148</v>
       </c>
@@ -1885,7 +2140,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>150</v>
       </c>
@@ -1899,7 +2154,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>152</v>
       </c>
@@ -1913,7 +2168,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>154</v>
       </c>
@@ -1927,7 +2182,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>156</v>
       </c>
@@ -1941,7 +2196,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>158</v>
       </c>
@@ -1955,7 +2210,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>160</v>
       </c>
@@ -1969,7 +2224,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>163</v>
       </c>
@@ -1983,7 +2238,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>166</v>
       </c>
@@ -1997,7 +2252,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>168</v>
       </c>
@@ -2011,7 +2266,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>171</v>
       </c>
@@ -2025,7 +2280,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>173</v>
       </c>
@@ -2039,7 +2294,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>175</v>
       </c>
@@ -2053,7 +2308,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>178</v>
       </c>
@@ -2067,7 +2322,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>180</v>
       </c>
@@ -2081,7 +2336,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>182</v>
       </c>
@@ -2095,7 +2350,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>184</v>
       </c>
@@ -2109,7 +2364,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>186</v>
       </c>
@@ -2123,7 +2378,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="84" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>188</v>
       </c>
@@ -2137,7 +2392,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="85" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>191</v>
       </c>
@@ -2151,7 +2406,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>193</v>
       </c>
@@ -2165,7 +2420,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>195</v>
       </c>
@@ -2179,7 +2434,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>197</v>
       </c>
@@ -2193,7 +2448,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="89" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>199</v>
       </c>
@@ -2207,7 +2462,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="90" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>201</v>
       </c>
@@ -2221,7 +2476,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="91" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>203</v>
       </c>
@@ -2235,7 +2490,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>205</v>
       </c>
@@ -2249,7 +2504,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="93" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>207</v>
       </c>
@@ -2263,7 +2518,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="94" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>209</v>
       </c>
@@ -2277,7 +2532,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="95" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>211</v>
       </c>
@@ -2291,7 +2546,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="96" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>213</v>
       </c>
@@ -2305,7 +2560,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="97" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>215</v>
       </c>
@@ -2319,1360 +2574,1351 @@
         <v>216</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="98" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
     </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="99" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
     </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="100" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
     </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="101" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
     </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="102" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
     </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="103" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
     </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="104" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
     </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="105" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
     </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="106" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
     </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="107" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
     </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="108" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
     </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="109" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
     </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="110" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
     </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="111" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
     </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="112" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
     </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="113" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
     </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="114" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
     </row>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="115" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
     </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="116" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
     </row>
-    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="117" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
     </row>
-    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="118" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
     </row>
-    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="119" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
     </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="120" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
     </row>
-    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="121" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
     </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="122" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
     </row>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="123" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
     </row>
-    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="124" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
     </row>
-    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="125" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
     </row>
-    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="126" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
     </row>
-    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="127" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
     </row>
-    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="128" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
     </row>
-    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="129" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
     </row>
-    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="130" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
     </row>
-    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="131" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
     </row>
-    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="132" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
     </row>
-    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="133" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
     </row>
-    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="134" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
     </row>
-    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="135" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
     </row>
-    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="136" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
     </row>
-    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="137" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
     </row>
-    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="138" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
     </row>
-    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="139" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
     </row>
-    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="140" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
     </row>
-    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="141" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
     </row>
-    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="142" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
     </row>
-    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="143" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
     </row>
-    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="144" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
     </row>
-    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="145" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
     </row>
-    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="146" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
     </row>
-    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="147" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
     </row>
-    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="148" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
     </row>
-    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="149" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
     </row>
-    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="150" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
     </row>
-    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="151" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
     </row>
-    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="152" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
     </row>
-    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="153" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
     </row>
-    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="154" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
     </row>
-    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="155" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
     </row>
-    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="156" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
     </row>
-    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="157" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
     </row>
-    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="158" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
     </row>
-    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="159" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
     </row>
-    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="160" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
     </row>
-    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="161" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
     </row>
-    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="162" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
     </row>
-    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="163" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
     </row>
-    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="164" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
     </row>
-    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="165" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
     </row>
-    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="166" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
     </row>
-    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="167" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
     </row>
-    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="168" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
     </row>
-    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="169" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
     </row>
-    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="170" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
     </row>
-    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="171" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
     </row>
-    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="172" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
     </row>
-    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="173" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
     </row>
-    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="174" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
     </row>
-    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="175" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
     </row>
-    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="176" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
     </row>
-    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="177" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
     </row>
-    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="178" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
     </row>
-    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="179" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
     </row>
-    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="180" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
     </row>
-    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="181" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
     </row>
-    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="182" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
       <c r="D182" s="4"/>
     </row>
-    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="183" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
       <c r="D183" s="4"/>
     </row>
-    <row r="184" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="184" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
       <c r="D184" s="4"/>
     </row>
-    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="185" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
       <c r="D185" s="4"/>
     </row>
-    <row r="186" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="186" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
       <c r="D186" s="4"/>
     </row>
-    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="187" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
       <c r="D187" s="4"/>
     </row>
-    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="188" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
       <c r="D188" s="4"/>
     </row>
-    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="189" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
       <c r="D189" s="4"/>
     </row>
-    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="190" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
       <c r="D190" s="4"/>
     </row>
-    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="191" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
     </row>
-    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="192" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
       <c r="D192" s="4"/>
     </row>
-    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="193" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
       <c r="D193" s="4"/>
     </row>
-    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="194" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
       <c r="D194" s="4"/>
     </row>
-    <row r="195" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="195" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
       <c r="D195" s="4"/>
     </row>
-    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="196" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
       <c r="D196" s="4"/>
     </row>
-    <row r="197" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="197" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
       <c r="D197" s="4"/>
     </row>
-    <row r="198" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="198" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
       <c r="D198" s="4"/>
     </row>
-    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="199" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
       <c r="D199" s="4"/>
     </row>
-    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="200" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
       <c r="D200" s="4"/>
     </row>
-    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="201" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
       <c r="D201" s="4"/>
     </row>
-    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="202" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
       <c r="D202" s="4"/>
     </row>
-    <row r="203" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="203" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
       <c r="D203" s="4"/>
     </row>
-    <row r="204" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="204" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
       <c r="D204" s="4"/>
     </row>
-    <row r="205" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="205" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="4"/>
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
       <c r="D205" s="4"/>
     </row>
-    <row r="206" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="206" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
       <c r="D206" s="4"/>
     </row>
-    <row r="207" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="207" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="4"/>
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
       <c r="D207" s="4"/>
     </row>
-    <row r="208" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="208" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="4"/>
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
       <c r="D208" s="4"/>
     </row>
-    <row r="209" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="209" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="4"/>
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
       <c r="D209" s="4"/>
     </row>
-    <row r="210" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="210" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="4"/>
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
       <c r="D210" s="4"/>
     </row>
-    <row r="211" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="211" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="4"/>
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
       <c r="D211" s="4"/>
     </row>
-    <row r="212" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="212" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="4"/>
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
       <c r="D212" s="4"/>
     </row>
-    <row r="213" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="213" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="4"/>
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
       <c r="D213" s="4"/>
     </row>
-    <row r="214" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="214" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
       <c r="D214" s="4"/>
     </row>
-    <row r="215" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="215" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
       <c r="D215" s="4"/>
     </row>
-    <row r="216" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="216" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="4"/>
       <c r="B216" s="4"/>
       <c r="C216" s="4"/>
       <c r="D216" s="4"/>
     </row>
-    <row r="217" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="217" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="4"/>
       <c r="B217" s="4"/>
       <c r="C217" s="4"/>
       <c r="D217" s="4"/>
     </row>
-    <row r="218" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="218" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="4"/>
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
       <c r="D218" s="4"/>
     </row>
-    <row r="219" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="219" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="4"/>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
       <c r="D219" s="4"/>
     </row>
-    <row r="220" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="220" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="4"/>
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
       <c r="D220" s="4"/>
     </row>
-    <row r="221" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="221" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
       <c r="C221" s="4"/>
       <c r="D221" s="4"/>
     </row>
-    <row r="222" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="222" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="4"/>
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
       <c r="D222" s="4"/>
     </row>
-    <row r="223" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="223" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="4"/>
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
       <c r="D223" s="4"/>
     </row>
-    <row r="224" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="224" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="4"/>
       <c r="B224" s="4"/>
       <c r="C224" s="4"/>
       <c r="D224" s="4"/>
     </row>
-    <row r="225" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="225" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="4"/>
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
     </row>
-    <row r="226" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="226" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
       <c r="C226" s="4"/>
       <c r="D226" s="4"/>
     </row>
-    <row r="227" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="227" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
       <c r="C227" s="4"/>
       <c r="D227" s="4"/>
     </row>
-    <row r="228" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="228" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="4"/>
       <c r="B228" s="4"/>
       <c r="C228" s="4"/>
       <c r="D228" s="4"/>
     </row>
-    <row r="229" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="229" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="4"/>
       <c r="B229" s="4"/>
       <c r="C229" s="4"/>
       <c r="D229" s="4"/>
     </row>
-    <row r="230" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="230" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="4"/>
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
       <c r="D230" s="4"/>
     </row>
-    <row r="231" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="231" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="4"/>
       <c r="B231" s="4"/>
       <c r="C231" s="4"/>
       <c r="D231" s="4"/>
     </row>
-    <row r="232" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="232" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="4"/>
       <c r="B232" s="4"/>
       <c r="C232" s="4"/>
       <c r="D232" s="4"/>
     </row>
-    <row r="233" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="233" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="4"/>
       <c r="B233" s="4"/>
       <c r="C233" s="4"/>
       <c r="D233" s="4"/>
     </row>
-    <row r="234" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="234" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="4"/>
       <c r="B234" s="4"/>
       <c r="C234" s="4"/>
       <c r="D234" s="4"/>
     </row>
-    <row r="235" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="235" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="4"/>
       <c r="B235" s="4"/>
       <c r="C235" s="4"/>
       <c r="D235" s="4"/>
     </row>
-    <row r="236" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="236" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="4"/>
       <c r="B236" s="4"/>
       <c r="C236" s="4"/>
       <c r="D236" s="4"/>
     </row>
-    <row r="237" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="237" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
       <c r="D237" s="4"/>
     </row>
-    <row r="238" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="238" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="4"/>
       <c r="B238" s="4"/>
       <c r="C238" s="4"/>
       <c r="D238" s="4"/>
     </row>
-    <row r="239" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="239" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="4"/>
       <c r="B239" s="4"/>
       <c r="C239" s="4"/>
       <c r="D239" s="4"/>
     </row>
-    <row r="240" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="240" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="4"/>
       <c r="B240" s="4"/>
       <c r="C240" s="4"/>
       <c r="D240" s="4"/>
     </row>
-    <row r="241" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="241" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="4"/>
       <c r="B241" s="4"/>
       <c r="C241" s="4"/>
       <c r="D241" s="4"/>
     </row>
-    <row r="242" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="242" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="4"/>
       <c r="B242" s="4"/>
       <c r="C242" s="4"/>
       <c r="D242" s="4"/>
     </row>
-    <row r="243" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="243" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="4"/>
       <c r="B243" s="4"/>
       <c r="C243" s="4"/>
       <c r="D243" s="4"/>
     </row>
-    <row r="244" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="244" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="4"/>
       <c r="B244" s="4"/>
       <c r="C244" s="4"/>
       <c r="D244" s="4"/>
     </row>
-    <row r="245" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="245" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="4"/>
       <c r="B245" s="4"/>
       <c r="C245" s="4"/>
       <c r="D245" s="4"/>
     </row>
-    <row r="246" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="246" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="4"/>
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
       <c r="D246" s="4"/>
     </row>
-    <row r="247" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="247" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="4"/>
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
       <c r="D247" s="4"/>
     </row>
-    <row r="248" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="248" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="4"/>
       <c r="B248" s="4"/>
       <c r="C248" s="4"/>
       <c r="D248" s="4"/>
     </row>
-    <row r="249" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="249" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
       <c r="D249" s="4"/>
     </row>
-    <row r="250" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="250" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="4"/>
       <c r="B250" s="4"/>
       <c r="C250" s="4"/>
       <c r="D250" s="4"/>
     </row>
-    <row r="251" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="251" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="4"/>
       <c r="B251" s="4"/>
       <c r="C251" s="4"/>
       <c r="D251" s="4"/>
     </row>
-    <row r="252" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="252" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="4"/>
       <c r="B252" s="4"/>
       <c r="C252" s="4"/>
       <c r="D252" s="4"/>
     </row>
-    <row r="253" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="253" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="4"/>
       <c r="B253" s="4"/>
       <c r="C253" s="4"/>
       <c r="D253" s="4"/>
     </row>
-    <row r="254" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="254" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="4"/>
       <c r="B254" s="4"/>
       <c r="C254" s="4"/>
       <c r="D254" s="4"/>
     </row>
-    <row r="255" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="255" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="4"/>
       <c r="B255" s="4"/>
       <c r="C255" s="4"/>
       <c r="D255" s="4"/>
     </row>
-    <row r="256" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="256" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="4"/>
       <c r="B256" s="4"/>
       <c r="C256" s="4"/>
       <c r="D256" s="4"/>
     </row>
-    <row r="257" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="257" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="4"/>
       <c r="B257" s="4"/>
       <c r="C257" s="4"/>
       <c r="D257" s="4"/>
     </row>
-    <row r="258" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="258" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="4"/>
       <c r="B258" s="4"/>
       <c r="C258" s="4"/>
       <c r="D258" s="4"/>
     </row>
-    <row r="259" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="259" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="4"/>
       <c r="B259" s="4"/>
       <c r="C259" s="4"/>
       <c r="D259" s="4"/>
     </row>
-    <row r="260" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="260" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="4"/>
       <c r="B260" s="4"/>
       <c r="C260" s="4"/>
       <c r="D260" s="4"/>
     </row>
-    <row r="261" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="261" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="4"/>
       <c r="B261" s="4"/>
       <c r="C261" s="4"/>
       <c r="D261" s="4"/>
     </row>
-    <row r="262" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="262" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="4"/>
       <c r="B262" s="4"/>
       <c r="C262" s="4"/>
       <c r="D262" s="4"/>
     </row>
-    <row r="263" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="263" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="4"/>
       <c r="B263" s="4"/>
       <c r="C263" s="4"/>
       <c r="D263" s="4"/>
     </row>
-    <row r="264" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="264" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="4"/>
       <c r="B264" s="4"/>
       <c r="C264" s="4"/>
       <c r="D264" s="4"/>
     </row>
-    <row r="265" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="265" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="4"/>
       <c r="B265" s="4"/>
       <c r="C265" s="4"/>
       <c r="D265" s="4"/>
     </row>
-    <row r="266" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="266" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="4"/>
       <c r="B266" s="4"/>
       <c r="C266" s="4"/>
       <c r="D266" s="4"/>
     </row>
-    <row r="267" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="267" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="4"/>
       <c r="B267" s="4"/>
       <c r="C267" s="4"/>
       <c r="D267" s="4"/>
     </row>
-    <row r="268" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="268" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="4"/>
       <c r="B268" s="4"/>
       <c r="C268" s="4"/>
       <c r="D268" s="4"/>
     </row>
-    <row r="269" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="269" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="4"/>
       <c r="B269" s="4"/>
       <c r="C269" s="4"/>
       <c r="D269" s="4"/>
     </row>
-    <row r="270" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="270" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="4"/>
       <c r="B270" s="4"/>
       <c r="C270" s="4"/>
       <c r="D270" s="4"/>
     </row>
-    <row r="271" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="271" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="4"/>
       <c r="B271" s="4"/>
       <c r="C271" s="4"/>
       <c r="D271" s="4"/>
     </row>
-    <row r="272" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="272" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="4"/>
       <c r="B272" s="4"/>
       <c r="C272" s="4"/>
       <c r="D272" s="4"/>
     </row>
-    <row r="273" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="273" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="4"/>
       <c r="B273" s="4"/>
       <c r="C273" s="4"/>
       <c r="D273" s="4"/>
     </row>
-    <row r="274" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="274" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="4"/>
       <c r="B274" s="4"/>
       <c r="C274" s="4"/>
       <c r="D274" s="4"/>
     </row>
-    <row r="275" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="275" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="4"/>
       <c r="B275" s="4"/>
       <c r="C275" s="4"/>
       <c r="D275" s="4"/>
     </row>
-    <row r="276" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="276" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="4"/>
       <c r="B276" s="4"/>
       <c r="C276" s="4"/>
       <c r="D276" s="4"/>
     </row>
-    <row r="277" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="277" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="4"/>
       <c r="B277" s="4"/>
       <c r="C277" s="4"/>
       <c r="D277" s="4"/>
     </row>
-    <row r="278" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="278" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="4"/>
       <c r="B278" s="4"/>
       <c r="C278" s="4"/>
       <c r="D278" s="4"/>
     </row>
-    <row r="279" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="279" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="4"/>
       <c r="B279" s="4"/>
       <c r="C279" s="4"/>
       <c r="D279" s="4"/>
     </row>
-    <row r="280" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="280" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="4"/>
       <c r="B280" s="4"/>
       <c r="C280" s="4"/>
       <c r="D280" s="4"/>
     </row>
-    <row r="281" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="281" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="4"/>
       <c r="B281" s="4"/>
       <c r="C281" s="4"/>
       <c r="D281" s="4"/>
     </row>
-    <row r="282" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="282" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="4"/>
       <c r="B282" s="4"/>
       <c r="C282" s="4"/>
       <c r="D282" s="4"/>
     </row>
-    <row r="283" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="283" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="4"/>
       <c r="B283" s="4"/>
       <c r="C283" s="4"/>
       <c r="D283" s="4"/>
     </row>
-    <row r="284" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="284" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="4"/>
       <c r="B284" s="4"/>
       <c r="C284" s="4"/>
       <c r="D284" s="4"/>
     </row>
-    <row r="285" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="285" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="4"/>
       <c r="B285" s="4"/>
       <c r="C285" s="4"/>
       <c r="D285" s="4"/>
     </row>
-    <row r="286" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="286" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="4"/>
       <c r="B286" s="4"/>
       <c r="C286" s="4"/>
       <c r="D286" s="4"/>
     </row>
-    <row r="287" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="287" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="4"/>
       <c r="B287" s="4"/>
       <c r="C287" s="4"/>
       <c r="D287" s="4"/>
     </row>
-    <row r="288" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="288" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="4"/>
       <c r="B288" s="4"/>
       <c r="C288" s="4"/>
       <c r="D288" s="4"/>
     </row>
-    <row r="289" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="289" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="4"/>
       <c r="B289" s="4"/>
       <c r="C289" s="4"/>
       <c r="D289" s="4"/>
     </row>
-    <row r="290" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="290" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="4"/>
       <c r="B290" s="4"/>
       <c r="C290" s="4"/>
       <c r="D290" s="4"/>
     </row>
-    <row r="291" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="291" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="4"/>
       <c r="B291" s="4"/>
       <c r="C291" s="4"/>
       <c r="D291" s="4"/>
     </row>
-    <row r="292" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="292" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="4"/>
       <c r="B292" s="4"/>
       <c r="C292" s="4"/>
       <c r="D292" s="4"/>
     </row>
-    <row r="293" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="293" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="4"/>
       <c r="B293" s="4"/>
       <c r="C293" s="4"/>
       <c r="D293" s="4"/>
     </row>
-    <row r="294" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="294" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="4"/>
       <c r="B294" s="4"/>
       <c r="C294" s="4"/>
       <c r="D294" s="4"/>
     </row>
-    <row r="295" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="295" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="4"/>
       <c r="B295" s="4"/>
       <c r="C295" s="4"/>
       <c r="D295" s="4"/>
     </row>
-    <row r="296" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="296" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="4"/>
       <c r="B296" s="4"/>
       <c r="C296" s="4"/>
       <c r="D296" s="4"/>
     </row>
-    <row r="297" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="297" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="4"/>
       <c r="B297" s="4"/>
       <c r="C297" s="4"/>
       <c r="D297" s="4"/>
     </row>
-    <row r="298" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="298" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="4"/>
       <c r="B298" s="4"/>
       <c r="C298" s="4"/>
       <c r="D298" s="4"/>
     </row>
-    <row r="299" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="299" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="4"/>
       <c r="B299" s="4"/>
       <c r="C299" s="4"/>
       <c r="D299" s="4"/>
     </row>
-    <row r="300" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="300" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="4"/>
       <c r="B300" s="4"/>
       <c r="C300" s="4"/>
       <c r="D300" s="4"/>
     </row>
-    <row r="301" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="301" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="4"/>
       <c r="B301" s="4"/>
       <c r="C301" s="4"/>
       <c r="D301" s="4"/>
     </row>
-    <row r="302" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="302" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="4"/>
       <c r="B302" s="4"/>
       <c r="C302" s="4"/>
       <c r="D302" s="4"/>
     </row>
-    <row r="303" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="303" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="4"/>
       <c r="B303" s="4"/>
       <c r="C303" s="4"/>
       <c r="D303" s="4"/>
     </row>
-    <row r="304" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="304" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="4"/>
       <c r="B304" s="4"/>
       <c r="C304" s="4"/>
       <c r="D304" s="4"/>
     </row>
-    <row r="305" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="305" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="4"/>
       <c r="B305" s="4"/>
       <c r="C305" s="4"/>
       <c r="D305" s="4"/>
     </row>
-    <row r="306" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="306" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="4"/>
       <c r="B306" s="4"/>
       <c r="C306" s="4"/>
       <c r="D306" s="4"/>
     </row>
-    <row r="307" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="307" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="4"/>
       <c r="B307" s="4"/>
       <c r="C307" s="4"/>
       <c r="D307" s="4"/>
     </row>
-    <row r="308" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="308" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="4"/>
       <c r="B308" s="4"/>
       <c r="C308" s="4"/>
       <c r="D308" s="4"/>
     </row>
-    <row r="309" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="309" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="4"/>
       <c r="B309" s="4"/>
       <c r="C309" s="4"/>
       <c r="D309" s="4"/>
     </row>
-    <row r="310" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="310" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="4"/>
       <c r="B310" s="4"/>
       <c r="C310" s="4"/>
       <c r="D310" s="4"/>
     </row>
-    <row r="311" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="311" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="4"/>
       <c r="B311" s="4"/>
       <c r="C311" s="4"/>
       <c r="D311" s="4"/>
     </row>
-    <row r="312" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="312" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="4"/>
       <c r="B312" s="4"/>
       <c r="C312" s="4"/>
       <c r="D312" s="4"/>
     </row>
-    <row r="313" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="313" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="4"/>
       <c r="B313" s="4"/>
       <c r="C313" s="4"/>
       <c r="D313" s="4"/>
     </row>
-    <row r="314" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="314" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="4"/>
       <c r="B314" s="4"/>
       <c r="C314" s="4"/>
       <c r="D314" s="4"/>
     </row>
-    <row r="315" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="315" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="4"/>
       <c r="B315" s="4"/>
       <c r="C315" s="4"/>
       <c r="D315" s="4"/>
     </row>
-    <row r="316" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="316" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="4"/>
       <c r="B316" s="4"/>
       <c r="C316" s="4"/>
       <c r="D316" s="4"/>
     </row>
-    <row r="317" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="317" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="4"/>
       <c r="B317" s="4"/>
       <c r="C317" s="4"/>
       <c r="D317" s="4"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D301"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AMJ301"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="37.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="64.36"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="1" width="8.82"/>
+    <col min="1" max="1" width="23.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="64.42578125" style="1" customWidth="1"/>
+    <col min="5" max="1024" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>217</v>
       </c>
@@ -3686,2065 +3932,2032 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="2">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C2" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C3" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="2">
         <v>0</v>
       </c>
-      <c r="C4" s="2" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C4" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C5" s="2" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C5" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="2">
         <v>1</v>
       </c>
-      <c r="C6" s="2" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C6" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="2">
         <v>0</v>
       </c>
-      <c r="C7" s="2" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C7" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B8" s="2">
         <v>1</v>
       </c>
-      <c r="C8" s="2" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C8" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="2">
         <v>0</v>
       </c>
-      <c r="C9" s="2" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C9" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="B10" s="2">
         <v>1</v>
       </c>
-      <c r="C10" s="2" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C10" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B11" s="2" t="n">
+      <c r="B11" s="2">
         <v>2</v>
       </c>
-      <c r="C11" s="2" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C11" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B12" s="2" t="n">
+      <c r="B12" s="2">
         <v>3</v>
       </c>
-      <c r="C12" s="2" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C12" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B13" s="2" t="n">
+      <c r="B13" s="2">
         <v>4</v>
       </c>
-      <c r="C13" s="2" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C13" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B14" s="2" t="n">
+      <c r="B14" s="2">
         <v>5</v>
       </c>
-      <c r="C14" s="2" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C14" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B15" s="2" t="n">
+      <c r="B15" s="2">
         <v>6</v>
       </c>
-      <c r="C15" s="2" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C15" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B16" s="2" t="n">
+      <c r="B16" s="2">
         <v>1</v>
       </c>
-      <c r="C16" s="2" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C16" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B17" s="2" t="n">
+      <c r="B17" s="2">
         <v>2</v>
       </c>
-      <c r="C17" s="2" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C17" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B18" s="2" t="n">
+      <c r="B18" s="2">
         <v>3</v>
       </c>
-      <c r="C18" s="2" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C18" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B19" s="2" t="n">
+      <c r="B19" s="2">
         <v>4</v>
       </c>
-      <c r="C19" s="2" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C19" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B20" s="2" t="n">
+      <c r="B20" s="2">
         <v>5</v>
       </c>
-      <c r="C20" s="2" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C20" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B21" s="2" t="n">
+      <c r="B21" s="2">
         <v>6</v>
       </c>
-      <c r="C21" s="2" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C21" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B22" s="2" t="n">
+      <c r="B22" s="2">
         <v>1</v>
       </c>
-      <c r="C22" s="2" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C22" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B23" s="2" t="n">
+      <c r="B23" s="2">
         <v>2</v>
       </c>
-      <c r="C23" s="2" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C23" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B24" s="2" t="n">
+      <c r="B24" s="2">
         <v>3</v>
       </c>
-      <c r="C24" s="2" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C24" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B25" s="2" t="n">
+      <c r="B25" s="2">
         <v>1</v>
       </c>
-      <c r="C25" s="2" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C25" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B26" s="2" t="n">
+      <c r="B26" s="2">
         <v>2</v>
       </c>
-      <c r="C26" s="2" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C26" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B27" s="2" t="n">
+      <c r="B27" s="2">
         <v>3</v>
       </c>
-      <c r="C27" s="2" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C27" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B28" s="2" t="n">
+      <c r="B28" s="2">
         <v>4</v>
       </c>
-      <c r="C28" s="2" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C28" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B29" s="2" t="n">
+      <c r="B29" s="2">
         <v>5</v>
       </c>
-      <c r="C29" s="2" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C29" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
+      <c r="C30" s="6"/>
       <c r="D30" s="5"/>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
+      <c r="C31" s="6"/>
       <c r="D31" s="4"/>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
+      <c r="C32" s="6"/>
       <c r="D32" s="4"/>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
+      <c r="C33" s="6"/>
       <c r="D33" s="4"/>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
+      <c r="C34" s="6"/>
       <c r="D34" s="4"/>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
+      <c r="C35" s="6"/>
       <c r="D35" s="4"/>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
+      <c r="C36" s="6"/>
       <c r="D36" s="4"/>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
+      <c r="C37" s="6"/>
       <c r="D37" s="4"/>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
+      <c r="C38" s="6"/>
       <c r="D38" s="4"/>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
+      <c r="C39" s="6"/>
       <c r="D39" s="4"/>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
+      <c r="C40" s="6"/>
       <c r="D40" s="4"/>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
+      <c r="C41" s="6"/>
       <c r="D41" s="4"/>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
+      <c r="C42" s="6"/>
       <c r="D42" s="4"/>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
+      <c r="C43" s="6"/>
       <c r="D43" s="4"/>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
+      <c r="C44" s="6"/>
       <c r="D44" s="4"/>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
+      <c r="C45" s="6"/>
       <c r="D45" s="4"/>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
+      <c r="C46" s="6"/>
       <c r="D46" s="4"/>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
+      <c r="C47" s="6"/>
       <c r="D47" s="4"/>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
+      <c r="C48" s="6"/>
       <c r="D48" s="4"/>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
+      <c r="C49" s="6"/>
       <c r="D49" s="4"/>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
+      <c r="C50" s="6"/>
       <c r="D50" s="4"/>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
+      <c r="C51" s="6"/>
       <c r="D51" s="4"/>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
     </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
     </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
     </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="84" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="85" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
     </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
     </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
     </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
     </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="89" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
     </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="90" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
     </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="91" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
     </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
     </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="93" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
     </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="94" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
     </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="95" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
     </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="96" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
     </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="97" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
     </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="98" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
     </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="99" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
     </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="100" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
     </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="101" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
     </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="102" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
     </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="103" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
     </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="104" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
     </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="105" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
     </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="106" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
     </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="107" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
     </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="108" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
     </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="109" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
     </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="110" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
     </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="111" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
     </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="112" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
     </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="113" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
     </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="114" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
     </row>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="115" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
     </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="116" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
     </row>
-    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="117" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
     </row>
-    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="118" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
     </row>
-    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="119" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
     </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="120" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
     </row>
-    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="121" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
     </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="122" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
     </row>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="123" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
     </row>
-    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="124" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
     </row>
-    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="125" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
     </row>
-    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="126" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
     </row>
-    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="127" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
     </row>
-    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="128" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
     </row>
-    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="129" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
     </row>
-    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="130" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
     </row>
-    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="131" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
     </row>
-    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="132" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
     </row>
-    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="133" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
     </row>
-    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="134" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
     </row>
-    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="135" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
     </row>
-    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="136" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
     </row>
-    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="137" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
     </row>
-    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="138" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
     </row>
-    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="139" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
     </row>
-    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="140" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
     </row>
-    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="141" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
     </row>
-    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="142" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
     </row>
-    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="143" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
     </row>
-    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="144" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
     </row>
-    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="145" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
     </row>
-    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="146" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
     </row>
-    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="147" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
     </row>
-    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="148" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
     </row>
-    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="149" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
     </row>
-    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="150" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
     </row>
-    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="151" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
     </row>
-    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="152" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
     </row>
-    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="153" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
     </row>
-    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="154" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
     </row>
-    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="155" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
     </row>
-    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="156" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
     </row>
-    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="157" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
     </row>
-    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="158" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
     </row>
-    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="159" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
     </row>
-    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="160" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
     </row>
-    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="161" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
     </row>
-    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="162" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
     </row>
-    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="163" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
     </row>
-    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="164" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
     </row>
-    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="165" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
     </row>
-    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="166" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
     </row>
-    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="167" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
     </row>
-    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="168" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
     </row>
-    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="169" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
     </row>
-    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="170" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
     </row>
-    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="171" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
     </row>
-    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="172" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
     </row>
-    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="173" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
     </row>
-    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="174" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
     </row>
-    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="175" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
     </row>
-    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="176" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
     </row>
-    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="177" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
     </row>
-    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="178" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
     </row>
-    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="179" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
     </row>
-    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="180" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
     </row>
-    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="181" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
     </row>
-    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="182" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
       <c r="D182" s="4"/>
     </row>
-    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="183" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
       <c r="D183" s="4"/>
     </row>
-    <row r="184" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="184" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
       <c r="D184" s="4"/>
     </row>
-    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="185" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
       <c r="D185" s="4"/>
     </row>
-    <row r="186" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="186" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
       <c r="D186" s="4"/>
     </row>
-    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="187" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
       <c r="D187" s="4"/>
     </row>
-    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="188" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
       <c r="D188" s="4"/>
     </row>
-    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="189" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
       <c r="D189" s="4"/>
     </row>
-    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="190" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
       <c r="D190" s="4"/>
     </row>
-    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="191" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
     </row>
-    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="192" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
       <c r="D192" s="4"/>
     </row>
-    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="193" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
       <c r="D193" s="4"/>
     </row>
-    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="194" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
       <c r="D194" s="4"/>
     </row>
-    <row r="195" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="195" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
       <c r="D195" s="4"/>
     </row>
-    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="196" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
       <c r="D196" s="4"/>
     </row>
-    <row r="197" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="197" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
       <c r="D197" s="4"/>
     </row>
-    <row r="198" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="198" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
       <c r="D198" s="4"/>
     </row>
-    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="199" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
       <c r="D199" s="4"/>
     </row>
-    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="200" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
       <c r="D200" s="4"/>
     </row>
-    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="201" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
       <c r="D201" s="4"/>
     </row>
-    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="202" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
       <c r="D202" s="4"/>
     </row>
-    <row r="203" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="203" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
       <c r="D203" s="4"/>
     </row>
-    <row r="204" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="204" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
       <c r="D204" s="4"/>
     </row>
-    <row r="205" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="205" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="4"/>
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
       <c r="D205" s="4"/>
     </row>
-    <row r="206" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="206" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
       <c r="D206" s="4"/>
     </row>
-    <row r="207" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="207" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="4"/>
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
       <c r="D207" s="4"/>
     </row>
-    <row r="208" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="208" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="4"/>
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
       <c r="D208" s="4"/>
     </row>
-    <row r="209" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="209" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="4"/>
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
       <c r="D209" s="4"/>
     </row>
-    <row r="210" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="210" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="4"/>
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
       <c r="D210" s="4"/>
     </row>
-    <row r="211" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="211" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="4"/>
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
       <c r="D211" s="4"/>
     </row>
-    <row r="212" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="212" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="4"/>
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
       <c r="D212" s="4"/>
     </row>
-    <row r="213" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="213" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="4"/>
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
       <c r="D213" s="4"/>
     </row>
-    <row r="214" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="214" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
       <c r="D214" s="4"/>
     </row>
-    <row r="215" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="215" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
       <c r="D215" s="4"/>
     </row>
-    <row r="216" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="216" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="4"/>
       <c r="B216" s="4"/>
       <c r="C216" s="4"/>
       <c r="D216" s="4"/>
     </row>
-    <row r="217" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="217" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="4"/>
       <c r="B217" s="4"/>
       <c r="C217" s="4"/>
       <c r="D217" s="4"/>
     </row>
-    <row r="218" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="218" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="4"/>
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
       <c r="D218" s="4"/>
     </row>
-    <row r="219" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="219" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="4"/>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
       <c r="D219" s="4"/>
     </row>
-    <row r="220" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="220" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="4"/>
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
       <c r="D220" s="4"/>
     </row>
-    <row r="221" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="221" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
       <c r="C221" s="4"/>
       <c r="D221" s="4"/>
     </row>
-    <row r="222" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="222" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="4"/>
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
       <c r="D222" s="4"/>
     </row>
-    <row r="223" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="223" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="4"/>
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
       <c r="D223" s="4"/>
     </row>
-    <row r="224" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="224" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="4"/>
       <c r="B224" s="4"/>
       <c r="C224" s="4"/>
       <c r="D224" s="4"/>
     </row>
-    <row r="225" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="225" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="4"/>
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
     </row>
-    <row r="226" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="226" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
       <c r="C226" s="4"/>
       <c r="D226" s="4"/>
     </row>
-    <row r="227" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="227" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
       <c r="C227" s="4"/>
       <c r="D227" s="4"/>
     </row>
-    <row r="228" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="228" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="4"/>
       <c r="B228" s="4"/>
       <c r="C228" s="4"/>
       <c r="D228" s="4"/>
     </row>
-    <row r="229" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="229" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="4"/>
       <c r="B229" s="4"/>
       <c r="C229" s="4"/>
       <c r="D229" s="4"/>
     </row>
-    <row r="230" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="230" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="4"/>
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
       <c r="D230" s="4"/>
     </row>
-    <row r="231" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="231" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="4"/>
       <c r="B231" s="4"/>
       <c r="C231" s="4"/>
       <c r="D231" s="4"/>
     </row>
-    <row r="232" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="232" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="4"/>
       <c r="B232" s="4"/>
       <c r="C232" s="4"/>
       <c r="D232" s="4"/>
     </row>
-    <row r="233" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="233" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="4"/>
       <c r="B233" s="4"/>
       <c r="C233" s="4"/>
       <c r="D233" s="4"/>
     </row>
-    <row r="234" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="234" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="4"/>
       <c r="B234" s="4"/>
       <c r="C234" s="4"/>
       <c r="D234" s="4"/>
     </row>
-    <row r="235" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="235" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="4"/>
       <c r="B235" s="4"/>
       <c r="C235" s="4"/>
       <c r="D235" s="4"/>
     </row>
-    <row r="236" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="236" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="4"/>
       <c r="B236" s="4"/>
       <c r="C236" s="4"/>
       <c r="D236" s="4"/>
     </row>
-    <row r="237" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="237" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
       <c r="D237" s="4"/>
     </row>
-    <row r="238" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="238" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="4"/>
       <c r="B238" s="4"/>
       <c r="C238" s="4"/>
       <c r="D238" s="4"/>
     </row>
-    <row r="239" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="239" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="4"/>
       <c r="B239" s="4"/>
       <c r="C239" s="4"/>
       <c r="D239" s="4"/>
     </row>
-    <row r="240" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="240" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="4"/>
       <c r="B240" s="4"/>
       <c r="C240" s="4"/>
       <c r="D240" s="4"/>
     </row>
-    <row r="241" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="241" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="4"/>
       <c r="B241" s="4"/>
       <c r="C241" s="4"/>
       <c r="D241" s="4"/>
     </row>
-    <row r="242" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="242" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="4"/>
       <c r="B242" s="4"/>
       <c r="C242" s="4"/>
       <c r="D242" s="4"/>
     </row>
-    <row r="243" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="243" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="4"/>
       <c r="B243" s="4"/>
       <c r="C243" s="4"/>
       <c r="D243" s="4"/>
     </row>
-    <row r="244" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="244" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="4"/>
       <c r="B244" s="4"/>
       <c r="C244" s="4"/>
       <c r="D244" s="4"/>
     </row>
-    <row r="245" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="245" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="4"/>
       <c r="B245" s="4"/>
       <c r="C245" s="4"/>
       <c r="D245" s="4"/>
     </row>
-    <row r="246" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="246" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="4"/>
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
       <c r="D246" s="4"/>
     </row>
-    <row r="247" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="247" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="4"/>
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
       <c r="D247" s="4"/>
     </row>
-    <row r="248" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="248" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="4"/>
       <c r="B248" s="4"/>
       <c r="C248" s="4"/>
       <c r="D248" s="4"/>
     </row>
-    <row r="249" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="249" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
       <c r="D249" s="4"/>
     </row>
-    <row r="250" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="250" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="4"/>
       <c r="B250" s="4"/>
       <c r="C250" s="4"/>
       <c r="D250" s="4"/>
     </row>
-    <row r="251" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="251" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="4"/>
       <c r="B251" s="4"/>
       <c r="C251" s="4"/>
       <c r="D251" s="4"/>
     </row>
-    <row r="252" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="252" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="4"/>
       <c r="B252" s="4"/>
       <c r="C252" s="4"/>
       <c r="D252" s="4"/>
     </row>
-    <row r="253" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="253" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="4"/>
       <c r="B253" s="4"/>
       <c r="C253" s="4"/>
       <c r="D253" s="4"/>
     </row>
-    <row r="254" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="254" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="4"/>
       <c r="B254" s="4"/>
       <c r="C254" s="4"/>
       <c r="D254" s="4"/>
     </row>
-    <row r="255" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="255" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="4"/>
       <c r="B255" s="4"/>
       <c r="C255" s="4"/>
       <c r="D255" s="4"/>
     </row>
-    <row r="256" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="256" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="4"/>
       <c r="B256" s="4"/>
       <c r="C256" s="4"/>
       <c r="D256" s="4"/>
     </row>
-    <row r="257" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="257" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="4"/>
       <c r="B257" s="4"/>
       <c r="C257" s="4"/>
       <c r="D257" s="4"/>
     </row>
-    <row r="258" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="258" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="4"/>
       <c r="B258" s="4"/>
       <c r="C258" s="4"/>
       <c r="D258" s="4"/>
     </row>
-    <row r="259" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="259" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="4"/>
       <c r="B259" s="4"/>
       <c r="C259" s="4"/>
       <c r="D259" s="4"/>
     </row>
-    <row r="260" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="260" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="4"/>
       <c r="B260" s="4"/>
       <c r="C260" s="4"/>
       <c r="D260" s="4"/>
     </row>
-    <row r="261" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="261" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="4"/>
       <c r="B261" s="4"/>
       <c r="C261" s="4"/>
       <c r="D261" s="4"/>
     </row>
-    <row r="262" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="262" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="4"/>
       <c r="B262" s="4"/>
       <c r="C262" s="4"/>
       <c r="D262" s="4"/>
     </row>
-    <row r="263" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="263" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="4"/>
       <c r="B263" s="4"/>
       <c r="C263" s="4"/>
       <c r="D263" s="4"/>
     </row>
-    <row r="264" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="264" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="4"/>
       <c r="B264" s="4"/>
       <c r="C264" s="4"/>
       <c r="D264" s="4"/>
     </row>
-    <row r="265" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="265" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="4"/>
       <c r="B265" s="4"/>
       <c r="C265" s="4"/>
       <c r="D265" s="4"/>
     </row>
-    <row r="266" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="266" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="4"/>
       <c r="B266" s="4"/>
       <c r="C266" s="4"/>
       <c r="D266" s="4"/>
     </row>
-    <row r="267" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="267" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="4"/>
       <c r="B267" s="4"/>
       <c r="C267" s="4"/>
       <c r="D267" s="4"/>
     </row>
-    <row r="268" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="268" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="4"/>
       <c r="B268" s="4"/>
       <c r="C268" s="4"/>
       <c r="D268" s="4"/>
     </row>
-    <row r="269" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="269" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="4"/>
       <c r="B269" s="4"/>
       <c r="C269" s="4"/>
       <c r="D269" s="4"/>
     </row>
-    <row r="270" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="270" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="4"/>
       <c r="B270" s="4"/>
       <c r="C270" s="4"/>
       <c r="D270" s="4"/>
     </row>
-    <row r="271" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="271" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="4"/>
       <c r="B271" s="4"/>
       <c r="C271" s="4"/>
       <c r="D271" s="4"/>
     </row>
-    <row r="272" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="272" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="4"/>
       <c r="B272" s="4"/>
       <c r="C272" s="4"/>
       <c r="D272" s="4"/>
     </row>
-    <row r="273" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="273" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="4"/>
       <c r="B273" s="4"/>
       <c r="C273" s="4"/>
       <c r="D273" s="4"/>
     </row>
-    <row r="274" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="274" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="4"/>
       <c r="B274" s="4"/>
       <c r="C274" s="4"/>
       <c r="D274" s="4"/>
     </row>
-    <row r="275" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="275" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="4"/>
       <c r="B275" s="4"/>
       <c r="C275" s="4"/>
       <c r="D275" s="4"/>
     </row>
-    <row r="276" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="276" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="4"/>
       <c r="B276" s="4"/>
       <c r="C276" s="4"/>
       <c r="D276" s="4"/>
     </row>
-    <row r="277" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="277" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="4"/>
       <c r="B277" s="4"/>
       <c r="C277" s="4"/>
       <c r="D277" s="4"/>
     </row>
-    <row r="278" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="278" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="4"/>
       <c r="B278" s="4"/>
       <c r="C278" s="4"/>
       <c r="D278" s="4"/>
     </row>
-    <row r="279" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="279" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="4"/>
       <c r="B279" s="4"/>
       <c r="C279" s="4"/>
       <c r="D279" s="4"/>
     </row>
-    <row r="280" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="280" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="4"/>
       <c r="B280" s="4"/>
       <c r="C280" s="4"/>
       <c r="D280" s="4"/>
     </row>
-    <row r="281" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="281" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="4"/>
       <c r="B281" s="4"/>
       <c r="C281" s="4"/>
       <c r="D281" s="4"/>
     </row>
-    <row r="282" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="282" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="4"/>
       <c r="B282" s="4"/>
       <c r="C282" s="4"/>
       <c r="D282" s="4"/>
     </row>
-    <row r="283" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="283" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="4"/>
       <c r="B283" s="4"/>
       <c r="C283" s="4"/>
       <c r="D283" s="4"/>
     </row>
-    <row r="284" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="284" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="4"/>
       <c r="B284" s="4"/>
       <c r="C284" s="4"/>
       <c r="D284" s="4"/>
     </row>
-    <row r="285" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="285" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="4"/>
       <c r="B285" s="4"/>
       <c r="C285" s="4"/>
       <c r="D285" s="4"/>
     </row>
-    <row r="286" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="286" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="4"/>
       <c r="B286" s="4"/>
       <c r="C286" s="4"/>
       <c r="D286" s="4"/>
     </row>
-    <row r="287" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="287" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="4"/>
       <c r="B287" s="4"/>
       <c r="C287" s="4"/>
       <c r="D287" s="4"/>
     </row>
-    <row r="288" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="288" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="4"/>
       <c r="B288" s="4"/>
       <c r="C288" s="4"/>
       <c r="D288" s="4"/>
     </row>
-    <row r="289" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="289" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="4"/>
       <c r="B289" s="4"/>
       <c r="C289" s="4"/>
       <c r="D289" s="4"/>
     </row>
-    <row r="290" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="290" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="4"/>
       <c r="B290" s="4"/>
       <c r="C290" s="4"/>
       <c r="D290" s="4"/>
     </row>
-    <row r="291" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="291" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="4"/>
       <c r="B291" s="4"/>
       <c r="C291" s="4"/>
       <c r="D291" s="4"/>
     </row>
-    <row r="292" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="292" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="4"/>
       <c r="B292" s="4"/>
       <c r="C292" s="4"/>
       <c r="D292" s="4"/>
     </row>
-    <row r="293" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="293" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="4"/>
       <c r="B293" s="4"/>
       <c r="C293" s="4"/>
       <c r="D293" s="4"/>
     </row>
-    <row r="294" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="294" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="4"/>
       <c r="B294" s="4"/>
       <c r="C294" s="4"/>
       <c r="D294" s="4"/>
     </row>
-    <row r="295" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="295" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="4"/>
       <c r="B295" s="4"/>
       <c r="C295" s="4"/>
       <c r="D295" s="4"/>
     </row>
-    <row r="296" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="296" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="4"/>
       <c r="B296" s="4"/>
       <c r="C296" s="4"/>
       <c r="D296" s="4"/>
     </row>
-    <row r="297" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="297" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="4"/>
       <c r="B297" s="4"/>
       <c r="C297" s="4"/>
       <c r="D297" s="4"/>
     </row>
-    <row r="298" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="298" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="4"/>
       <c r="B298" s="4"/>
       <c r="C298" s="4"/>
       <c r="D298" s="4"/>
     </row>
-    <row r="299" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="299" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="4"/>
       <c r="B299" s="4"/>
       <c r="C299" s="4"/>
       <c r="D299" s="4"/>
     </row>
-    <row r="300" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="300" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="4"/>
       <c r="B300" s="4"/>
       <c r="C300" s="4"/>
       <c r="D300" s="4"/>
     </row>
-    <row r="301" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="301" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="4"/>
       <c r="B301" s="4"/>
       <c r="C301" s="4"/>
       <c r="D301" s="4"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/dictionaries/core/2_3/2_3_trimester_rep.xlsx
+++ b/dictionaries/core/2_3/2_3_trimester_rep.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\back\ATHLETE\HARMO\20220613_dicts\Lifecycle\dictionaries\core\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3160A1C9-00F4-4AEA-AEB8-98CDF406D502}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Variables" sheetId="1" r:id="rId1"/>
-    <sheet name="Categories" sheetId="2" r:id="rId2"/>
+    <sheet name="Variables" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Categories" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -26,722 +21,718 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="235">
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>valueType</t>
-  </si>
-  <si>
-    <t>unit</t>
-  </si>
-  <si>
-    <t>label</t>
-  </si>
-  <si>
-    <t>row_id</t>
-  </si>
-  <si>
-    <t>integer</t>
-  </si>
-  <si>
-    <t>numeric</t>
-  </si>
-  <si>
-    <t>Unique number of the row (to be sure child_id gets persisted</t>
-  </si>
-  <si>
-    <t>child_id</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>Unique number of the child</t>
-  </si>
-  <si>
-    <t>age_trimester</t>
-  </si>
-  <si>
-    <t>Age of the child in trimesters</t>
-  </si>
-  <si>
-    <t>smk_t</t>
-  </si>
-  <si>
-    <t>Smoking</t>
-  </si>
-  <si>
-    <t>alc_t</t>
-  </si>
-  <si>
-    <t>Any alcohol intake</t>
-  </si>
-  <si>
-    <t>no2_t</t>
-  </si>
-  <si>
-    <t>decimal</t>
-  </si>
-  <si>
-    <t>micrograms_per_cubic_meter</t>
-  </si>
-  <si>
-    <t>no2 average value (extrapolated back in time using ratio method)</t>
-  </si>
-  <si>
-    <t>nox_t</t>
-  </si>
-  <si>
-    <t>nox average value (extrapolated back in time using ratio method)</t>
-  </si>
-  <si>
-    <t>pm10_t</t>
-  </si>
-  <si>
-    <t>pm10 average value (extrapolated back in time using ratio method)</t>
-  </si>
-  <si>
-    <t>pm25_t</t>
-  </si>
-  <si>
-    <t>pm25 average value (extrapolated back in time using ratio method)</t>
-  </si>
-  <si>
-    <t>pmcoarse_t</t>
-  </si>
-  <si>
-    <t>pmcoarse average value (extrapolated back in time using ratio method)</t>
-  </si>
-  <si>
-    <t>pm25abs_t</t>
-  </si>
-  <si>
-    <t>ten_power_minus_five_per_inverse_meter</t>
-  </si>
-  <si>
-    <t>pm25abs average value (extrapolated back in time using ratio method)</t>
-  </si>
-  <si>
-    <t>pm25cu_t</t>
-  </si>
-  <si>
-    <t>nanograms_per_cubic_meter</t>
-  </si>
-  <si>
-    <t>pm25cu value</t>
-  </si>
-  <si>
-    <t>pm25fe_t</t>
-  </si>
-  <si>
-    <t>pm25fe value</t>
-  </si>
-  <si>
-    <t>pm25k_t</t>
-  </si>
-  <si>
-    <t>pm25k value</t>
-  </si>
-  <si>
-    <t>pm25ni_t</t>
-  </si>
-  <si>
-    <t>pm25ni value</t>
-  </si>
-  <si>
-    <t>pm25s_t</t>
-  </si>
-  <si>
-    <t>pm25s value</t>
-  </si>
-  <si>
-    <t>pm25si_t</t>
-  </si>
-  <si>
-    <t>pm25si value</t>
-  </si>
-  <si>
-    <t>pm25v_t</t>
-  </si>
-  <si>
-    <t>pm25v value</t>
-  </si>
-  <si>
-    <t>pm25zn_t</t>
-  </si>
-  <si>
-    <t>pm25zn value</t>
-  </si>
-  <si>
-    <t>pm10cu_t</t>
-  </si>
-  <si>
-    <t>pm10cu value</t>
-  </si>
-  <si>
-    <t>pm10fe_t</t>
-  </si>
-  <si>
-    <t>pm10fe value</t>
-  </si>
-  <si>
-    <t>pm10k_t</t>
-  </si>
-  <si>
-    <t>pm10k value</t>
-  </si>
-  <si>
-    <t>pm10ni_t</t>
-  </si>
-  <si>
-    <t>pm10ni value</t>
-  </si>
-  <si>
-    <t>pm10s_t</t>
-  </si>
-  <si>
-    <t>pm10s value</t>
-  </si>
-  <si>
-    <t>pm10si_t</t>
-  </si>
-  <si>
-    <t>pm10si value</t>
-  </si>
-  <si>
-    <t>pm10v_t</t>
-  </si>
-  <si>
-    <t>pm10v value</t>
-  </si>
-  <si>
-    <t>pm10zn_t</t>
-  </si>
-  <si>
-    <t>pm10zn value</t>
-  </si>
-  <si>
-    <t>popdens_t</t>
-  </si>
-  <si>
-    <t>people_per_square_kilometer</t>
-  </si>
-  <si>
-    <t>population density</t>
-  </si>
-  <si>
-    <t>bdens100_t</t>
-  </si>
-  <si>
-    <t>square_meter_per_square_kilometer</t>
-  </si>
-  <si>
-    <t>building density within a buffer of 100 m</t>
-  </si>
-  <si>
-    <t>bdens300_t</t>
-  </si>
-  <si>
-    <t>building density within a buffer of 300 m</t>
-  </si>
-  <si>
-    <t>connind100_t</t>
-  </si>
-  <si>
-    <t>number_per_square_kilometer</t>
-  </si>
-  <si>
-    <t>connectivity density within a buffer of 100 m</t>
-  </si>
-  <si>
-    <t>connind300_t</t>
-  </si>
-  <si>
-    <t>connectivity density within a buffer of 300 m</t>
-  </si>
-  <si>
-    <t>bus_lines_100_t</t>
-  </si>
-  <si>
-    <t>meter_per_square_kilometer</t>
-  </si>
-  <si>
-    <t>length of public bus lines within a buffer of 100 m</t>
-  </si>
-  <si>
-    <t>bus_lines_300_t</t>
-  </si>
-  <si>
-    <t>length of public bus lines within a buffer of 300 m</t>
-  </si>
-  <si>
-    <t>bus_lines_500_t</t>
-  </si>
-  <si>
-    <t>length of public bus lines within a buffer of 500 m</t>
-  </si>
-  <si>
-    <t>bus_stops_100_t</t>
-  </si>
-  <si>
-    <t>number of public bus stops within a buffer of 100 m</t>
-  </si>
-  <si>
-    <t>bus_stops_300_t</t>
-  </si>
-  <si>
-    <t>number of public bus stops within a buffer of 300 m</t>
-  </si>
-  <si>
-    <t>bus_stops_500_t</t>
-  </si>
-  <si>
-    <t>number of public bus stops within a buffer of 500 m</t>
-  </si>
-  <si>
-    <t>fdensity300_t</t>
-  </si>
-  <si>
-    <t>number of facilities present within a buffer of 300 m</t>
-  </si>
-  <si>
-    <t>frichness300_t</t>
-  </si>
-  <si>
-    <t>number of different facility types present divided by the maximum potential number of facility types within a buffer of 300 m</t>
-  </si>
-  <si>
-    <t>landuseshan300_t</t>
-  </si>
-  <si>
-    <t>landuse Shannon's Evenness Index within a buffer of 300 m</t>
-  </si>
-  <si>
-    <t>walkability_mean_t</t>
-  </si>
-  <si>
-    <t>walkability index (as mean of deciles of facility richness index, landuse shannon's Evenness Index, population density, connectivity density) within a buffer of 300 m</t>
-  </si>
-  <si>
-    <t>agrgr_t</t>
-  </si>
-  <si>
-    <t>percent</t>
-  </si>
-  <si>
-    <t>percentage of agrgr (agricultural areas, semi-natural areas and wetlands) land use within a buffer of 300 m</t>
-  </si>
-  <si>
-    <t>airpt_t</t>
-  </si>
-  <si>
-    <t>percentage of airpt (airports) land use within a buffer of 300 m</t>
-  </si>
-  <si>
-    <t>hdres_t</t>
-  </si>
-  <si>
-    <t>percentage of hdres (continuous urban fabric) land use within a buffer of 300 m</t>
-  </si>
-  <si>
-    <t>indtr_t</t>
-  </si>
-  <si>
-    <t>percentage of indtr (industrial, commercial, public, military and private units) land use within a buffer of 300 m</t>
-  </si>
-  <si>
-    <t>ldres_t</t>
-  </si>
-  <si>
-    <t>percentage of ldres (discontinuous dense/medium density/low density urban fabric) land use within a buffer of 300 m</t>
-  </si>
-  <si>
-    <t>natgr_t</t>
-  </si>
-  <si>
-    <t>percentage of natgr (forests) land use within a buffer of 300 m</t>
-  </si>
-  <si>
-    <t>other_t</t>
-  </si>
-  <si>
-    <t>percentage of other (mineral extraction and dump sites, construction sites, land without current use) land use within a buffer of 300 m</t>
-  </si>
-  <si>
-    <t>port_t</t>
-  </si>
-  <si>
-    <t>percentage of port (port areas) land use within a buffer of 300 m</t>
-  </si>
-  <si>
-    <t>trans_t</t>
-  </si>
-  <si>
-    <t>percentage of trans (road and rail network and associated land, fast transit roads and associated land, other roads and associated land, railways and associated land) land use within a buffer of 300 m</t>
-  </si>
-  <si>
-    <t>urbgr_t</t>
-  </si>
-  <si>
-    <t>percentage of urbgr (green urban areas, sports and leisure facilities) land use within a buffer of 300 m</t>
-  </si>
-  <si>
-    <t>vldres_t</t>
-  </si>
-  <si>
-    <t>percentage of vldres (discontinuous very low density urban fabric) land use within a buffer of 300 m</t>
-  </si>
-  <si>
-    <t>water_t</t>
-  </si>
-  <si>
-    <t>percentage of water land use within a buffer of 300 m</t>
-  </si>
-  <si>
-    <t>blue_dist_t</t>
-  </si>
-  <si>
-    <t>meter</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="227">
+  <si>
+    <t xml:space="preserve">name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valueType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">row_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">integer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">numeric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unique number of the row (to be sure child_id gets persisted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">child_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unique number of the child</t>
+  </si>
+  <si>
+    <t xml:space="preserve">age_trimester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age of the child in trimesters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">smk_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smoking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alc_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Any alcohol intake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no2_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decimal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">micrograms_per_cubic_meter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no2 average value (extrapolated back in time using ratio method)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nox_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nox average value (extrapolated back in time using ratio method)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pm10_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pm10 average value (extrapolated back in time using ratio method)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pm25_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pm25 average value (extrapolated back in time using ratio method)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pmcoarse_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pmcoarse average value (extrapolated back in time using ratio method)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pm25abs_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ten_power_minus_five_per_inverse_meter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pm25abs average value (extrapolated back in time using ratio method)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pm25cu_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nanograms_per_cubic_meter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pm25cu value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pm25fe_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pm25fe value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pm25k_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pm25k value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pm25ni_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pm25ni value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pm25s_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pm25s value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pm25si_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pm25si value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pm25v_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pm25v value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pm25zn_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pm25zn value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pm10cu_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pm10cu value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pm10fe_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pm10fe value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pm10k_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pm10k value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pm10ni_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pm10ni value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pm10s_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pm10s value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pm10si_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pm10si value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pm10v_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pm10v value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pm10zn_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pm10zn value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">popdens_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">people_per_square_kilometer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">population density</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bdens100_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">square_meter_per_square_kilometer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">building density within a buffer of 100 m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bdens300_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">building density within a buffer of 300 m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">connind100_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number_per_square_kilometer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">connectivity density within a buffer of 100 m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">connind300_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">connectivity density within a buffer of 300 m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bus_lines_100_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meter_per_square_kilometer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">length of public bus lines within a buffer of 100 m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bus_lines_300_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">length of public bus lines within a buffer of 300 m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bus_lines_500_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">length of public bus lines within a buffer of 500 m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bus_stops_100_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of public bus stops within a buffer of 100 m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bus_stops_300_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of public bus stops within a buffer of 300 m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bus_stops_500_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of public bus stops within a buffer of 500 m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fdensity300_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of facilities present within a buffer of 300 m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">frichness300_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of different facility types present divided by the maximum potential number of facility types within a buffer of 300 m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">landuseshan300_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">landuse Shannon's Evenness Index within a buffer of 300 m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">walkability_mean_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">walkability index (as mean of deciles of facility richness index, landuse shannon's Evenness Index, population density, connectivity density) within a buffer of 300 m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">agrgr_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">percent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">percentage of agrgr (agricultural areas, semi-natural areas and wetlands) land use within a buffer of 300 m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">airpt_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">percentage of airpt (airports) land use within a buffer of 300 m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hdres_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">percentage of hdres (continuous urban fabric) land use within a buffer of 300 m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">indtr_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">percentage of indtr (industrial, commercial, public, military and private units) land use within a buffer of 300 m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ldres_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">percentage of ldres (discontinuous dense/medium density/low density urban fabric) land use within a buffer of 300 m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">natgr_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">percentage of natgr (forests) land use within a buffer of 300 m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">other_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">percentage of other (mineral extraction and dump sites, construction sites, land without current use) land use within a buffer of 300 m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">port_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">percentage of port (port areas) land use within a buffer of 300 m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trans_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">percentage of trans (road and rail network and associated land, fast transit roads and associated land, other roads and associated land, railways and associated land) land use within a buffer of 300 m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">urbgr_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">percentage of urbgr (green urban areas, sports and leisure facilities) land use within a buffer of 300 m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vldres_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">percentage of vldres (discontinuous very low density urban fabric) land use within a buffer of 300 m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">water_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">percentage of water land use within a buffer of 300 m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blue_dist_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meter</t>
   </si>
   <si>
     <t xml:space="preserve"> straight line distance to nearest blue space &gt; 5,000 m2</t>
   </si>
   <si>
-    <t>green_dist_t</t>
+    <t xml:space="preserve">green_dist_t</t>
   </si>
   <si>
     <t xml:space="preserve"> straight line distance to nearest green space &gt; 5,000 m2</t>
   </si>
   <si>
-    <t>blue_size_t</t>
-  </si>
-  <si>
-    <t>square_meter</t>
+    <t xml:space="preserve">blue_size_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">square_meter</t>
   </si>
   <si>
     <t xml:space="preserve"> area of closest blue space &gt; 5,000m2</t>
   </si>
   <si>
-    <t>green_size_t</t>
+    <t xml:space="preserve">green_size_t</t>
   </si>
   <si>
     <t xml:space="preserve"> area of closest green space &gt; 5,000m2</t>
   </si>
   <si>
-    <t>blueyn300_t</t>
+    <t xml:space="preserve">blueyn300_t</t>
   </si>
   <si>
     <t xml:space="preserve"> is there a blue space  &gt; 5,000 m2 in a distance of 300 m?</t>
   </si>
   <si>
-    <t>greenyn300_t</t>
+    <t xml:space="preserve">greenyn300_t</t>
   </si>
   <si>
     <t xml:space="preserve"> is there a green space  &gt; 5,000 m2 in a distance of 300 m?</t>
   </si>
   <si>
-    <t>ndvi100_t</t>
-  </si>
-  <si>
-    <t>ndvi_value</t>
-  </si>
-  <si>
-    <t>average of NDVI values within a buffer of 100 m</t>
-  </si>
-  <si>
-    <t>ndvi300_t</t>
-  </si>
-  <si>
-    <t>average of NDVI values within a buffer of 300 m</t>
-  </si>
-  <si>
-    <t>ndvi500_t</t>
-  </si>
-  <si>
-    <t>average of NDVI values within a buffer of 500 m</t>
-  </si>
-  <si>
-    <t>lden_t</t>
-  </si>
-  <si>
-    <t>A_weighted_decibel</t>
-  </si>
-  <si>
-    <t>day-evening-night level</t>
-  </si>
-  <si>
-    <t>ln_t</t>
-  </si>
-  <si>
-    <t>night level</t>
-  </si>
-  <si>
-    <t>lden_c_t</t>
-  </si>
-  <si>
-    <t>categorized day-evening-night level</t>
-  </si>
-  <si>
-    <t>ln_c_t</t>
-  </si>
-  <si>
-    <t>categorized night level</t>
-  </si>
-  <si>
-    <t>noise_dist_t</t>
-  </si>
-  <si>
-    <t>straight distance to the nearest road with noise level</t>
-  </si>
-  <si>
-    <t>areases_tert_t</t>
-  </si>
-  <si>
-    <t>area-level SES indicator (deprivation index in tertiles)</t>
-  </si>
-  <si>
-    <t>areases_quint_t</t>
-  </si>
-  <si>
-    <t>area-level SES indicator (deprivation index in quintiles)</t>
-  </si>
-  <si>
-    <t>distinvnear1_t</t>
-  </si>
-  <si>
-    <t>inverse_meter</t>
-  </si>
-  <si>
-    <t>inverse distance to nearest road</t>
-  </si>
-  <si>
-    <t>trafload100_t</t>
-  </si>
-  <si>
-    <t>vehicles_per_day_and_meter</t>
-  </si>
-  <si>
-    <t>total traffic load of all roads within a buffer of 100 m</t>
-  </si>
-  <si>
-    <t>trafmajorload100_t</t>
-  </si>
-  <si>
-    <t>total traffic load of major roads within a buffer of 100 m</t>
-  </si>
-  <si>
-    <t>trafnear_t</t>
-  </si>
-  <si>
-    <t>vehicles_per_day</t>
-  </si>
-  <si>
-    <t>traffic density on nearest road</t>
-  </si>
-  <si>
-    <t>foodenvdens300_t</t>
-  </si>
-  <si>
-    <t>number of facilities related to unhealthy food divided by the area of the 300 meters buffer</t>
-  </si>
-  <si>
-    <t>foodenvdensosm300_t</t>
-  </si>
-  <si>
-    <t>number of open street maps facilities related to unhealthy food divided by the area of the 300 meters buffer</t>
-  </si>
-  <si>
-    <t>tm_t</t>
-  </si>
-  <si>
-    <t>degree_celsius</t>
-  </si>
-  <si>
-    <t>average of mean temperature</t>
-  </si>
-  <si>
-    <t>tmin_t</t>
-  </si>
-  <si>
-    <t>average of minimum temperature</t>
-  </si>
-  <si>
-    <t>tmax_t</t>
-  </si>
-  <si>
-    <t>average of maximum temperature</t>
-  </si>
-  <si>
-    <t>hum_t</t>
-  </si>
-  <si>
-    <t>average of mean relative humidity</t>
-  </si>
-  <si>
-    <t>hmin_t</t>
-  </si>
-  <si>
-    <t>average of minimum relative humidity</t>
-  </si>
-  <si>
-    <t>hmax_t</t>
-  </si>
-  <si>
-    <t>average of maximum relative humidity</t>
-  </si>
-  <si>
-    <t>uvddc_t</t>
-  </si>
-  <si>
-    <t>kilojoules_per_square_meter</t>
-  </si>
-  <si>
-    <t>average of DNA-damage UV dose</t>
-  </si>
-  <si>
-    <t>uvdec_t</t>
-  </si>
-  <si>
-    <t>average of erythemal UV dose</t>
-  </si>
-  <si>
-    <t>uvdvc_t</t>
-  </si>
-  <si>
-    <t>average of vitamin-d UV dose</t>
-  </si>
-  <si>
-    <t>lst_t</t>
-  </si>
-  <si>
-    <t>land surface temperature</t>
-  </si>
-  <si>
-    <t>mdist_t</t>
-  </si>
-  <si>
-    <t>distance to meteorological station</t>
-  </si>
-  <si>
-    <t>SAI_score_T2</t>
-  </si>
-  <si>
-    <t>SAI score second trimester</t>
-  </si>
-  <si>
-    <t>SCL_total_score_T2</t>
-  </si>
-  <si>
-    <t>SCL score second trimester</t>
-  </si>
-  <si>
-    <t>SCL_anx_score_T2</t>
-  </si>
-  <si>
-    <t>SCL anxiety score second trimester</t>
-  </si>
-  <si>
-    <t>SCL_dep_score_T2</t>
-  </si>
-  <si>
-    <t>SCL depression score second trimester</t>
-  </si>
-  <si>
-    <t>SCL_total_score_T3</t>
-  </si>
-  <si>
-    <t>SCL score third trimester</t>
-  </si>
-  <si>
-    <t>SCL_anx_score_T3</t>
-  </si>
-  <si>
-    <t>SCL anxiety score third trimester</t>
-  </si>
-  <si>
-    <t>SCL_dep_score_T3</t>
-  </si>
-  <si>
-    <t>SCL depression score third trimester</t>
-  </si>
-  <si>
-    <t>GA_anx_T2</t>
-  </si>
-  <si>
-    <t>Gestational age in days at second trimester anxiety measure</t>
-  </si>
-  <si>
-    <t>GA_anx_T3</t>
-  </si>
-  <si>
-    <t>Gestational age in days at third trimester anxiety measure</t>
-  </si>
-  <si>
-    <t>variable</t>
-  </si>
-  <si>
-    <t>isMissing</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>&lt;50</t>
-  </si>
-  <si>
-    <t>50-54.9</t>
-  </si>
-  <si>
-    <t>55-59.9</t>
-  </si>
-  <si>
-    <t>60-64.9</t>
-  </si>
-  <si>
-    <t>65-69.9</t>
-  </si>
-  <si>
-    <t>&gt;70</t>
-  </si>
-  <si>
-    <t>&lt;55</t>
-  </si>
-  <si>
-    <t>70-74.9</t>
-  </si>
-  <si>
-    <t>&gt;75</t>
-  </si>
-  <si>
-    <t>low deprivated</t>
-  </si>
-  <si>
-    <t>medium deprivated</t>
-  </si>
-  <si>
-    <t>high deprivated</t>
-  </si>
-  <si>
-    <t>medium-low deprivated</t>
-  </si>
-  <si>
-    <t>medium-high deprivated</t>
+    <t xml:space="preserve">ndvi100_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ndvi_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">average of NDVI values within a buffer of 100 m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ndvi300_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">average of NDVI values within a buffer of 300 m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ndvi500_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">average of NDVI values within a buffer of 500 m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lden_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A_weighted_decibel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">day-evening-night level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ln_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">night level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lden_c_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">categorized day-evening-night level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ln_c_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">categorized night level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">noise_dist_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">straight distance to the nearest road with noise level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">areases_tert_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">area-level SES indicator (deprivation index in tertiles)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">areases_quint_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">area-level SES indicator (deprivation index in quintiles)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">distinvnear1_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inverse_meter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inverse distance to nearest road</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trafload100_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vehicles_per_day_and_meter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total traffic load of all roads within a buffer of 100 m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trafmajorload100_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total traffic load of major roads within a buffer of 100 m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trafnear_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vehicles_per_day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">traffic density on nearest road</t>
+  </si>
+  <si>
+    <t xml:space="preserve">foodenvdens300_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of facilities related to unhealthy food divided by the area of the 300 meters buffer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">foodenvdensosm300_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of open street maps facilities related to unhealthy food divided by the area of the 300 meters buffer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tm_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">degree_celsius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">average of mean temperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tmin_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">average of minimum temperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tmax_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">average of maximum temperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hum_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">average of mean relative humidity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hmin_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">average of minimum relative humidity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hmax_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">average of maximum relative humidity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uvddc_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kilojoules_per_square_meter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">average of DNA-damage UV dose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uvdec_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">average of erythemal UV dose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uvdvc_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">average of vitamin-d UV dose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lst_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">land surface temperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mdist_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">distance to meteorological station</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAI_score_t1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAI score first trimester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCL_total_score_t1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCL score first trimester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCL_anx_score_t1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCL anxiety score first trimester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCL_dep_score_t1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCL depression score first trimester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GA_anx_t1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestational age in days at first trimester anxiety measure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">variable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isMissing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50-54.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55-59.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60-64.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65-69.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70-74.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">low deprivated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medium deprivated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">high deprivated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medium-low deprivated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medium-high deprivated</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="General"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -749,14 +740,8 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -769,22 +754,16 @@
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="3">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin">
         <color rgb="FFAAAAAA"/>
       </left>
@@ -799,7 +778,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top style="thin">
@@ -809,23 +788,69 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -884,341 +909,34 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ317"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D317"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A93" activeCellId="0" sqref="A93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="37.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="197.140625" style="1" customWidth="1"/>
-    <col min="5" max="1024" width="8.85546875" style="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="37.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="197.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="1" width="8.86"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1232,7 +950,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1246,7 +964,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1258,7 +976,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -1272,7 +990,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -1286,7 +1004,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -1300,7 +1018,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -1314,7 +1032,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -1328,7 +1046,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -1342,7 +1060,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
@@ -1356,7 +1074,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>27</v>
       </c>
@@ -1370,7 +1088,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
         <v>29</v>
       </c>
@@ -1384,7 +1102,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
         <v>32</v>
       </c>
@@ -1398,7 +1116,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
         <v>35</v>
       </c>
@@ -1412,7 +1130,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
         <v>37</v>
       </c>
@@ -1426,7 +1144,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
         <v>39</v>
       </c>
@@ -1440,7 +1158,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
         <v>41</v>
       </c>
@@ -1454,7 +1172,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
         <v>43</v>
       </c>
@@ -1468,7 +1186,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
         <v>45</v>
       </c>
@@ -1482,7 +1200,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
         <v>47</v>
       </c>
@@ -1496,7 +1214,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
         <v>49</v>
       </c>
@@ -1510,7 +1228,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
         <v>51</v>
       </c>
@@ -1524,7 +1242,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
         <v>53</v>
       </c>
@@ -1538,7 +1256,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
         <v>55</v>
       </c>
@@ -1552,7 +1270,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
         <v>57</v>
       </c>
@@ -1566,7 +1284,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
         <v>59</v>
       </c>
@@ -1580,7 +1298,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
         <v>61</v>
       </c>
@@ -1594,7 +1312,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
         <v>63</v>
       </c>
@@ -1608,7 +1326,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
         <v>65</v>
       </c>
@@ -1622,7 +1340,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
         <v>68</v>
       </c>
@@ -1636,7 +1354,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
         <v>71</v>
       </c>
@@ -1650,7 +1368,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
         <v>73</v>
       </c>
@@ -1664,7 +1382,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
         <v>76</v>
       </c>
@@ -1678,7 +1396,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
         <v>78</v>
       </c>
@@ -1692,7 +1410,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
         <v>81</v>
       </c>
@@ -1706,7 +1424,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
         <v>83</v>
       </c>
@@ -1720,7 +1438,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
         <v>85</v>
       </c>
@@ -1734,7 +1452,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
         <v>87</v>
       </c>
@@ -1748,7 +1466,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
         <v>89</v>
       </c>
@@ -1762,7 +1480,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
         <v>91</v>
       </c>
@@ -1776,7 +1494,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
         <v>93</v>
       </c>
@@ -1790,7 +1508,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
         <v>95</v>
       </c>
@@ -1804,7 +1522,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
         <v>97</v>
       </c>
@@ -1818,7 +1536,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
         <v>99</v>
       </c>
@@ -1832,7 +1550,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
         <v>102</v>
       </c>
@@ -1846,7 +1564,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
         <v>104</v>
       </c>
@@ -1860,7 +1578,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
         <v>106</v>
       </c>
@@ -1874,7 +1592,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
         <v>108</v>
       </c>
@@ -1888,7 +1606,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
         <v>110</v>
       </c>
@@ -1902,7 +1620,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
         <v>112</v>
       </c>
@@ -1916,7 +1634,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
         <v>114</v>
       </c>
@@ -1930,7 +1648,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
         <v>116</v>
       </c>
@@ -1944,7 +1662,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
         <v>118</v>
       </c>
@@ -1958,7 +1676,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
         <v>120</v>
       </c>
@@ -1972,7 +1690,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
         <v>122</v>
       </c>
@@ -1986,7 +1704,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
         <v>124</v>
       </c>
@@ -2000,7 +1718,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
         <v>127</v>
       </c>
@@ -2014,7 +1732,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
         <v>129</v>
       </c>
@@ -2028,7 +1746,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
         <v>132</v>
       </c>
@@ -2042,7 +1760,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
         <v>134</v>
       </c>
@@ -2056,7 +1774,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
         <v>136</v>
       </c>
@@ -2070,7 +1788,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="s">
         <v>138</v>
       </c>
@@ -2084,7 +1802,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="s">
         <v>141</v>
       </c>
@@ -2098,7 +1816,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
         <v>143</v>
       </c>
@@ -2112,7 +1830,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
         <v>145</v>
       </c>
@@ -2126,7 +1844,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="s">
         <v>148</v>
       </c>
@@ -2140,7 +1858,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="s">
         <v>150</v>
       </c>
@@ -2154,7 +1872,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="s">
         <v>152</v>
       </c>
@@ -2168,7 +1886,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="s">
         <v>154</v>
       </c>
@@ -2182,7 +1900,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="s">
         <v>156</v>
       </c>
@@ -2196,7 +1914,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="s">
         <v>158</v>
       </c>
@@ -2210,7 +1928,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="s">
         <v>160</v>
       </c>
@@ -2224,7 +1942,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="s">
         <v>163</v>
       </c>
@@ -2238,7 +1956,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="s">
         <v>166</v>
       </c>
@@ -2252,7 +1970,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="s">
         <v>168</v>
       </c>
@@ -2266,7 +1984,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="s">
         <v>171</v>
       </c>
@@ -2280,7 +1998,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="s">
         <v>173</v>
       </c>
@@ -2294,7 +2012,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="s">
         <v>175</v>
       </c>
@@ -2308,7 +2026,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="s">
         <v>178</v>
       </c>
@@ -2322,7 +2040,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="s">
         <v>180</v>
       </c>
@@ -2336,7 +2054,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="s">
         <v>182</v>
       </c>
@@ -2350,7 +2068,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="s">
         <v>184</v>
       </c>
@@ -2364,7 +2082,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="s">
         <v>186</v>
       </c>
@@ -2378,7 +2096,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="s">
         <v>188</v>
       </c>
@@ -2392,7 +2110,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="s">
         <v>191</v>
       </c>
@@ -2406,7 +2124,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="s">
         <v>193</v>
       </c>
@@ -2420,7 +2138,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="s">
         <v>195</v>
       </c>
@@ -2434,7 +2152,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="s">
         <v>197</v>
       </c>
@@ -2448,7 +2166,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="4" t="s">
         <v>199</v>
       </c>
@@ -2462,7 +2180,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="4" t="s">
         <v>201</v>
       </c>
@@ -2476,7 +2194,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="4" t="s">
         <v>203</v>
       </c>
@@ -2490,7 +2208,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="4" t="s">
         <v>205</v>
       </c>
@@ -2504,7 +2222,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="4" t="s">
         <v>207</v>
       </c>
@@ -2518,3446 +2236,3456 @@
         <v>208</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D96" s="4" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A94" s="4"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="4"/>
+    </row>
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A95" s="4"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="4"/>
+    </row>
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A96" s="4"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="4"/>
+    </row>
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A97" s="4"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="4"/>
+    </row>
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
     </row>
-    <row r="99" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
     </row>
-    <row r="100" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
     </row>
-    <row r="101" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
     </row>
-    <row r="102" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
     </row>
-    <row r="103" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
     </row>
-    <row r="104" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
     </row>
-    <row r="105" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
     </row>
-    <row r="106" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
     </row>
-    <row r="107" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
     </row>
-    <row r="108" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
     </row>
-    <row r="109" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
     </row>
-    <row r="110" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
     </row>
-    <row r="111" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
     </row>
-    <row r="112" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
     </row>
-    <row r="113" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
     </row>
-    <row r="114" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
     </row>
-    <row r="115" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
     </row>
-    <row r="116" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
     </row>
-    <row r="117" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
     </row>
-    <row r="118" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
     </row>
-    <row r="119" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
     </row>
-    <row r="120" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
     </row>
-    <row r="121" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
     </row>
-    <row r="122" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
     </row>
-    <row r="123" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
     </row>
-    <row r="124" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
     </row>
-    <row r="125" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
     </row>
-    <row r="126" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
     </row>
-    <row r="127" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
     </row>
-    <row r="128" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
     </row>
-    <row r="129" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
     </row>
-    <row r="130" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
     </row>
-    <row r="131" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
     </row>
-    <row r="132" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
     </row>
-    <row r="133" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
     </row>
-    <row r="134" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
     </row>
-    <row r="135" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
     </row>
-    <row r="136" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
     </row>
-    <row r="137" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
     </row>
-    <row r="138" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
     </row>
-    <row r="139" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
     </row>
-    <row r="140" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
     </row>
-    <row r="141" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
     </row>
-    <row r="142" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
     </row>
-    <row r="143" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
     </row>
-    <row r="144" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
     </row>
-    <row r="145" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
     </row>
-    <row r="146" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
     </row>
-    <row r="147" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
     </row>
-    <row r="148" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
     </row>
-    <row r="149" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
     </row>
-    <row r="150" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
     </row>
-    <row r="151" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
     </row>
-    <row r="152" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
     </row>
-    <row r="153" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
     </row>
-    <row r="154" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
     </row>
-    <row r="155" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
     </row>
-    <row r="156" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
     </row>
-    <row r="157" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
     </row>
-    <row r="158" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
     </row>
-    <row r="159" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
     </row>
-    <row r="160" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
     </row>
-    <row r="161" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
     </row>
-    <row r="162" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
     </row>
-    <row r="163" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
     </row>
-    <row r="164" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
     </row>
-    <row r="165" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
     </row>
-    <row r="166" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
     </row>
-    <row r="167" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
     </row>
-    <row r="168" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
     </row>
-    <row r="169" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
     </row>
-    <row r="170" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
     </row>
-    <row r="171" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
     </row>
-    <row r="172" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
     </row>
-    <row r="173" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
     </row>
-    <row r="174" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
     </row>
-    <row r="175" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
     </row>
-    <row r="176" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
     </row>
-    <row r="177" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
     </row>
-    <row r="178" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
     </row>
-    <row r="179" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
     </row>
-    <row r="180" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
     </row>
-    <row r="181" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
     </row>
-    <row r="182" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
       <c r="D182" s="4"/>
     </row>
-    <row r="183" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
       <c r="D183" s="4"/>
     </row>
-    <row r="184" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
       <c r="D184" s="4"/>
     </row>
-    <row r="185" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
       <c r="D185" s="4"/>
     </row>
-    <row r="186" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
       <c r="D186" s="4"/>
     </row>
-    <row r="187" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
       <c r="D187" s="4"/>
     </row>
-    <row r="188" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
       <c r="D188" s="4"/>
     </row>
-    <row r="189" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
       <c r="D189" s="4"/>
     </row>
-    <row r="190" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
       <c r="D190" s="4"/>
     </row>
-    <row r="191" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
     </row>
-    <row r="192" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
       <c r="D192" s="4"/>
     </row>
-    <row r="193" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
       <c r="D193" s="4"/>
     </row>
-    <row r="194" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
       <c r="D194" s="4"/>
     </row>
-    <row r="195" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
       <c r="D195" s="4"/>
     </row>
-    <row r="196" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
       <c r="D196" s="4"/>
     </row>
-    <row r="197" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
       <c r="D197" s="4"/>
     </row>
-    <row r="198" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
       <c r="D198" s="4"/>
     </row>
-    <row r="199" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
       <c r="D199" s="4"/>
     </row>
-    <row r="200" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
       <c r="D200" s="4"/>
     </row>
-    <row r="201" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
       <c r="D201" s="4"/>
     </row>
-    <row r="202" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
       <c r="D202" s="4"/>
     </row>
-    <row r="203" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
       <c r="D203" s="4"/>
     </row>
-    <row r="204" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
       <c r="D204" s="4"/>
     </row>
-    <row r="205" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A205" s="4"/>
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
       <c r="D205" s="4"/>
     </row>
-    <row r="206" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
       <c r="D206" s="4"/>
     </row>
-    <row r="207" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A207" s="4"/>
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
       <c r="D207" s="4"/>
     </row>
-    <row r="208" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A208" s="4"/>
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
       <c r="D208" s="4"/>
     </row>
-    <row r="209" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A209" s="4"/>
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
       <c r="D209" s="4"/>
     </row>
-    <row r="210" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A210" s="4"/>
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
       <c r="D210" s="4"/>
     </row>
-    <row r="211" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A211" s="4"/>
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
       <c r="D211" s="4"/>
     </row>
-    <row r="212" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A212" s="4"/>
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
       <c r="D212" s="4"/>
     </row>
-    <row r="213" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A213" s="4"/>
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
       <c r="D213" s="4"/>
     </row>
-    <row r="214" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
       <c r="D214" s="4"/>
     </row>
-    <row r="215" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
       <c r="D215" s="4"/>
     </row>
-    <row r="216" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A216" s="4"/>
       <c r="B216" s="4"/>
       <c r="C216" s="4"/>
       <c r="D216" s="4"/>
     </row>
-    <row r="217" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A217" s="4"/>
       <c r="B217" s="4"/>
       <c r="C217" s="4"/>
       <c r="D217" s="4"/>
     </row>
-    <row r="218" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A218" s="4"/>
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
       <c r="D218" s="4"/>
     </row>
-    <row r="219" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A219" s="4"/>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
       <c r="D219" s="4"/>
     </row>
-    <row r="220" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A220" s="4"/>
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
       <c r="D220" s="4"/>
     </row>
-    <row r="221" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
       <c r="C221" s="4"/>
       <c r="D221" s="4"/>
     </row>
-    <row r="222" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A222" s="4"/>
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
       <c r="D222" s="4"/>
     </row>
-    <row r="223" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A223" s="4"/>
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
       <c r="D223" s="4"/>
     </row>
-    <row r="224" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A224" s="4"/>
       <c r="B224" s="4"/>
       <c r="C224" s="4"/>
       <c r="D224" s="4"/>
     </row>
-    <row r="225" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A225" s="4"/>
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
     </row>
-    <row r="226" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
       <c r="C226" s="4"/>
       <c r="D226" s="4"/>
     </row>
-    <row r="227" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
       <c r="C227" s="4"/>
       <c r="D227" s="4"/>
     </row>
-    <row r="228" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A228" s="4"/>
       <c r="B228" s="4"/>
       <c r="C228" s="4"/>
       <c r="D228" s="4"/>
     </row>
-    <row r="229" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A229" s="4"/>
       <c r="B229" s="4"/>
       <c r="C229" s="4"/>
       <c r="D229" s="4"/>
     </row>
-    <row r="230" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A230" s="4"/>
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
       <c r="D230" s="4"/>
     </row>
-    <row r="231" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A231" s="4"/>
       <c r="B231" s="4"/>
       <c r="C231" s="4"/>
       <c r="D231" s="4"/>
     </row>
-    <row r="232" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A232" s="4"/>
       <c r="B232" s="4"/>
       <c r="C232" s="4"/>
       <c r="D232" s="4"/>
     </row>
-    <row r="233" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A233" s="4"/>
       <c r="B233" s="4"/>
       <c r="C233" s="4"/>
       <c r="D233" s="4"/>
     </row>
-    <row r="234" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A234" s="4"/>
       <c r="B234" s="4"/>
       <c r="C234" s="4"/>
       <c r="D234" s="4"/>
     </row>
-    <row r="235" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A235" s="4"/>
       <c r="B235" s="4"/>
       <c r="C235" s="4"/>
       <c r="D235" s="4"/>
     </row>
-    <row r="236" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A236" s="4"/>
       <c r="B236" s="4"/>
       <c r="C236" s="4"/>
       <c r="D236" s="4"/>
     </row>
-    <row r="237" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
       <c r="D237" s="4"/>
     </row>
-    <row r="238" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A238" s="4"/>
       <c r="B238" s="4"/>
       <c r="C238" s="4"/>
       <c r="D238" s="4"/>
     </row>
-    <row r="239" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A239" s="4"/>
       <c r="B239" s="4"/>
       <c r="C239" s="4"/>
       <c r="D239" s="4"/>
     </row>
-    <row r="240" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A240" s="4"/>
       <c r="B240" s="4"/>
       <c r="C240" s="4"/>
       <c r="D240" s="4"/>
     </row>
-    <row r="241" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A241" s="4"/>
       <c r="B241" s="4"/>
       <c r="C241" s="4"/>
       <c r="D241" s="4"/>
     </row>
-    <row r="242" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A242" s="4"/>
       <c r="B242" s="4"/>
       <c r="C242" s="4"/>
       <c r="D242" s="4"/>
     </row>
-    <row r="243" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A243" s="4"/>
       <c r="B243" s="4"/>
       <c r="C243" s="4"/>
       <c r="D243" s="4"/>
     </row>
-    <row r="244" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A244" s="4"/>
       <c r="B244" s="4"/>
       <c r="C244" s="4"/>
       <c r="D244" s="4"/>
     </row>
-    <row r="245" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A245" s="4"/>
       <c r="B245" s="4"/>
       <c r="C245" s="4"/>
       <c r="D245" s="4"/>
     </row>
-    <row r="246" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A246" s="4"/>
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
       <c r="D246" s="4"/>
     </row>
-    <row r="247" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A247" s="4"/>
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
       <c r="D247" s="4"/>
     </row>
-    <row r="248" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A248" s="4"/>
       <c r="B248" s="4"/>
       <c r="C248" s="4"/>
       <c r="D248" s="4"/>
     </row>
-    <row r="249" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
       <c r="D249" s="4"/>
     </row>
-    <row r="250" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A250" s="4"/>
       <c r="B250" s="4"/>
       <c r="C250" s="4"/>
       <c r="D250" s="4"/>
     </row>
-    <row r="251" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A251" s="4"/>
       <c r="B251" s="4"/>
       <c r="C251" s="4"/>
       <c r="D251" s="4"/>
     </row>
-    <row r="252" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A252" s="4"/>
       <c r="B252" s="4"/>
       <c r="C252" s="4"/>
       <c r="D252" s="4"/>
     </row>
-    <row r="253" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A253" s="4"/>
       <c r="B253" s="4"/>
       <c r="C253" s="4"/>
       <c r="D253" s="4"/>
     </row>
-    <row r="254" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A254" s="4"/>
       <c r="B254" s="4"/>
       <c r="C254" s="4"/>
       <c r="D254" s="4"/>
     </row>
-    <row r="255" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A255" s="4"/>
       <c r="B255" s="4"/>
       <c r="C255" s="4"/>
       <c r="D255" s="4"/>
     </row>
-    <row r="256" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A256" s="4"/>
       <c r="B256" s="4"/>
       <c r="C256" s="4"/>
       <c r="D256" s="4"/>
     </row>
-    <row r="257" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A257" s="4"/>
       <c r="B257" s="4"/>
       <c r="C257" s="4"/>
       <c r="D257" s="4"/>
     </row>
-    <row r="258" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A258" s="4"/>
       <c r="B258" s="4"/>
       <c r="C258" s="4"/>
       <c r="D258" s="4"/>
     </row>
-    <row r="259" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A259" s="4"/>
       <c r="B259" s="4"/>
       <c r="C259" s="4"/>
       <c r="D259" s="4"/>
     </row>
-    <row r="260" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A260" s="4"/>
       <c r="B260" s="4"/>
       <c r="C260" s="4"/>
       <c r="D260" s="4"/>
     </row>
-    <row r="261" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A261" s="4"/>
       <c r="B261" s="4"/>
       <c r="C261" s="4"/>
       <c r="D261" s="4"/>
     </row>
-    <row r="262" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A262" s="4"/>
       <c r="B262" s="4"/>
       <c r="C262" s="4"/>
       <c r="D262" s="4"/>
     </row>
-    <row r="263" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A263" s="4"/>
       <c r="B263" s="4"/>
       <c r="C263" s="4"/>
       <c r="D263" s="4"/>
     </row>
-    <row r="264" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A264" s="4"/>
       <c r="B264" s="4"/>
       <c r="C264" s="4"/>
       <c r="D264" s="4"/>
     </row>
-    <row r="265" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A265" s="4"/>
       <c r="B265" s="4"/>
       <c r="C265" s="4"/>
       <c r="D265" s="4"/>
     </row>
-    <row r="266" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A266" s="4"/>
       <c r="B266" s="4"/>
       <c r="C266" s="4"/>
       <c r="D266" s="4"/>
     </row>
-    <row r="267" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A267" s="4"/>
       <c r="B267" s="4"/>
       <c r="C267" s="4"/>
       <c r="D267" s="4"/>
     </row>
-    <row r="268" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A268" s="4"/>
       <c r="B268" s="4"/>
       <c r="C268" s="4"/>
       <c r="D268" s="4"/>
     </row>
-    <row r="269" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A269" s="4"/>
       <c r="B269" s="4"/>
       <c r="C269" s="4"/>
       <c r="D269" s="4"/>
     </row>
-    <row r="270" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A270" s="4"/>
       <c r="B270" s="4"/>
       <c r="C270" s="4"/>
       <c r="D270" s="4"/>
     </row>
-    <row r="271" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A271" s="4"/>
       <c r="B271" s="4"/>
       <c r="C271" s="4"/>
       <c r="D271" s="4"/>
     </row>
-    <row r="272" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A272" s="4"/>
       <c r="B272" s="4"/>
       <c r="C272" s="4"/>
       <c r="D272" s="4"/>
     </row>
-    <row r="273" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A273" s="4"/>
       <c r="B273" s="4"/>
       <c r="C273" s="4"/>
       <c r="D273" s="4"/>
     </row>
-    <row r="274" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A274" s="4"/>
       <c r="B274" s="4"/>
       <c r="C274" s="4"/>
       <c r="D274" s="4"/>
     </row>
-    <row r="275" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A275" s="4"/>
       <c r="B275" s="4"/>
       <c r="C275" s="4"/>
       <c r="D275" s="4"/>
     </row>
-    <row r="276" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A276" s="4"/>
       <c r="B276" s="4"/>
       <c r="C276" s="4"/>
       <c r="D276" s="4"/>
     </row>
-    <row r="277" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A277" s="4"/>
       <c r="B277" s="4"/>
       <c r="C277" s="4"/>
       <c r="D277" s="4"/>
     </row>
-    <row r="278" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A278" s="4"/>
       <c r="B278" s="4"/>
       <c r="C278" s="4"/>
       <c r="D278" s="4"/>
     </row>
-    <row r="279" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A279" s="4"/>
       <c r="B279" s="4"/>
       <c r="C279" s="4"/>
       <c r="D279" s="4"/>
     </row>
-    <row r="280" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A280" s="4"/>
       <c r="B280" s="4"/>
       <c r="C280" s="4"/>
       <c r="D280" s="4"/>
     </row>
-    <row r="281" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A281" s="4"/>
       <c r="B281" s="4"/>
       <c r="C281" s="4"/>
       <c r="D281" s="4"/>
     </row>
-    <row r="282" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A282" s="4"/>
       <c r="B282" s="4"/>
       <c r="C282" s="4"/>
       <c r="D282" s="4"/>
     </row>
-    <row r="283" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A283" s="4"/>
       <c r="B283" s="4"/>
       <c r="C283" s="4"/>
       <c r="D283" s="4"/>
     </row>
-    <row r="284" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A284" s="4"/>
       <c r="B284" s="4"/>
       <c r="C284" s="4"/>
       <c r="D284" s="4"/>
     </row>
-    <row r="285" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A285" s="4"/>
       <c r="B285" s="4"/>
       <c r="C285" s="4"/>
       <c r="D285" s="4"/>
     </row>
-    <row r="286" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A286" s="4"/>
       <c r="B286" s="4"/>
       <c r="C286" s="4"/>
       <c r="D286" s="4"/>
     </row>
-    <row r="287" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A287" s="4"/>
       <c r="B287" s="4"/>
       <c r="C287" s="4"/>
       <c r="D287" s="4"/>
     </row>
-    <row r="288" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A288" s="4"/>
       <c r="B288" s="4"/>
       <c r="C288" s="4"/>
       <c r="D288" s="4"/>
     </row>
-    <row r="289" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A289" s="4"/>
       <c r="B289" s="4"/>
       <c r="C289" s="4"/>
       <c r="D289" s="4"/>
     </row>
-    <row r="290" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A290" s="4"/>
       <c r="B290" s="4"/>
       <c r="C290" s="4"/>
       <c r="D290" s="4"/>
     </row>
-    <row r="291" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A291" s="4"/>
       <c r="B291" s="4"/>
       <c r="C291" s="4"/>
       <c r="D291" s="4"/>
     </row>
-    <row r="292" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A292" s="4"/>
       <c r="B292" s="4"/>
       <c r="C292" s="4"/>
       <c r="D292" s="4"/>
     </row>
-    <row r="293" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A293" s="4"/>
       <c r="B293" s="4"/>
       <c r="C293" s="4"/>
       <c r="D293" s="4"/>
     </row>
-    <row r="294" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A294" s="4"/>
       <c r="B294" s="4"/>
       <c r="C294" s="4"/>
       <c r="D294" s="4"/>
     </row>
-    <row r="295" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A295" s="4"/>
       <c r="B295" s="4"/>
       <c r="C295" s="4"/>
       <c r="D295" s="4"/>
     </row>
-    <row r="296" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A296" s="4"/>
       <c r="B296" s="4"/>
       <c r="C296" s="4"/>
       <c r="D296" s="4"/>
     </row>
-    <row r="297" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A297" s="4"/>
       <c r="B297" s="4"/>
       <c r="C297" s="4"/>
       <c r="D297" s="4"/>
     </row>
-    <row r="298" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A298" s="4"/>
       <c r="B298" s="4"/>
       <c r="C298" s="4"/>
       <c r="D298" s="4"/>
     </row>
-    <row r="299" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A299" s="4"/>
       <c r="B299" s="4"/>
       <c r="C299" s="4"/>
       <c r="D299" s="4"/>
     </row>
-    <row r="300" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A300" s="4"/>
       <c r="B300" s="4"/>
       <c r="C300" s="4"/>
       <c r="D300" s="4"/>
     </row>
-    <row r="301" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A301" s="4"/>
       <c r="B301" s="4"/>
       <c r="C301" s="4"/>
       <c r="D301" s="4"/>
     </row>
-    <row r="302" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A302" s="4"/>
       <c r="B302" s="4"/>
       <c r="C302" s="4"/>
       <c r="D302" s="4"/>
     </row>
-    <row r="303" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A303" s="4"/>
       <c r="B303" s="4"/>
       <c r="C303" s="4"/>
       <c r="D303" s="4"/>
     </row>
-    <row r="304" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A304" s="4"/>
       <c r="B304" s="4"/>
       <c r="C304" s="4"/>
       <c r="D304" s="4"/>
     </row>
-    <row r="305" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A305" s="4"/>
       <c r="B305" s="4"/>
       <c r="C305" s="4"/>
       <c r="D305" s="4"/>
     </row>
-    <row r="306" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A306" s="4"/>
       <c r="B306" s="4"/>
       <c r="C306" s="4"/>
       <c r="D306" s="4"/>
     </row>
-    <row r="307" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A307" s="4"/>
       <c r="B307" s="4"/>
       <c r="C307" s="4"/>
       <c r="D307" s="4"/>
     </row>
-    <row r="308" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A308" s="4"/>
       <c r="B308" s="4"/>
       <c r="C308" s="4"/>
       <c r="D308" s="4"/>
     </row>
-    <row r="309" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A309" s="4"/>
       <c r="B309" s="4"/>
       <c r="C309" s="4"/>
       <c r="D309" s="4"/>
     </row>
-    <row r="310" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A310" s="4"/>
       <c r="B310" s="4"/>
       <c r="C310" s="4"/>
       <c r="D310" s="4"/>
     </row>
-    <row r="311" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A311" s="4"/>
       <c r="B311" s="4"/>
       <c r="C311" s="4"/>
       <c r="D311" s="4"/>
     </row>
-    <row r="312" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A312" s="4"/>
       <c r="B312" s="4"/>
       <c r="C312" s="4"/>
       <c r="D312" s="4"/>
     </row>
-    <row r="313" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A313" s="4"/>
       <c r="B313" s="4"/>
       <c r="C313" s="4"/>
       <c r="D313" s="4"/>
     </row>
-    <row r="314" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A314" s="4"/>
       <c r="B314" s="4"/>
       <c r="C314" s="4"/>
       <c r="D314" s="4"/>
     </row>
-    <row r="315" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A315" s="4"/>
       <c r="B315" s="4"/>
       <c r="C315" s="4"/>
       <c r="D315" s="4"/>
     </row>
-    <row r="316" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A316" s="4"/>
       <c r="B316" s="4"/>
       <c r="C316" s="4"/>
       <c r="D316" s="4"/>
     </row>
-    <row r="317" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A317" s="4"/>
       <c r="B317" s="4"/>
       <c r="C317" s="4"/>
       <c r="D317" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AMJ301"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D301"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
+    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="37.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="64.42578125" style="1" customWidth="1"/>
-    <col min="5" max="1024" width="8.85546875" style="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="37.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="64.43"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="1" width="8.86"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" s="6" t="b">
+      <c r="C2" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="b">
+      <c r="C3" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="C4" s="6" t="b">
+      <c r="C4" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="6" t="b">
+      <c r="C5" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="6" t="b">
+      <c r="C6" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="C7" s="6" t="b">
+      <c r="C7" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="6" t="b">
+      <c r="C8" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="C9" s="6" t="b">
+      <c r="C9" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="6" t="b">
+      <c r="C10" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C11" s="6" t="b">
+      <c r="C11" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="C12" s="6" t="b">
+      <c r="C12" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="C13" s="6" t="b">
+      <c r="C13" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="C14" s="6" t="b">
+      <c r="C14" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="C15" s="6" t="b">
+      <c r="C15" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C16" s="6" t="b">
+      <c r="C16" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C17" s="6" t="b">
+      <c r="C17" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="C18" s="6" t="b">
+      <c r="C18" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="C19" s="6" t="b">
+      <c r="C19" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="C20" s="6" t="b">
+      <c r="C20" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="C21" s="6" t="b">
+      <c r="C21" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C22" s="6" t="b">
+      <c r="C22" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C23" s="6" t="b">
+      <c r="C23" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="C24" s="6" t="b">
+      <c r="C24" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C25" s="6" t="b">
+      <c r="C25" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C26" s="6" t="b">
+      <c r="C26" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="C27" s="6" t="b">
+      <c r="C27" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="C28" s="6" t="b">
+      <c r="C28" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="C29" s="6" t="b">
+      <c r="C29" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="5"/>
-    </row>
-    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="6"/>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
-      <c r="C31" s="6"/>
+      <c r="C31" s="5"/>
       <c r="D31" s="4"/>
     </row>
-    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
-      <c r="C32" s="6"/>
+      <c r="C32" s="5"/>
       <c r="D32" s="4"/>
     </row>
-    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
-      <c r="C33" s="6"/>
+      <c r="C33" s="5"/>
       <c r="D33" s="4"/>
     </row>
-    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
-      <c r="C34" s="6"/>
+      <c r="C34" s="5"/>
       <c r="D34" s="4"/>
     </row>
-    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
-      <c r="C35" s="6"/>
+      <c r="C35" s="5"/>
       <c r="D35" s="4"/>
     </row>
-    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
-      <c r="C36" s="6"/>
+      <c r="C36" s="5"/>
       <c r="D36" s="4"/>
     </row>
-    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
-      <c r="C37" s="6"/>
+      <c r="C37" s="5"/>
       <c r="D37" s="4"/>
     </row>
-    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
-      <c r="C38" s="6"/>
+      <c r="C38" s="5"/>
       <c r="D38" s="4"/>
     </row>
-    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
-      <c r="C39" s="6"/>
+      <c r="C39" s="5"/>
       <c r="D39" s="4"/>
     </row>
-    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
-      <c r="C40" s="6"/>
+      <c r="C40" s="5"/>
       <c r="D40" s="4"/>
     </row>
-    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
-      <c r="C41" s="6"/>
+      <c r="C41" s="5"/>
       <c r="D41" s="4"/>
     </row>
-    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
-      <c r="C42" s="6"/>
+      <c r="C42" s="5"/>
       <c r="D42" s="4"/>
     </row>
-    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
-      <c r="C43" s="6"/>
+      <c r="C43" s="5"/>
       <c r="D43" s="4"/>
     </row>
-    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
-      <c r="C44" s="6"/>
+      <c r="C44" s="5"/>
       <c r="D44" s="4"/>
     </row>
-    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
-      <c r="C45" s="6"/>
+      <c r="C45" s="5"/>
       <c r="D45" s="4"/>
     </row>
-    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
-      <c r="C46" s="6"/>
+      <c r="C46" s="5"/>
       <c r="D46" s="4"/>
     </row>
-    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
-      <c r="C47" s="6"/>
+      <c r="C47" s="5"/>
       <c r="D47" s="4"/>
     </row>
-    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
-      <c r="C48" s="6"/>
+      <c r="C48" s="5"/>
       <c r="D48" s="4"/>
     </row>
-    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
-      <c r="C49" s="6"/>
+      <c r="C49" s="5"/>
       <c r="D49" s="4"/>
     </row>
-    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
-      <c r="C50" s="6"/>
+      <c r="C50" s="5"/>
       <c r="D50" s="4"/>
     </row>
-    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
-      <c r="C51" s="6"/>
+      <c r="C51" s="5"/>
       <c r="D51" s="4"/>
     </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
     </row>
-    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
     </row>
-    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
     </row>
-    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
     </row>
-    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
     </row>
-    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
     </row>
-    <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
     </row>
-    <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
     </row>
-    <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
     </row>
-    <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
     </row>
-    <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
     </row>
-    <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
     </row>
-    <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
     </row>
-    <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
     </row>
-    <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
     </row>
-    <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
     </row>
-    <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
     </row>
-    <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
     </row>
-    <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
     </row>
-    <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
     </row>
-    <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
     </row>
-    <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
     </row>
-    <row r="74" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
     </row>
-    <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
     </row>
-    <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
     </row>
-    <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
     </row>
-    <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
     </row>
-    <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
     </row>
-    <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
     </row>
-    <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
     </row>
-    <row r="82" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
     </row>
-    <row r="83" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
     </row>
-    <row r="84" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
     </row>
-    <row r="85" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
     </row>
-    <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
     </row>
-    <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
     </row>
-    <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
     </row>
-    <row r="89" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
     </row>
-    <row r="90" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
     </row>
-    <row r="91" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
     </row>
-    <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
     </row>
-    <row r="93" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
     </row>
-    <row r="94" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
     </row>
-    <row r="95" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
     </row>
-    <row r="96" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
     </row>
-    <row r="97" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
     </row>
-    <row r="98" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
     </row>
-    <row r="99" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
     </row>
-    <row r="100" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
     </row>
-    <row r="101" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
     </row>
-    <row r="102" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
     </row>
-    <row r="103" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
     </row>
-    <row r="104" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
     </row>
-    <row r="105" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
     </row>
-    <row r="106" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
     </row>
-    <row r="107" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
     </row>
-    <row r="108" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
     </row>
-    <row r="109" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
     </row>
-    <row r="110" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
     </row>
-    <row r="111" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
     </row>
-    <row r="112" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
     </row>
-    <row r="113" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
     </row>
-    <row r="114" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
     </row>
-    <row r="115" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
     </row>
-    <row r="116" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
     </row>
-    <row r="117" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
     </row>
-    <row r="118" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
     </row>
-    <row r="119" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
     </row>
-    <row r="120" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
     </row>
-    <row r="121" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
     </row>
-    <row r="122" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
     </row>
-    <row r="123" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
     </row>
-    <row r="124" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
     </row>
-    <row r="125" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
     </row>
-    <row r="126" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
     </row>
-    <row r="127" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
     </row>
-    <row r="128" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
     </row>
-    <row r="129" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
     </row>
-    <row r="130" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
     </row>
-    <row r="131" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
     </row>
-    <row r="132" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
     </row>
-    <row r="133" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
     </row>
-    <row r="134" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
     </row>
-    <row r="135" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
     </row>
-    <row r="136" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
     </row>
-    <row r="137" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
     </row>
-    <row r="138" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
     </row>
-    <row r="139" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
     </row>
-    <row r="140" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
     </row>
-    <row r="141" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
     </row>
-    <row r="142" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
     </row>
-    <row r="143" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
     </row>
-    <row r="144" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
     </row>
-    <row r="145" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
     </row>
-    <row r="146" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
     </row>
-    <row r="147" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
     </row>
-    <row r="148" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
     </row>
-    <row r="149" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
     </row>
-    <row r="150" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
     </row>
-    <row r="151" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
     </row>
-    <row r="152" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
     </row>
-    <row r="153" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
     </row>
-    <row r="154" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
     </row>
-    <row r="155" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
     </row>
-    <row r="156" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
     </row>
-    <row r="157" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
     </row>
-    <row r="158" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
     </row>
-    <row r="159" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
     </row>
-    <row r="160" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
     </row>
-    <row r="161" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
     </row>
-    <row r="162" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
     </row>
-    <row r="163" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
     </row>
-    <row r="164" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
     </row>
-    <row r="165" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
     </row>
-    <row r="166" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
     </row>
-    <row r="167" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
     </row>
-    <row r="168" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
     </row>
-    <row r="169" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
     </row>
-    <row r="170" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
     </row>
-    <row r="171" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
     </row>
-    <row r="172" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
     </row>
-    <row r="173" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
     </row>
-    <row r="174" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
     </row>
-    <row r="175" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
     </row>
-    <row r="176" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
     </row>
-    <row r="177" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
     </row>
-    <row r="178" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
     </row>
-    <row r="179" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
     </row>
-    <row r="180" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
     </row>
-    <row r="181" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
     </row>
-    <row r="182" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
       <c r="D182" s="4"/>
     </row>
-    <row r="183" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
       <c r="D183" s="4"/>
     </row>
-    <row r="184" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
       <c r="D184" s="4"/>
     </row>
-    <row r="185" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
       <c r="D185" s="4"/>
     </row>
-    <row r="186" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
       <c r="D186" s="4"/>
     </row>
-    <row r="187" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
       <c r="D187" s="4"/>
     </row>
-    <row r="188" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
       <c r="D188" s="4"/>
     </row>
-    <row r="189" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
       <c r="D189" s="4"/>
     </row>
-    <row r="190" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
       <c r="D190" s="4"/>
     </row>
-    <row r="191" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
     </row>
-    <row r="192" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
       <c r="D192" s="4"/>
     </row>
-    <row r="193" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
       <c r="D193" s="4"/>
     </row>
-    <row r="194" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
       <c r="D194" s="4"/>
     </row>
-    <row r="195" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
       <c r="D195" s="4"/>
     </row>
-    <row r="196" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
       <c r="D196" s="4"/>
     </row>
-    <row r="197" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
       <c r="D197" s="4"/>
     </row>
-    <row r="198" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
       <c r="D198" s="4"/>
     </row>
-    <row r="199" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
       <c r="D199" s="4"/>
     </row>
-    <row r="200" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
       <c r="D200" s="4"/>
     </row>
-    <row r="201" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
       <c r="D201" s="4"/>
     </row>
-    <row r="202" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
       <c r="D202" s="4"/>
     </row>
-    <row r="203" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
       <c r="D203" s="4"/>
     </row>
-    <row r="204" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
       <c r="D204" s="4"/>
     </row>
-    <row r="205" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A205" s="4"/>
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
       <c r="D205" s="4"/>
     </row>
-    <row r="206" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
       <c r="D206" s="4"/>
     </row>
-    <row r="207" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A207" s="4"/>
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
       <c r="D207" s="4"/>
     </row>
-    <row r="208" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A208" s="4"/>
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
       <c r="D208" s="4"/>
     </row>
-    <row r="209" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A209" s="4"/>
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
       <c r="D209" s="4"/>
     </row>
-    <row r="210" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A210" s="4"/>
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
       <c r="D210" s="4"/>
     </row>
-    <row r="211" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A211" s="4"/>
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
       <c r="D211" s="4"/>
     </row>
-    <row r="212" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A212" s="4"/>
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
       <c r="D212" s="4"/>
     </row>
-    <row r="213" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A213" s="4"/>
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
       <c r="D213" s="4"/>
     </row>
-    <row r="214" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
       <c r="D214" s="4"/>
     </row>
-    <row r="215" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
       <c r="D215" s="4"/>
     </row>
-    <row r="216" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A216" s="4"/>
       <c r="B216" s="4"/>
       <c r="C216" s="4"/>
       <c r="D216" s="4"/>
     </row>
-    <row r="217" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A217" s="4"/>
       <c r="B217" s="4"/>
       <c r="C217" s="4"/>
       <c r="D217" s="4"/>
     </row>
-    <row r="218" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A218" s="4"/>
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
       <c r="D218" s="4"/>
     </row>
-    <row r="219" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A219" s="4"/>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
       <c r="D219" s="4"/>
     </row>
-    <row r="220" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A220" s="4"/>
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
       <c r="D220" s="4"/>
     </row>
-    <row r="221" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
       <c r="C221" s="4"/>
       <c r="D221" s="4"/>
     </row>
-    <row r="222" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A222" s="4"/>
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
       <c r="D222" s="4"/>
     </row>
-    <row r="223" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A223" s="4"/>
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
       <c r="D223" s="4"/>
     </row>
-    <row r="224" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A224" s="4"/>
       <c r="B224" s="4"/>
       <c r="C224" s="4"/>
       <c r="D224" s="4"/>
     </row>
-    <row r="225" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A225" s="4"/>
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
     </row>
-    <row r="226" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
       <c r="C226" s="4"/>
       <c r="D226" s="4"/>
     </row>
-    <row r="227" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
       <c r="C227" s="4"/>
       <c r="D227" s="4"/>
     </row>
-    <row r="228" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A228" s="4"/>
       <c r="B228" s="4"/>
       <c r="C228" s="4"/>
       <c r="D228" s="4"/>
     </row>
-    <row r="229" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A229" s="4"/>
       <c r="B229" s="4"/>
       <c r="C229" s="4"/>
       <c r="D229" s="4"/>
     </row>
-    <row r="230" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A230" s="4"/>
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
       <c r="D230" s="4"/>
     </row>
-    <row r="231" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A231" s="4"/>
       <c r="B231" s="4"/>
       <c r="C231" s="4"/>
       <c r="D231" s="4"/>
     </row>
-    <row r="232" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A232" s="4"/>
       <c r="B232" s="4"/>
       <c r="C232" s="4"/>
       <c r="D232" s="4"/>
     </row>
-    <row r="233" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A233" s="4"/>
       <c r="B233" s="4"/>
       <c r="C233" s="4"/>
       <c r="D233" s="4"/>
     </row>
-    <row r="234" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A234" s="4"/>
       <c r="B234" s="4"/>
       <c r="C234" s="4"/>
       <c r="D234" s="4"/>
     </row>
-    <row r="235" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A235" s="4"/>
       <c r="B235" s="4"/>
       <c r="C235" s="4"/>
       <c r="D235" s="4"/>
     </row>
-    <row r="236" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A236" s="4"/>
       <c r="B236" s="4"/>
       <c r="C236" s="4"/>
       <c r="D236" s="4"/>
     </row>
-    <row r="237" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
       <c r="D237" s="4"/>
     </row>
-    <row r="238" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A238" s="4"/>
       <c r="B238" s="4"/>
       <c r="C238" s="4"/>
       <c r="D238" s="4"/>
     </row>
-    <row r="239" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A239" s="4"/>
       <c r="B239" s="4"/>
       <c r="C239" s="4"/>
       <c r="D239" s="4"/>
     </row>
-    <row r="240" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A240" s="4"/>
       <c r="B240" s="4"/>
       <c r="C240" s="4"/>
       <c r="D240" s="4"/>
     </row>
-    <row r="241" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A241" s="4"/>
       <c r="B241" s="4"/>
       <c r="C241" s="4"/>
       <c r="D241" s="4"/>
     </row>
-    <row r="242" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A242" s="4"/>
       <c r="B242" s="4"/>
       <c r="C242" s="4"/>
       <c r="D242" s="4"/>
     </row>
-    <row r="243" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A243" s="4"/>
       <c r="B243" s="4"/>
       <c r="C243" s="4"/>
       <c r="D243" s="4"/>
     </row>
-    <row r="244" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A244" s="4"/>
       <c r="B244" s="4"/>
       <c r="C244" s="4"/>
       <c r="D244" s="4"/>
     </row>
-    <row r="245" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A245" s="4"/>
       <c r="B245" s="4"/>
       <c r="C245" s="4"/>
       <c r="D245" s="4"/>
     </row>
-    <row r="246" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A246" s="4"/>
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
       <c r="D246" s="4"/>
     </row>
-    <row r="247" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A247" s="4"/>
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
       <c r="D247" s="4"/>
     </row>
-    <row r="248" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A248" s="4"/>
       <c r="B248" s="4"/>
       <c r="C248" s="4"/>
       <c r="D248" s="4"/>
     </row>
-    <row r="249" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
       <c r="D249" s="4"/>
     </row>
-    <row r="250" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A250" s="4"/>
       <c r="B250" s="4"/>
       <c r="C250" s="4"/>
       <c r="D250" s="4"/>
     </row>
-    <row r="251" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A251" s="4"/>
       <c r="B251" s="4"/>
       <c r="C251" s="4"/>
       <c r="D251" s="4"/>
     </row>
-    <row r="252" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A252" s="4"/>
       <c r="B252" s="4"/>
       <c r="C252" s="4"/>
       <c r="D252" s="4"/>
     </row>
-    <row r="253" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A253" s="4"/>
       <c r="B253" s="4"/>
       <c r="C253" s="4"/>
       <c r="D253" s="4"/>
     </row>
-    <row r="254" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A254" s="4"/>
       <c r="B254" s="4"/>
       <c r="C254" s="4"/>
       <c r="D254" s="4"/>
     </row>
-    <row r="255" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A255" s="4"/>
       <c r="B255" s="4"/>
       <c r="C255" s="4"/>
       <c r="D255" s="4"/>
     </row>
-    <row r="256" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A256" s="4"/>
       <c r="B256" s="4"/>
       <c r="C256" s="4"/>
       <c r="D256" s="4"/>
     </row>
-    <row r="257" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A257" s="4"/>
       <c r="B257" s="4"/>
       <c r="C257" s="4"/>
       <c r="D257" s="4"/>
     </row>
-    <row r="258" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A258" s="4"/>
       <c r="B258" s="4"/>
       <c r="C258" s="4"/>
       <c r="D258" s="4"/>
     </row>
-    <row r="259" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A259" s="4"/>
       <c r="B259" s="4"/>
       <c r="C259" s="4"/>
       <c r="D259" s="4"/>
     </row>
-    <row r="260" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A260" s="4"/>
       <c r="B260" s="4"/>
       <c r="C260" s="4"/>
       <c r="D260" s="4"/>
     </row>
-    <row r="261" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A261" s="4"/>
       <c r="B261" s="4"/>
       <c r="C261" s="4"/>
       <c r="D261" s="4"/>
     </row>
-    <row r="262" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A262" s="4"/>
       <c r="B262" s="4"/>
       <c r="C262" s="4"/>
       <c r="D262" s="4"/>
     </row>
-    <row r="263" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A263" s="4"/>
       <c r="B263" s="4"/>
       <c r="C263" s="4"/>
       <c r="D263" s="4"/>
     </row>
-    <row r="264" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A264" s="4"/>
       <c r="B264" s="4"/>
       <c r="C264" s="4"/>
       <c r="D264" s="4"/>
     </row>
-    <row r="265" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A265" s="4"/>
       <c r="B265" s="4"/>
       <c r="C265" s="4"/>
       <c r="D265" s="4"/>
     </row>
-    <row r="266" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A266" s="4"/>
       <c r="B266" s="4"/>
       <c r="C266" s="4"/>
       <c r="D266" s="4"/>
     </row>
-    <row r="267" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A267" s="4"/>
       <c r="B267" s="4"/>
       <c r="C267" s="4"/>
       <c r="D267" s="4"/>
     </row>
-    <row r="268" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A268" s="4"/>
       <c r="B268" s="4"/>
       <c r="C268" s="4"/>
       <c r="D268" s="4"/>
     </row>
-    <row r="269" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A269" s="4"/>
       <c r="B269" s="4"/>
       <c r="C269" s="4"/>
       <c r="D269" s="4"/>
     </row>
-    <row r="270" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A270" s="4"/>
       <c r="B270" s="4"/>
       <c r="C270" s="4"/>
       <c r="D270" s="4"/>
     </row>
-    <row r="271" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A271" s="4"/>
       <c r="B271" s="4"/>
       <c r="C271" s="4"/>
       <c r="D271" s="4"/>
     </row>
-    <row r="272" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A272" s="4"/>
       <c r="B272" s="4"/>
       <c r="C272" s="4"/>
       <c r="D272" s="4"/>
     </row>
-    <row r="273" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A273" s="4"/>
       <c r="B273" s="4"/>
       <c r="C273" s="4"/>
       <c r="D273" s="4"/>
     </row>
-    <row r="274" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A274" s="4"/>
       <c r="B274" s="4"/>
       <c r="C274" s="4"/>
       <c r="D274" s="4"/>
     </row>
-    <row r="275" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A275" s="4"/>
       <c r="B275" s="4"/>
       <c r="C275" s="4"/>
       <c r="D275" s="4"/>
     </row>
-    <row r="276" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A276" s="4"/>
       <c r="B276" s="4"/>
       <c r="C276" s="4"/>
       <c r="D276" s="4"/>
     </row>
-    <row r="277" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A277" s="4"/>
       <c r="B277" s="4"/>
       <c r="C277" s="4"/>
       <c r="D277" s="4"/>
     </row>
-    <row r="278" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A278" s="4"/>
       <c r="B278" s="4"/>
       <c r="C278" s="4"/>
       <c r="D278" s="4"/>
     </row>
-    <row r="279" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A279" s="4"/>
       <c r="B279" s="4"/>
       <c r="C279" s="4"/>
       <c r="D279" s="4"/>
     </row>
-    <row r="280" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A280" s="4"/>
       <c r="B280" s="4"/>
       <c r="C280" s="4"/>
       <c r="D280" s="4"/>
     </row>
-    <row r="281" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A281" s="4"/>
       <c r="B281" s="4"/>
       <c r="C281" s="4"/>
       <c r="D281" s="4"/>
     </row>
-    <row r="282" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A282" s="4"/>
       <c r="B282" s="4"/>
       <c r="C282" s="4"/>
       <c r="D282" s="4"/>
     </row>
-    <row r="283" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A283" s="4"/>
       <c r="B283" s="4"/>
       <c r="C283" s="4"/>
       <c r="D283" s="4"/>
     </row>
-    <row r="284" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A284" s="4"/>
       <c r="B284" s="4"/>
       <c r="C284" s="4"/>
       <c r="D284" s="4"/>
     </row>
-    <row r="285" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A285" s="4"/>
       <c r="B285" s="4"/>
       <c r="C285" s="4"/>
       <c r="D285" s="4"/>
     </row>
-    <row r="286" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A286" s="4"/>
       <c r="B286" s="4"/>
       <c r="C286" s="4"/>
       <c r="D286" s="4"/>
     </row>
-    <row r="287" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A287" s="4"/>
       <c r="B287" s="4"/>
       <c r="C287" s="4"/>
       <c r="D287" s="4"/>
     </row>
-    <row r="288" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A288" s="4"/>
       <c r="B288" s="4"/>
       <c r="C288" s="4"/>
       <c r="D288" s="4"/>
     </row>
-    <row r="289" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A289" s="4"/>
       <c r="B289" s="4"/>
       <c r="C289" s="4"/>
       <c r="D289" s="4"/>
     </row>
-    <row r="290" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A290" s="4"/>
       <c r="B290" s="4"/>
       <c r="C290" s="4"/>
       <c r="D290" s="4"/>
     </row>
-    <row r="291" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A291" s="4"/>
       <c r="B291" s="4"/>
       <c r="C291" s="4"/>
       <c r="D291" s="4"/>
     </row>
-    <row r="292" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A292" s="4"/>
       <c r="B292" s="4"/>
       <c r="C292" s="4"/>
       <c r="D292" s="4"/>
     </row>
-    <row r="293" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A293" s="4"/>
       <c r="B293" s="4"/>
       <c r="C293" s="4"/>
       <c r="D293" s="4"/>
     </row>
-    <row r="294" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A294" s="4"/>
       <c r="B294" s="4"/>
       <c r="C294" s="4"/>
       <c r="D294" s="4"/>
     </row>
-    <row r="295" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A295" s="4"/>
       <c r="B295" s="4"/>
       <c r="C295" s="4"/>
       <c r="D295" s="4"/>
     </row>
-    <row r="296" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A296" s="4"/>
       <c r="B296" s="4"/>
       <c r="C296" s="4"/>
       <c r="D296" s="4"/>
     </row>
-    <row r="297" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A297" s="4"/>
       <c r="B297" s="4"/>
       <c r="C297" s="4"/>
       <c r="D297" s="4"/>
     </row>
-    <row r="298" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A298" s="4"/>
       <c r="B298" s="4"/>
       <c r="C298" s="4"/>
       <c r="D298" s="4"/>
     </row>
-    <row r="299" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A299" s="4"/>
       <c r="B299" s="4"/>
       <c r="C299" s="4"/>
       <c r="D299" s="4"/>
     </row>
-    <row r="300" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A300" s="4"/>
       <c r="B300" s="4"/>
       <c r="C300" s="4"/>
       <c r="D300" s="4"/>
     </row>
-    <row r="301" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A301" s="4"/>
       <c r="B301" s="4"/>
       <c r="C301" s="4"/>
       <c r="D301" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/dictionaries/core/2_3/2_3_trimester_rep.xlsx
+++ b/dictionaries/core/2_3/2_3_trimester_rep.xlsx
@@ -620,34 +620,34 @@
     <t xml:space="preserve">distance to meteorological station</t>
   </si>
   <si>
-    <t xml:space="preserve">SAI_score_t1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAI score first trimester</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCL_total_score_t1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCL score first trimester</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCL_anx_score_t1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCL anxiety score first trimester</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCL_dep_score_t1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCL depression score first trimester</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GA_anx_t1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gestational age in days at first trimester anxiety measure</t>
+    <t xml:space="preserve">SAI_score_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAI score X trimester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCL_total_score_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCL score X trimester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCL_anx_score_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCL anxiety score X trimester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCL_dep_score_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCL depression score X trimester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GA_anx_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestational age in days at X trimester anxiety measure</t>
   </si>
   <si>
     <t xml:space="preserve">variable</t>
@@ -921,13 +921,13 @@
   </sheetPr>
   <dimension ref="A1:D317"/>
   <sheetViews>
-    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A93" activeCellId="0" sqref="A93"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="D93" activeCellId="0" sqref="D93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.42"/>
@@ -3604,7 +3604,7 @@
       <selection pane="bottomLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.42"/>
